--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,12 @@
     <t>['72', '90+1', '90+3']</t>
   </si>
   <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -982,9 +988,6 @@
     <t>['7', '38', '75']</t>
   </si>
   <si>
-    <t>['37']</t>
-  </si>
-  <si>
     <t>['15', '39', '62', '90+7']</t>
   </si>
   <si>
@@ -1124,6 +1127,12 @@
   </si>
   <si>
     <t>['33', '42']</t>
+  </si>
+  <si>
+    <t>['19', '43']</t>
+  </si>
+  <si>
+    <t>['43', '72']</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.71</v>
@@ -2156,7 +2165,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2440,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2774,7 +2783,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3186,7 +3195,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3267,7 +3276,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3598,7 +3607,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3804,7 +3813,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3885,7 +3894,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4010,7 +4019,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4091,7 +4100,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -4216,7 +4225,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4422,7 +4431,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4500,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4628,7 +4637,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4912,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -5864,7 +5873,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5945,7 +5954,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ22">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -6482,7 +6491,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6563,7 +6572,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6688,7 +6697,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6894,7 +6903,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7100,7 +7109,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7512,7 +7521,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7796,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ31">
         <v>0.36</v>
@@ -7924,7 +7933,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8130,7 +8139,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8414,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ34">
         <v>0.71</v>
@@ -8542,7 +8551,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8620,10 +8629,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -9035,7 +9044,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ37">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -9160,7 +9169,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9366,7 +9375,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9650,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ40">
         <v>0.93</v>
@@ -9856,10 +9865,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -9984,7 +9993,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10271,7 +10280,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ43">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10602,7 +10611,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10680,7 +10689,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ45">
         <v>1.07</v>
@@ -10808,7 +10817,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10889,7 +10898,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ46">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -11220,7 +11229,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11504,7 +11513,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ49">
         <v>0.86</v>
@@ -11632,7 +11641,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12122,7 +12131,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1.21</v>
@@ -12456,7 +12465,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12662,7 +12671,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12949,7 +12958,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -13155,7 +13164,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -13280,7 +13289,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13486,7 +13495,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13692,7 +13701,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13773,7 +13782,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13898,7 +13907,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13976,7 +13985,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ61">
         <v>0.71</v>
@@ -14516,7 +14525,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14928,7 +14937,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15418,7 +15427,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
         <v>0.6</v>
@@ -15833,7 +15842,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ70">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -16039,7 +16048,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16242,7 +16251,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ72">
         <v>1.21</v>
@@ -16370,7 +16379,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16576,7 +16585,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16860,7 +16869,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75">
         <v>1.36</v>
@@ -17069,7 +17078,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17275,7 +17284,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -17812,7 +17821,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19254,7 +19263,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19460,7 +19469,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19538,7 +19547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88">
         <v>1.71</v>
@@ -19666,7 +19675,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19872,7 +19881,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19953,7 +19962,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -20078,7 +20087,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20156,10 +20165,10 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -20490,7 +20499,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20571,7 +20580,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ93">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR93">
         <v>1.66</v>
@@ -20696,7 +20705,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20902,7 +20911,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20983,7 +20992,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ95">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -21108,7 +21117,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21186,7 +21195,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.85</v>
@@ -21392,7 +21401,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ97">
         <v>1.36</v>
@@ -21726,7 +21735,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21932,7 +21941,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22138,7 +22147,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22344,7 +22353,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22550,7 +22559,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22962,7 +22971,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23658,7 +23667,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>0.36</v>
@@ -23786,7 +23795,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23864,7 +23873,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ109">
         <v>0.71</v>
@@ -24070,7 +24079,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ110">
         <v>0.6</v>
@@ -24198,7 +24207,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24279,7 +24288,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ111">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24482,10 +24491,10 @@
         <v>2.67</v>
       </c>
       <c r="AP112">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR112">
         <v>1.59</v>
@@ -24816,7 +24825,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25103,7 +25112,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ115">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.74</v>
@@ -25228,7 +25237,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25306,7 +25315,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116">
         <v>1.21</v>
@@ -25434,7 +25443,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25515,7 +25524,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25846,7 +25855,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26464,7 +26473,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26670,7 +26679,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27082,7 +27091,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27163,7 +27172,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
@@ -27494,7 +27503,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27572,10 +27581,10 @@
         <v>1.17</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR127">
         <v>1.46</v>
@@ -27700,7 +27709,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27778,7 +27787,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ128">
         <v>1.07</v>
@@ -28112,7 +28121,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28193,7 +28202,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -28396,7 +28405,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
         <v>0.86</v>
@@ -28524,7 +28533,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28602,7 +28611,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>1.21</v>
@@ -28936,7 +28945,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29017,7 +29026,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ134">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR134">
         <v>1.7</v>
@@ -29142,7 +29151,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29348,7 +29357,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29429,7 +29438,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29554,7 +29563,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29760,7 +29769,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30047,7 +30056,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>1.94</v>
@@ -30172,7 +30181,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30378,7 +30387,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30665,7 +30674,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR142">
         <v>1.61</v>
@@ -31486,7 +31495,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ146">
         <v>1.43</v>
@@ -31692,7 +31701,7 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>0.6</v>
@@ -32026,7 +32035,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32104,10 +32113,10 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32232,7 +32241,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32516,7 +32525,7 @@
         <v>2.14</v>
       </c>
       <c r="AP151">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151">
         <v>1.71</v>
@@ -32644,7 +32653,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33137,7 +33146,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
         <v>1.51</v>
@@ -33752,7 +33761,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
         <v>0.36</v>
@@ -33880,7 +33889,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -33961,7 +33970,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ158">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR158">
         <v>1.55</v>
@@ -34164,7 +34173,7 @@
         <v>2.25</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ159">
         <v>1.85</v>
@@ -34292,7 +34301,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34498,7 +34507,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34910,7 +34919,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34988,7 +34997,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
         <v>1.07</v>
@@ -35322,7 +35331,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35815,7 +35824,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ167">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR167">
         <v>1.71</v>
@@ -36018,7 +36027,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ168">
         <v>0.86</v>
@@ -36639,7 +36648,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36764,7 +36773,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -36842,7 +36851,7 @@
         <v>1.22</v>
       </c>
       <c r="AP172">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ172">
         <v>1.36</v>
@@ -37254,7 +37263,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ174">
         <v>1.21</v>
@@ -37588,7 +37597,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -37669,7 +37678,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
         <v>1.63</v>
@@ -37872,7 +37881,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ177">
         <v>1.21</v>
@@ -38081,7 +38090,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ178">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR178">
         <v>1.4</v>
@@ -38206,7 +38215,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38284,7 +38293,7 @@
         <v>2.11</v>
       </c>
       <c r="AP179">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ179">
         <v>1.85</v>
@@ -38618,7 +38627,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38824,7 +38833,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -38905,7 +38914,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ182">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR182">
         <v>1.68</v>
@@ -39111,7 +39120,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ183">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR183">
         <v>2.02</v>
@@ -39314,7 +39323,7 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ184">
         <v>0.93</v>
@@ -39442,7 +39451,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39854,7 +39863,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40347,7 +40356,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ189">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR189">
         <v>1.82</v>
@@ -40472,7 +40481,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40678,7 +40687,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40756,7 +40765,7 @@
         <v>0.4</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ191">
         <v>0.36</v>
@@ -41296,7 +41305,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41374,7 +41383,7 @@
         <v>0.8</v>
       </c>
       <c r="AP194">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ194">
         <v>0.93</v>
@@ -41708,7 +41717,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41914,7 +41923,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42326,7 +42335,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42407,7 +42416,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR199">
         <v>1.65</v>
@@ -43025,7 +43034,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR202">
         <v>1.62</v>
@@ -43150,7 +43159,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43228,7 +43237,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ203">
         <v>1.43</v>
@@ -43562,7 +43571,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43643,7 +43652,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ205">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR205">
         <v>1.46</v>
@@ -44055,7 +44064,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR207">
         <v>1.81</v>
@@ -44386,7 +44395,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44670,7 +44679,7 @@
         <v>1</v>
       </c>
       <c r="AP210">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ210">
         <v>0.93</v>
@@ -44798,7 +44807,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45004,7 +45013,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45082,10 +45091,10 @@
         <v>2.27</v>
       </c>
       <c r="AP212">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ212">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR212">
         <v>1.62</v>
@@ -45622,7 +45631,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45906,7 +45915,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ216">
         <v>1.71</v>
@@ -46446,7 +46455,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46524,7 +46533,7 @@
         <v>2.09</v>
       </c>
       <c r="AP219">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ219">
         <v>1.85</v>
@@ -46652,7 +46661,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46939,7 +46948,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ221">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR221">
         <v>1.97</v>
@@ -47142,10 +47151,10 @@
         <v>1.17</v>
       </c>
       <c r="AP222">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR222">
         <v>1.48</v>
@@ -47557,7 +47566,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ224">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR224">
         <v>1.84</v>
@@ -47682,7 +47691,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47888,7 +47897,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48094,7 +48103,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48172,7 +48181,7 @@
         <v>0.83</v>
       </c>
       <c r="AP227">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ227">
         <v>0.93</v>
@@ -48506,7 +48515,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48996,7 +49005,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ231">
         <v>1.43</v>
@@ -49124,7 +49133,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49330,7 +49339,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49536,7 +49545,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49742,7 +49751,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -49823,7 +49832,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ235">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR235">
         <v>1.76</v>
@@ -50232,7 +50241,7 @@
         <v>0.77</v>
       </c>
       <c r="AP237">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ237">
         <v>0.71</v>
@@ -50360,7 +50369,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50566,7 +50575,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -50644,10 +50653,10 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ239">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR239">
         <v>1.6</v>
@@ -50853,7 +50862,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ240">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR240">
         <v>2</v>
@@ -51184,7 +51193,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51468,10 +51477,10 @@
         <v>1.08</v>
       </c>
       <c r="AP243">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ243">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR243">
         <v>1.82</v>
@@ -51596,7 +51605,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -51677,7 +51686,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ244">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR244">
         <v>1.41</v>
@@ -52420,7 +52429,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52626,7 +52635,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -52910,7 +52919,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ250">
         <v>0.93</v>
@@ -53038,7 +53047,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53450,7 +53459,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53607,6 +53616,830 @@
       </c>
       <c r="BP253">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7450903</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45766.30208333334</v>
+      </c>
+      <c r="F254">
+        <v>29</v>
+      </c>
+      <c r="G254" t="s">
+        <v>84</v>
+      </c>
+      <c r="H254" t="s">
+        <v>85</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" t="s">
+        <v>215</v>
+      </c>
+      <c r="P254" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q254">
+        <v>2.8</v>
+      </c>
+      <c r="R254">
+        <v>2.07</v>
+      </c>
+      <c r="S254">
+        <v>4.2</v>
+      </c>
+      <c r="T254">
+        <v>1.53</v>
+      </c>
+      <c r="U254">
+        <v>2.25</v>
+      </c>
+      <c r="V254">
+        <v>3.5</v>
+      </c>
+      <c r="W254">
+        <v>1.26</v>
+      </c>
+      <c r="X254">
+        <v>8</v>
+      </c>
+      <c r="Y254">
+        <v>1.05</v>
+      </c>
+      <c r="Z254">
+        <v>2.07</v>
+      </c>
+      <c r="AA254">
+        <v>3.16</v>
+      </c>
+      <c r="AB254">
+        <v>3.45</v>
+      </c>
+      <c r="AC254">
+        <v>1.08</v>
+      </c>
+      <c r="AD254">
+        <v>8</v>
+      </c>
+      <c r="AE254">
+        <v>1.49</v>
+      </c>
+      <c r="AF254">
+        <v>2.4</v>
+      </c>
+      <c r="AG254">
+        <v>2.45</v>
+      </c>
+      <c r="AH254">
+        <v>1.47</v>
+      </c>
+      <c r="AI254">
+        <v>2</v>
+      </c>
+      <c r="AJ254">
+        <v>1.75</v>
+      </c>
+      <c r="AK254">
+        <v>1.33</v>
+      </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
+      <c r="AM254">
+        <v>1.73</v>
+      </c>
+      <c r="AN254">
+        <v>1.29</v>
+      </c>
+      <c r="AO254">
+        <v>1.14</v>
+      </c>
+      <c r="AP254">
+        <v>1.27</v>
+      </c>
+      <c r="AQ254">
+        <v>1.13</v>
+      </c>
+      <c r="AR254">
+        <v>1.59</v>
+      </c>
+      <c r="AS254">
+        <v>1.4</v>
+      </c>
+      <c r="AT254">
+        <v>2.99</v>
+      </c>
+      <c r="AU254">
+        <v>4</v>
+      </c>
+      <c r="AV254">
+        <v>3</v>
+      </c>
+      <c r="AW254">
+        <v>4</v>
+      </c>
+      <c r="AX254">
+        <v>6</v>
+      </c>
+      <c r="AY254">
+        <v>8</v>
+      </c>
+      <c r="AZ254">
+        <v>10</v>
+      </c>
+      <c r="BA254">
+        <v>2</v>
+      </c>
+      <c r="BB254">
+        <v>7</v>
+      </c>
+      <c r="BC254">
+        <v>9</v>
+      </c>
+      <c r="BD254">
+        <v>1.64</v>
+      </c>
+      <c r="BE254">
+        <v>8.4</v>
+      </c>
+      <c r="BF254">
+        <v>2.76</v>
+      </c>
+      <c r="BG254">
+        <v>1.3</v>
+      </c>
+      <c r="BH254">
+        <v>3.34</v>
+      </c>
+      <c r="BI254">
+        <v>1.48</v>
+      </c>
+      <c r="BJ254">
+        <v>2.4</v>
+      </c>
+      <c r="BK254">
+        <v>1.85</v>
+      </c>
+      <c r="BL254">
+        <v>1.85</v>
+      </c>
+      <c r="BM254">
+        <v>2.38</v>
+      </c>
+      <c r="BN254">
+        <v>1.49</v>
+      </c>
+      <c r="BO254">
+        <v>3.1</v>
+      </c>
+      <c r="BP254">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7450908</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45766.40625</v>
+      </c>
+      <c r="F255">
+        <v>29</v>
+      </c>
+      <c r="G255" t="s">
+        <v>71</v>
+      </c>
+      <c r="H255" t="s">
+        <v>72</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>2</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255" t="s">
+        <v>95</v>
+      </c>
+      <c r="P255" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q255">
+        <v>2.51</v>
+      </c>
+      <c r="R255">
+        <v>2.29</v>
+      </c>
+      <c r="S255">
+        <v>4</v>
+      </c>
+      <c r="T255">
+        <v>1.35</v>
+      </c>
+      <c r="U255">
+        <v>3.15</v>
+      </c>
+      <c r="V255">
+        <v>2.35</v>
+      </c>
+      <c r="W255">
+        <v>1.52</v>
+      </c>
+      <c r="X255">
+        <v>5.5</v>
+      </c>
+      <c r="Y255">
+        <v>1.12</v>
+      </c>
+      <c r="Z255">
+        <v>1.95</v>
+      </c>
+      <c r="AA255">
+        <v>3.81</v>
+      </c>
+      <c r="AB255">
+        <v>3.6</v>
+      </c>
+      <c r="AC255">
+        <v>1.03</v>
+      </c>
+      <c r="AD255">
+        <v>15</v>
+      </c>
+      <c r="AE255">
+        <v>1.2</v>
+      </c>
+      <c r="AF255">
+        <v>4.45</v>
+      </c>
+      <c r="AG255">
+        <v>1.64</v>
+      </c>
+      <c r="AH255">
+        <v>2.2</v>
+      </c>
+      <c r="AI255">
+        <v>1.57</v>
+      </c>
+      <c r="AJ255">
+        <v>2.25</v>
+      </c>
+      <c r="AK255">
+        <v>1.29</v>
+      </c>
+      <c r="AL255">
+        <v>0</v>
+      </c>
+      <c r="AM255">
+        <v>1.85</v>
+      </c>
+      <c r="AN255">
+        <v>1.07</v>
+      </c>
+      <c r="AO255">
+        <v>1</v>
+      </c>
+      <c r="AP255">
+        <v>1</v>
+      </c>
+      <c r="AQ255">
+        <v>1.13</v>
+      </c>
+      <c r="AR255">
+        <v>1.59</v>
+      </c>
+      <c r="AS255">
+        <v>1.55</v>
+      </c>
+      <c r="AT255">
+        <v>3.14</v>
+      </c>
+      <c r="AU255">
+        <v>3</v>
+      </c>
+      <c r="AV255">
+        <v>6</v>
+      </c>
+      <c r="AW255">
+        <v>4</v>
+      </c>
+      <c r="AX255">
+        <v>1</v>
+      </c>
+      <c r="AY255">
+        <v>9</v>
+      </c>
+      <c r="AZ255">
+        <v>8</v>
+      </c>
+      <c r="BA255">
+        <v>7</v>
+      </c>
+      <c r="BB255">
+        <v>4</v>
+      </c>
+      <c r="BC255">
+        <v>11</v>
+      </c>
+      <c r="BD255">
+        <v>1.65</v>
+      </c>
+      <c r="BE255">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF255">
+        <v>2.2</v>
+      </c>
+      <c r="BG255">
+        <v>1.2</v>
+      </c>
+      <c r="BH255">
+        <v>3.8</v>
+      </c>
+      <c r="BI255">
+        <v>1.34</v>
+      </c>
+      <c r="BJ255">
+        <v>2.75</v>
+      </c>
+      <c r="BK255">
+        <v>1.63</v>
+      </c>
+      <c r="BL255">
+        <v>2.07</v>
+      </c>
+      <c r="BM255">
+        <v>1.98</v>
+      </c>
+      <c r="BN255">
+        <v>1.67</v>
+      </c>
+      <c r="BO255">
+        <v>2.67</v>
+      </c>
+      <c r="BP255">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7450907</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45766.52083333334</v>
+      </c>
+      <c r="F256">
+        <v>29</v>
+      </c>
+      <c r="G256" t="s">
+        <v>82</v>
+      </c>
+      <c r="H256" t="s">
+        <v>77</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="O256" t="s">
+        <v>263</v>
+      </c>
+      <c r="P256" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q256">
+        <v>2.55</v>
+      </c>
+      <c r="R256">
+        <v>2.3</v>
+      </c>
+      <c r="S256">
+        <v>3.75</v>
+      </c>
+      <c r="T256">
+        <v>1.35</v>
+      </c>
+      <c r="U256">
+        <v>3.28</v>
+      </c>
+      <c r="V256">
+        <v>2.4</v>
+      </c>
+      <c r="W256">
+        <v>1.54</v>
+      </c>
+      <c r="X256">
+        <v>5.6</v>
+      </c>
+      <c r="Y256">
+        <v>1.12</v>
+      </c>
+      <c r="Z256">
+        <v>2.06</v>
+      </c>
+      <c r="AA256">
+        <v>3.4</v>
+      </c>
+      <c r="AB256">
+        <v>3.2</v>
+      </c>
+      <c r="AC256">
+        <v>1.04</v>
+      </c>
+      <c r="AD256">
+        <v>12</v>
+      </c>
+      <c r="AE256">
+        <v>1.21</v>
+      </c>
+      <c r="AF256">
+        <v>4.53</v>
+      </c>
+      <c r="AG256">
+        <v>1.74</v>
+      </c>
+      <c r="AH256">
+        <v>2.16</v>
+      </c>
+      <c r="AI256">
+        <v>1.62</v>
+      </c>
+      <c r="AJ256">
+        <v>2.2</v>
+      </c>
+      <c r="AK256">
+        <v>1.27</v>
+      </c>
+      <c r="AL256">
+        <v>0</v>
+      </c>
+      <c r="AM256">
+        <v>1.75</v>
+      </c>
+      <c r="AN256">
+        <v>1.64</v>
+      </c>
+      <c r="AO256">
+        <v>1.29</v>
+      </c>
+      <c r="AP256">
+        <v>1.53</v>
+      </c>
+      <c r="AQ256">
+        <v>1.4</v>
+      </c>
+      <c r="AR256">
+        <v>1.49</v>
+      </c>
+      <c r="AS256">
+        <v>1.43</v>
+      </c>
+      <c r="AT256">
+        <v>2.92</v>
+      </c>
+      <c r="AU256">
+        <v>5</v>
+      </c>
+      <c r="AV256">
+        <v>4</v>
+      </c>
+      <c r="AW256">
+        <v>10</v>
+      </c>
+      <c r="AX256">
+        <v>3</v>
+      </c>
+      <c r="AY256">
+        <v>19</v>
+      </c>
+      <c r="AZ256">
+        <v>7</v>
+      </c>
+      <c r="BA256">
+        <v>4</v>
+      </c>
+      <c r="BB256">
+        <v>4</v>
+      </c>
+      <c r="BC256">
+        <v>8</v>
+      </c>
+      <c r="BD256">
+        <v>1.87</v>
+      </c>
+      <c r="BE256">
+        <v>7.8</v>
+      </c>
+      <c r="BF256">
+        <v>2.12</v>
+      </c>
+      <c r="BG256">
+        <v>1.2</v>
+      </c>
+      <c r="BH256">
+        <v>3.8</v>
+      </c>
+      <c r="BI256">
+        <v>1.4</v>
+      </c>
+      <c r="BJ256">
+        <v>2.75</v>
+      </c>
+      <c r="BK256">
+        <v>1.85</v>
+      </c>
+      <c r="BL256">
+        <v>2.18</v>
+      </c>
+      <c r="BM256">
+        <v>2</v>
+      </c>
+      <c r="BN256">
+        <v>1.73</v>
+      </c>
+      <c r="BO256">
+        <v>2.6</v>
+      </c>
+      <c r="BP256">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7450904</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45766.63541666666</v>
+      </c>
+      <c r="F257">
+        <v>29</v>
+      </c>
+      <c r="G257" t="s">
+        <v>73</v>
+      </c>
+      <c r="H257" t="s">
+        <v>86</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>1</v>
+      </c>
+      <c r="O257" t="s">
+        <v>264</v>
+      </c>
+      <c r="P257" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q257">
+        <v>3.4</v>
+      </c>
+      <c r="R257">
+        <v>1.96</v>
+      </c>
+      <c r="S257">
+        <v>3.1</v>
+      </c>
+      <c r="T257">
+        <v>1.42</v>
+      </c>
+      <c r="U257">
+        <v>2.6</v>
+      </c>
+      <c r="V257">
+        <v>2.88</v>
+      </c>
+      <c r="W257">
+        <v>1.35</v>
+      </c>
+      <c r="X257">
+        <v>7.75</v>
+      </c>
+      <c r="Y257">
+        <v>1.07</v>
+      </c>
+      <c r="Z257">
+        <v>2.77</v>
+      </c>
+      <c r="AA257">
+        <v>3.21</v>
+      </c>
+      <c r="AB257">
+        <v>2.52</v>
+      </c>
+      <c r="AC257">
+        <v>1.02</v>
+      </c>
+      <c r="AD257">
+        <v>8</v>
+      </c>
+      <c r="AE257">
+        <v>1.33</v>
+      </c>
+      <c r="AF257">
+        <v>3</v>
+      </c>
+      <c r="AG257">
+        <v>1.95</v>
+      </c>
+      <c r="AH257">
+        <v>1.7</v>
+      </c>
+      <c r="AI257">
+        <v>1.8</v>
+      </c>
+      <c r="AJ257">
+        <v>1.91</v>
+      </c>
+      <c r="AK257">
+        <v>1.38</v>
+      </c>
+      <c r="AL257">
+        <v>1.28</v>
+      </c>
+      <c r="AM257">
+        <v>1.42</v>
+      </c>
+      <c r="AN257">
+        <v>2.43</v>
+      </c>
+      <c r="AO257">
+        <v>2.29</v>
+      </c>
+      <c r="AP257">
+        <v>2.47</v>
+      </c>
+      <c r="AQ257">
+        <v>2.13</v>
+      </c>
+      <c r="AR257">
+        <v>1.85</v>
+      </c>
+      <c r="AS257">
+        <v>1.58</v>
+      </c>
+      <c r="AT257">
+        <v>3.43</v>
+      </c>
+      <c r="AU257">
+        <v>9</v>
+      </c>
+      <c r="AV257">
+        <v>0</v>
+      </c>
+      <c r="AW257">
+        <v>7</v>
+      </c>
+      <c r="AX257">
+        <v>6</v>
+      </c>
+      <c r="AY257">
+        <v>19</v>
+      </c>
+      <c r="AZ257">
+        <v>9</v>
+      </c>
+      <c r="BA257">
+        <v>13</v>
+      </c>
+      <c r="BB257">
+        <v>2</v>
+      </c>
+      <c r="BC257">
+        <v>15</v>
+      </c>
+      <c r="BD257">
+        <v>1.75</v>
+      </c>
+      <c r="BE257">
+        <v>6.4</v>
+      </c>
+      <c r="BF257">
+        <v>2.1</v>
+      </c>
+      <c r="BG257">
+        <v>1.29</v>
+      </c>
+      <c r="BH257">
+        <v>2.9</v>
+      </c>
+      <c r="BI257">
+        <v>1.48</v>
+      </c>
+      <c r="BJ257">
+        <v>2.5</v>
+      </c>
+      <c r="BK257">
+        <v>1.73</v>
+      </c>
+      <c r="BL257">
+        <v>2</v>
+      </c>
+      <c r="BM257">
+        <v>2.2</v>
+      </c>
+      <c r="BN257">
+        <v>1.62</v>
+      </c>
+      <c r="BO257">
+        <v>2.7</v>
+      </c>
+      <c r="BP257">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="375">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,9 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['85', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1133,6 +1136,9 @@
   </si>
   <si>
     <t>['43', '72']</t>
+  </si>
+  <si>
+    <t>['69', '86']</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2165,7 +2171,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2783,7 +2789,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3195,7 +3201,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3607,7 +3613,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>1.21</v>
@@ -3813,7 +3819,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4019,7 +4025,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4225,7 +4231,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4431,7 +4437,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4637,7 +4643,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5873,7 +5879,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6491,7 +6497,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6697,7 +6703,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6903,7 +6909,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7109,7 +7115,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7521,7 +7527,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7933,7 +7939,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8139,7 +8145,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8217,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33">
         <v>1.21</v>
@@ -8551,7 +8557,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8835,7 +8841,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -9169,7 +9175,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9375,7 +9381,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9993,7 +9999,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10611,7 +10617,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10817,7 +10823,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11229,7 +11235,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11641,7 +11647,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12465,7 +12471,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12671,7 +12677,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12955,7 +12961,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13289,7 +13295,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13495,7 +13501,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13701,7 +13707,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13907,7 +13913,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14525,7 +14531,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14937,7 +14943,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16379,7 +16385,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16457,7 +16463,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>1.85</v>
@@ -16585,7 +16591,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17821,7 +17827,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19263,7 +19269,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19469,7 +19475,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19675,7 +19681,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19881,7 +19887,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19959,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -20087,7 +20093,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20499,7 +20505,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20705,7 +20711,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20911,7 +20917,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21117,7 +21123,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21735,7 +21741,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21941,7 +21947,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22147,7 +22153,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22353,7 +22359,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22559,7 +22565,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22971,7 +22977,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23795,7 +23801,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24207,7 +24213,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24825,7 +24831,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25237,7 +25243,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25443,7 +25449,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25855,7 +25861,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26139,7 +26145,7 @@
         <v>2.17</v>
       </c>
       <c r="AP120">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120">
         <v>1.43</v>
@@ -26473,7 +26479,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26679,7 +26685,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27091,7 +27097,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27503,7 +27509,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28121,7 +28127,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28533,7 +28539,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28945,7 +28951,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29151,7 +29157,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29357,7 +29363,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29563,7 +29569,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29769,7 +29775,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30181,7 +30187,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30387,7 +30393,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31083,7 +31089,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144">
         <v>0.93</v>
@@ -32035,7 +32041,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32241,7 +32247,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32653,7 +32659,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33889,7 +33895,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34301,7 +34307,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34379,7 +34385,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ160">
         <v>1.71</v>
@@ -34507,7 +34513,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34919,7 +34925,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35331,7 +35337,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36773,7 +36779,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37597,7 +37603,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38215,7 +38221,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38627,7 +38633,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38705,7 +38711,7 @@
         <v>0.6</v>
       </c>
       <c r="AP181">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ181">
         <v>0.86</v>
@@ -38833,7 +38839,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39451,7 +39457,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39863,7 +39869,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40481,7 +40487,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40687,7 +40693,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41305,7 +41311,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41717,7 +41723,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41923,7 +41929,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42335,7 +42341,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43159,7 +43165,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43571,7 +43577,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43649,7 +43655,7 @@
         <v>1.27</v>
       </c>
       <c r="AP205">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ205">
         <v>1.4</v>
@@ -44395,7 +44401,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44807,7 +44813,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45013,7 +45019,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45631,7 +45637,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46455,7 +46461,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46661,7 +46667,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47357,7 +47363,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ223">
         <v>1.36</v>
@@ -47691,7 +47697,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47897,7 +47903,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48103,7 +48109,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48515,7 +48521,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49133,7 +49139,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49339,7 +49345,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49545,7 +49551,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49751,7 +49757,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50369,7 +50375,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50575,7 +50581,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51193,7 +51199,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51605,7 +51611,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -51683,7 +51689,7 @@
         <v>2.38</v>
       </c>
       <c r="AP244">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ244">
         <v>2.13</v>
@@ -52429,7 +52435,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52635,7 +52641,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53047,7 +53053,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53459,7 +53465,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53871,7 +53877,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54077,7 +54083,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54440,6 +54446,212 @@
       </c>
       <c r="BP257">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7450905</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45768.30208333334</v>
+      </c>
+      <c r="F258">
+        <v>29</v>
+      </c>
+      <c r="G258" t="s">
+        <v>79</v>
+      </c>
+      <c r="H258" t="s">
+        <v>81</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258" t="s">
+        <v>265</v>
+      </c>
+      <c r="P258" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q258">
+        <v>3.4</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>3</v>
+      </c>
+      <c r="T258">
+        <v>1.4</v>
+      </c>
+      <c r="U258">
+        <v>2.9</v>
+      </c>
+      <c r="V258">
+        <v>2.77</v>
+      </c>
+      <c r="W258">
+        <v>1.4</v>
+      </c>
+      <c r="X258">
+        <v>6.75</v>
+      </c>
+      <c r="Y258">
+        <v>1.09</v>
+      </c>
+      <c r="Z258">
+        <v>2.86</v>
+      </c>
+      <c r="AA258">
+        <v>3.47</v>
+      </c>
+      <c r="AB258">
+        <v>2.46</v>
+      </c>
+      <c r="AC258">
+        <v>1.01</v>
+      </c>
+      <c r="AD258">
+        <v>9.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.29</v>
+      </c>
+      <c r="AF258">
+        <v>3.44</v>
+      </c>
+      <c r="AG258">
+        <v>1.95</v>
+      </c>
+      <c r="AH258">
+        <v>1.91</v>
+      </c>
+      <c r="AI258">
+        <v>1.68</v>
+      </c>
+      <c r="AJ258">
+        <v>2.1</v>
+      </c>
+      <c r="AK258">
+        <v>1.3</v>
+      </c>
+      <c r="AL258">
+        <v>1.28</v>
+      </c>
+      <c r="AM258">
+        <v>1.35</v>
+      </c>
+      <c r="AN258">
+        <v>1.31</v>
+      </c>
+      <c r="AO258">
+        <v>1.07</v>
+      </c>
+      <c r="AP258">
+        <v>1.29</v>
+      </c>
+      <c r="AQ258">
+        <v>1.07</v>
+      </c>
+      <c r="AR258">
+        <v>1.41</v>
+      </c>
+      <c r="AS258">
+        <v>1.38</v>
+      </c>
+      <c r="AT258">
+        <v>2.79</v>
+      </c>
+      <c r="AU258">
+        <v>4</v>
+      </c>
+      <c r="AV258">
+        <v>5</v>
+      </c>
+      <c r="AW258">
+        <v>4</v>
+      </c>
+      <c r="AX258">
+        <v>7</v>
+      </c>
+      <c r="AY258">
+        <v>11</v>
+      </c>
+      <c r="AZ258">
+        <v>15</v>
+      </c>
+      <c r="BA258">
+        <v>5</v>
+      </c>
+      <c r="BB258">
+        <v>6</v>
+      </c>
+      <c r="BC258">
+        <v>11</v>
+      </c>
+      <c r="BD258">
+        <v>1.98</v>
+      </c>
+      <c r="BE258">
+        <v>7.8</v>
+      </c>
+      <c r="BF258">
+        <v>2.16</v>
+      </c>
+      <c r="BG258">
+        <v>1.29</v>
+      </c>
+      <c r="BH258">
+        <v>3.9</v>
+      </c>
+      <c r="BI258">
+        <v>1.38</v>
+      </c>
+      <c r="BJ258">
+        <v>2.75</v>
+      </c>
+      <c r="BK258">
+        <v>1.65</v>
+      </c>
+      <c r="BL258">
+        <v>2.15</v>
+      </c>
+      <c r="BM258">
+        <v>2.25</v>
+      </c>
+      <c r="BN258">
+        <v>1.57</v>
+      </c>
+      <c r="BO258">
+        <v>2.55</v>
+      </c>
+      <c r="BP258">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,12 @@
     <t>['85', '90+1']</t>
   </si>
   <si>
+    <t>['45+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['38', '76']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1139,6 +1145,9 @@
   </si>
   <si>
     <t>['69', '86']</t>
+  </si>
+  <si>
+    <t>['29', '88', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ2">
         <v>0.6</v>
@@ -2046,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2171,7 +2180,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2661,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2789,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3073,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
         <v>1.21</v>
@@ -3201,7 +3210,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3613,7 +3622,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3819,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4025,7 +4034,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4231,7 +4240,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4437,7 +4446,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4643,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5342,7 +5351,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ19">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5879,7 +5888,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6163,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ23">
         <v>0.36</v>
@@ -6369,10 +6378,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ24">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -6497,7 +6506,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6703,7 +6712,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6781,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.36</v>
@@ -6909,7 +6918,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7115,7 +7124,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7527,7 +7536,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7608,7 +7617,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7939,7 +7948,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8020,7 +8029,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -8145,7 +8154,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8557,7 +8566,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8844,7 +8853,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -9175,7 +9184,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9253,10 +9262,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ38">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -9381,7 +9390,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9999,7 +10008,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10077,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.07</v>
@@ -10617,7 +10626,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10823,7 +10832,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11235,7 +11244,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11522,7 +11531,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11647,7 +11656,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11931,7 +11940,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ51">
         <v>0.93</v>
@@ -12471,7 +12480,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12677,7 +12686,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13295,7 +13304,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13376,7 +13385,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ58">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13501,7 +13510,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13582,7 +13591,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13707,7 +13716,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13785,7 +13794,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13913,7 +13922,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14197,7 +14206,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ62">
         <v>0.93</v>
@@ -14531,7 +14540,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14943,7 +14952,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15227,7 +15236,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -15642,7 +15651,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15845,7 +15854,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>2.13</v>
@@ -16385,7 +16394,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16466,7 +16475,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16591,7 +16600,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16669,10 +16678,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -17496,7 +17505,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17699,7 +17708,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ79">
         <v>0.71</v>
@@ -17827,7 +17836,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18935,7 +18944,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.21</v>
@@ -19269,7 +19278,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19475,7 +19484,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19681,7 +19690,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19887,7 +19896,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20093,7 +20102,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20380,7 +20389,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20505,7 +20514,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20711,7 +20720,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20792,7 +20801,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ94">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.85</v>
@@ -20917,7 +20926,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20995,7 +21004,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ95">
         <v>1.4</v>
@@ -21123,7 +21132,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21204,7 +21213,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21613,7 +21622,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ98">
         <v>1.21</v>
@@ -21741,7 +21750,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21947,7 +21956,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22153,7 +22162,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22359,7 +22368,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22565,7 +22574,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22977,7 +22986,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23801,7 +23810,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23882,7 +23891,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ109">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -24213,7 +24222,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24703,7 +24712,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ113">
         <v>1.07</v>
@@ -24831,7 +24840,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24912,7 +24921,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -25115,7 +25124,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -25243,7 +25252,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25449,7 +25458,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25527,7 +25536,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.13</v>
@@ -25861,7 +25870,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26479,7 +26488,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26685,7 +26694,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26766,7 +26775,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ123">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR123">
         <v>1.23</v>
@@ -26969,7 +26978,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
         <v>0.93</v>
@@ -27097,7 +27106,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27509,7 +27518,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28002,7 +28011,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ129">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -28127,7 +28136,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28414,7 +28423,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28539,7 +28548,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28951,7 +28960,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29029,7 +29038,7 @@
         <v>2.43</v>
       </c>
       <c r="AP134">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ134">
         <v>2.13</v>
@@ -29157,7 +29166,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29235,7 +29244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ135">
         <v>1.21</v>
@@ -29363,7 +29372,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29569,7 +29578,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29647,7 +29656,7 @@
         <v>0.29</v>
       </c>
       <c r="AP137">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ137">
         <v>0.71</v>
@@ -29775,7 +29784,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30059,7 +30068,7 @@
         <v>1.43</v>
       </c>
       <c r="AP139">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -30187,7 +30196,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30265,10 +30274,10 @@
         <v>2.57</v>
       </c>
       <c r="AP140">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR140">
         <v>1.69</v>
@@ -30393,7 +30402,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31298,7 +31307,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ145">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.63</v>
@@ -31916,7 +31925,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ148">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR148">
         <v>1.73</v>
@@ -32041,7 +32050,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32247,7 +32256,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32659,7 +32668,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33895,7 +33904,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34182,7 +34191,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ159">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR159">
         <v>1.47</v>
@@ -34307,7 +34316,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34513,7 +34522,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34925,7 +34934,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35337,7 +35346,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35415,7 +35424,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ165">
         <v>0.93</v>
@@ -35624,7 +35633,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ166">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR166">
         <v>1.68</v>
@@ -36036,7 +36045,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ168">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>1.8</v>
@@ -36445,7 +36454,7 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ170">
         <v>1.07</v>
@@ -36651,7 +36660,7 @@
         <v>1.11</v>
       </c>
       <c r="AP171">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>1.13</v>
@@ -36779,7 +36788,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37603,7 +37612,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38221,7 +38230,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38302,7 +38311,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR179">
         <v>1.4</v>
@@ -38633,7 +38642,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38714,7 +38723,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ181">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.46</v>
@@ -38839,7 +38848,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39123,7 +39132,7 @@
         <v>2.2</v>
       </c>
       <c r="AP183">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ183">
         <v>2.13</v>
@@ -39457,7 +39466,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39741,7 +39750,7 @@
         <v>0.6</v>
       </c>
       <c r="AP186">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ186">
         <v>0.6</v>
@@ -39869,7 +39878,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40359,7 +40368,7 @@
         <v>1.4</v>
       </c>
       <c r="AP189">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ189">
         <v>1.4</v>
@@ -40487,7 +40496,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40568,7 +40577,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ190">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR190">
         <v>1.75</v>
@@ -40693,7 +40702,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41311,7 +41320,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41723,7 +41732,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41929,7 +41938,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42213,10 +42222,10 @@
         <v>0.82</v>
       </c>
       <c r="AP198">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ198">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.96</v>
@@ -42341,7 +42350,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42834,7 +42843,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ201">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR201">
         <v>1.93</v>
@@ -43165,7 +43174,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43577,7 +43586,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43861,7 +43870,7 @@
         <v>0.36</v>
       </c>
       <c r="AP206">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
         <v>0.71</v>
@@ -44067,7 +44076,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ207">
         <v>1.13</v>
@@ -44276,7 +44285,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ208">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR208">
         <v>1.66</v>
@@ -44401,7 +44410,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44813,7 +44822,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45019,7 +45028,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45303,7 +45312,7 @@
         <v>0.45</v>
       </c>
       <c r="AP213">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ213">
         <v>0.36</v>
@@ -45512,7 +45521,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ214">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR214">
         <v>1.68</v>
@@ -45637,7 +45646,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46336,7 +46345,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ218">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR218">
         <v>1.64</v>
@@ -46461,7 +46470,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46542,7 +46551,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ219">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR219">
         <v>1.79</v>
@@ -46667,7 +46676,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47697,7 +47706,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47903,7 +47912,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -47981,7 +47990,7 @@
         <v>1.55</v>
       </c>
       <c r="AP226">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ226">
         <v>1.43</v>
@@ -48109,7 +48118,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48393,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
         <v>0.93</v>
@@ -48521,7 +48530,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49139,7 +49148,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49345,7 +49354,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49551,7 +49560,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49757,7 +49766,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50044,7 +50053,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ236">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR236">
         <v>1.6</v>
@@ -50250,7 +50259,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ237">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR237">
         <v>1.47</v>
@@ -50375,7 +50384,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50456,7 +50465,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ238">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR238">
         <v>1.65</v>
@@ -50581,7 +50590,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -50865,7 +50874,7 @@
         <v>1.23</v>
       </c>
       <c r="AP240">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ240">
         <v>1.13</v>
@@ -51071,7 +51080,7 @@
         <v>1.38</v>
       </c>
       <c r="AP241">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ241">
         <v>1.36</v>
@@ -51199,7 +51208,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51611,7 +51620,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -52435,7 +52444,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52641,7 +52650,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53053,7 +53062,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53337,7 +53346,7 @@
         <v>1.62</v>
       </c>
       <c r="AP252">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ252">
         <v>1.71</v>
@@ -53465,7 +53474,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53877,7 +53886,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54083,7 +54092,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54495,7 +54504,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54652,6 +54661,624 @@
       </c>
       <c r="BP258">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7450900</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45768.40625</v>
+      </c>
+      <c r="F259">
+        <v>29</v>
+      </c>
+      <c r="G259" t="s">
+        <v>70</v>
+      </c>
+      <c r="H259" t="s">
+        <v>83</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>3</v>
+      </c>
+      <c r="N259">
+        <v>4</v>
+      </c>
+      <c r="O259" t="s">
+        <v>177</v>
+      </c>
+      <c r="P259" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q259">
+        <v>2.1</v>
+      </c>
+      <c r="R259">
+        <v>2.28</v>
+      </c>
+      <c r="S259">
+        <v>4.6</v>
+      </c>
+      <c r="T259">
+        <v>1.31</v>
+      </c>
+      <c r="U259">
+        <v>3.1</v>
+      </c>
+      <c r="V259">
+        <v>2.45</v>
+      </c>
+      <c r="W259">
+        <v>1.47</v>
+      </c>
+      <c r="X259">
+        <v>5.75</v>
+      </c>
+      <c r="Y259">
+        <v>1.12</v>
+      </c>
+      <c r="Z259">
+        <v>1.72</v>
+      </c>
+      <c r="AA259">
+        <v>4.06</v>
+      </c>
+      <c r="AB259">
+        <v>5</v>
+      </c>
+      <c r="AC259">
+        <v>1.01</v>
+      </c>
+      <c r="AD259">
+        <v>12</v>
+      </c>
+      <c r="AE259">
+        <v>1.22</v>
+      </c>
+      <c r="AF259">
+        <v>4.34</v>
+      </c>
+      <c r="AG259">
+        <v>1.7</v>
+      </c>
+      <c r="AH259">
+        <v>2.1</v>
+      </c>
+      <c r="AI259">
+        <v>1.67</v>
+      </c>
+      <c r="AJ259">
+        <v>2.1</v>
+      </c>
+      <c r="AK259">
+        <v>1.25</v>
+      </c>
+      <c r="AL259">
+        <v>1.22</v>
+      </c>
+      <c r="AM259">
+        <v>2.15</v>
+      </c>
+      <c r="AN259">
+        <v>2.21</v>
+      </c>
+      <c r="AO259">
+        <v>0.86</v>
+      </c>
+      <c r="AP259">
+        <v>2.07</v>
+      </c>
+      <c r="AQ259">
+        <v>1</v>
+      </c>
+      <c r="AR259">
+        <v>1.73</v>
+      </c>
+      <c r="AS259">
+        <v>1.45</v>
+      </c>
+      <c r="AT259">
+        <v>3.18</v>
+      </c>
+      <c r="AU259">
+        <v>5</v>
+      </c>
+      <c r="AV259">
+        <v>8</v>
+      </c>
+      <c r="AW259">
+        <v>9</v>
+      </c>
+      <c r="AX259">
+        <v>7</v>
+      </c>
+      <c r="AY259">
+        <v>17</v>
+      </c>
+      <c r="AZ259">
+        <v>16</v>
+      </c>
+      <c r="BA259">
+        <v>13</v>
+      </c>
+      <c r="BB259">
+        <v>2</v>
+      </c>
+      <c r="BC259">
+        <v>15</v>
+      </c>
+      <c r="BD259">
+        <v>1.57</v>
+      </c>
+      <c r="BE259">
+        <v>6.75</v>
+      </c>
+      <c r="BF259">
+        <v>2.91</v>
+      </c>
+      <c r="BG259">
+        <v>1.25</v>
+      </c>
+      <c r="BH259">
+        <v>3.4</v>
+      </c>
+      <c r="BI259">
+        <v>1.44</v>
+      </c>
+      <c r="BJ259">
+        <v>2.45</v>
+      </c>
+      <c r="BK259">
+        <v>1.6</v>
+      </c>
+      <c r="BL259">
+        <v>1.95</v>
+      </c>
+      <c r="BM259">
+        <v>2.2</v>
+      </c>
+      <c r="BN259">
+        <v>1.77</v>
+      </c>
+      <c r="BO259">
+        <v>2.7</v>
+      </c>
+      <c r="BP259">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7450902</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45768.52083333334</v>
+      </c>
+      <c r="F260">
+        <v>29</v>
+      </c>
+      <c r="G260" t="s">
+        <v>74</v>
+      </c>
+      <c r="H260" t="s">
+        <v>80</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>266</v>
+      </c>
+      <c r="P260" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q260">
+        <v>1.95</v>
+      </c>
+      <c r="R260">
+        <v>2.53</v>
+      </c>
+      <c r="S260">
+        <v>4.67</v>
+      </c>
+      <c r="T260">
+        <v>1.22</v>
+      </c>
+      <c r="U260">
+        <v>3.5</v>
+      </c>
+      <c r="V260">
+        <v>2.15</v>
+      </c>
+      <c r="W260">
+        <v>1.61</v>
+      </c>
+      <c r="X260">
+        <v>5.1</v>
+      </c>
+      <c r="Y260">
+        <v>1.16</v>
+      </c>
+      <c r="Z260">
+        <v>1.49</v>
+      </c>
+      <c r="AA260">
+        <v>4.72</v>
+      </c>
+      <c r="AB260">
+        <v>5.88</v>
+      </c>
+      <c r="AC260">
+        <v>1.02</v>
+      </c>
+      <c r="AD260">
+        <v>11</v>
+      </c>
+      <c r="AE260">
+        <v>1.09</v>
+      </c>
+      <c r="AF260">
+        <v>5.25</v>
+      </c>
+      <c r="AG260">
+        <v>1.44</v>
+      </c>
+      <c r="AH260">
+        <v>2.5</v>
+      </c>
+      <c r="AI260">
+        <v>1.57</v>
+      </c>
+      <c r="AJ260">
+        <v>2.15</v>
+      </c>
+      <c r="AK260">
+        <v>1.17</v>
+      </c>
+      <c r="AL260">
+        <v>1.15</v>
+      </c>
+      <c r="AM260">
+        <v>2.6</v>
+      </c>
+      <c r="AN260">
+        <v>1.93</v>
+      </c>
+      <c r="AO260">
+        <v>0.71</v>
+      </c>
+      <c r="AP260">
+        <v>2</v>
+      </c>
+      <c r="AQ260">
+        <v>0.67</v>
+      </c>
+      <c r="AR260">
+        <v>1.71</v>
+      </c>
+      <c r="AS260">
+        <v>1.33</v>
+      </c>
+      <c r="AT260">
+        <v>3.04</v>
+      </c>
+      <c r="AU260">
+        <v>4</v>
+      </c>
+      <c r="AV260">
+        <v>4</v>
+      </c>
+      <c r="AW260">
+        <v>10</v>
+      </c>
+      <c r="AX260">
+        <v>8</v>
+      </c>
+      <c r="AY260">
+        <v>18</v>
+      </c>
+      <c r="AZ260">
+        <v>14</v>
+      </c>
+      <c r="BA260">
+        <v>9</v>
+      </c>
+      <c r="BB260">
+        <v>2</v>
+      </c>
+      <c r="BC260">
+        <v>11</v>
+      </c>
+      <c r="BD260">
+        <v>1.3</v>
+      </c>
+      <c r="BE260">
+        <v>7</v>
+      </c>
+      <c r="BF260">
+        <v>4.66</v>
+      </c>
+      <c r="BG260">
+        <v>1.3</v>
+      </c>
+      <c r="BH260">
+        <v>3.2</v>
+      </c>
+      <c r="BI260">
+        <v>1.37</v>
+      </c>
+      <c r="BJ260">
+        <v>2.38</v>
+      </c>
+      <c r="BK260">
+        <v>1.85</v>
+      </c>
+      <c r="BL260">
+        <v>1.85</v>
+      </c>
+      <c r="BM260">
+        <v>2.3</v>
+      </c>
+      <c r="BN260">
+        <v>1.55</v>
+      </c>
+      <c r="BO260">
+        <v>3</v>
+      </c>
+      <c r="BP260">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7450901</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45768.63541666666</v>
+      </c>
+      <c r="F261">
+        <v>29</v>
+      </c>
+      <c r="G261" t="s">
+        <v>76</v>
+      </c>
+      <c r="H261" t="s">
+        <v>75</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>267</v>
+      </c>
+      <c r="P261" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q261">
+        <v>1.85</v>
+      </c>
+      <c r="R261">
+        <v>2.42</v>
+      </c>
+      <c r="S261">
+        <v>5.1</v>
+      </c>
+      <c r="T261">
+        <v>1.27</v>
+      </c>
+      <c r="U261">
+        <v>3.4</v>
+      </c>
+      <c r="V261">
+        <v>2.25</v>
+      </c>
+      <c r="W261">
+        <v>1.55</v>
+      </c>
+      <c r="X261">
+        <v>5</v>
+      </c>
+      <c r="Y261">
+        <v>1.14</v>
+      </c>
+      <c r="Z261">
+        <v>1.58</v>
+      </c>
+      <c r="AA261">
+        <v>4.1</v>
+      </c>
+      <c r="AB261">
+        <v>5.1</v>
+      </c>
+      <c r="AC261">
+        <v>1</v>
+      </c>
+      <c r="AD261">
+        <v>13</v>
+      </c>
+      <c r="AE261">
+        <v>1.19</v>
+      </c>
+      <c r="AF261">
+        <v>4.9</v>
+      </c>
+      <c r="AG261">
+        <v>1.79</v>
+      </c>
+      <c r="AH261">
+        <v>1.95</v>
+      </c>
+      <c r="AI261">
+        <v>1.62</v>
+      </c>
+      <c r="AJ261">
+        <v>2</v>
+      </c>
+      <c r="AK261">
+        <v>1.15</v>
+      </c>
+      <c r="AL261">
+        <v>1.18</v>
+      </c>
+      <c r="AM261">
+        <v>2.65</v>
+      </c>
+      <c r="AN261">
+        <v>2.57</v>
+      </c>
+      <c r="AO261">
+        <v>1.85</v>
+      </c>
+      <c r="AP261">
+        <v>2.6</v>
+      </c>
+      <c r="AQ261">
+        <v>1.71</v>
+      </c>
+      <c r="AR261">
+        <v>1.98</v>
+      </c>
+      <c r="AS261">
+        <v>1.58</v>
+      </c>
+      <c r="AT261">
+        <v>3.56</v>
+      </c>
+      <c r="AU261">
+        <v>8</v>
+      </c>
+      <c r="AV261">
+        <v>4</v>
+      </c>
+      <c r="AW261">
+        <v>9</v>
+      </c>
+      <c r="AX261">
+        <v>3</v>
+      </c>
+      <c r="AY261">
+        <v>19</v>
+      </c>
+      <c r="AZ261">
+        <v>9</v>
+      </c>
+      <c r="BA261">
+        <v>7</v>
+      </c>
+      <c r="BB261">
+        <v>3</v>
+      </c>
+      <c r="BC261">
+        <v>10</v>
+      </c>
+      <c r="BD261">
+        <v>1.36</v>
+      </c>
+      <c r="BE261">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF261">
+        <v>3.4</v>
+      </c>
+      <c r="BG261">
+        <v>1.22</v>
+      </c>
+      <c r="BH261">
+        <v>3.8</v>
+      </c>
+      <c r="BI261">
+        <v>1.35</v>
+      </c>
+      <c r="BJ261">
+        <v>2.7</v>
+      </c>
+      <c r="BK261">
+        <v>1.63</v>
+      </c>
+      <c r="BL261">
+        <v>2.1</v>
+      </c>
+      <c r="BM261">
+        <v>2.12</v>
+      </c>
+      <c r="BN261">
+        <v>1.73</v>
+      </c>
+      <c r="BO261">
+        <v>2.65</v>
+      </c>
+      <c r="BP261">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1509,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3085,7 +3085,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0.93</v>
@@ -3703,7 +3703,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -7205,7 +7205,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ28">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -10498,7 +10498,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>1.36</v>
@@ -11325,7 +11325,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -12764,7 +12764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
         <v>1.43</v>
@@ -14415,7 +14415,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -17296,7 +17296,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -18947,7 +18947,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -20386,7 +20386,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -24918,7 +24918,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25333,7 +25333,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ116">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -28629,7 +28629,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR132">
         <v>1.49</v>
@@ -28832,7 +28832,7 @@
         <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>0.6</v>
@@ -32337,7 +32337,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ150">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>1.43</v>
@@ -32746,7 +32746,7 @@
         <v>1.29</v>
       </c>
       <c r="AP152">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152">
         <v>1.21</v>
@@ -37072,7 +37072,7 @@
         <v>1.89</v>
       </c>
       <c r="AP173">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
         <v>1.71</v>
@@ -37281,7 +37281,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ174">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR174">
         <v>1.83</v>
@@ -39956,7 +39956,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP187">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ187">
         <v>0.93</v>
@@ -40989,7 +40989,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ192">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -43046,7 +43046,7 @@
         <v>1.09</v>
       </c>
       <c r="AP202">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ202">
         <v>1.13</v>
@@ -45727,7 +45727,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ215">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR215">
         <v>1.54</v>
@@ -46754,7 +46754,7 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220">
         <v>0.71</v>
@@ -49641,7 +49641,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ234">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR234">
         <v>1.63</v>
@@ -50050,7 +50050,7 @@
         <v>1.92</v>
       </c>
       <c r="AP236">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ236">
         <v>1.71</v>
@@ -51907,7 +51907,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ245">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR245">
         <v>1.71</v>
@@ -55279,6 +55279,212 @@
       </c>
       <c r="BP261">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7450906</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45769.58333333334</v>
+      </c>
+      <c r="F262">
+        <v>29</v>
+      </c>
+      <c r="G262" t="s">
+        <v>78</v>
+      </c>
+      <c r="H262" t="s">
+        <v>87</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>95</v>
+      </c>
+      <c r="P262" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q262">
+        <v>3.3</v>
+      </c>
+      <c r="R262">
+        <v>2.14</v>
+      </c>
+      <c r="S262">
+        <v>3.07</v>
+      </c>
+      <c r="T262">
+        <v>1.36</v>
+      </c>
+      <c r="U262">
+        <v>2.85</v>
+      </c>
+      <c r="V262">
+        <v>2.62</v>
+      </c>
+      <c r="W262">
+        <v>1.42</v>
+      </c>
+      <c r="X262">
+        <v>6.5</v>
+      </c>
+      <c r="Y262">
+        <v>1.09</v>
+      </c>
+      <c r="Z262">
+        <v>2.8</v>
+      </c>
+      <c r="AA262">
+        <v>3.43</v>
+      </c>
+      <c r="AB262">
+        <v>2.42</v>
+      </c>
+      <c r="AC262">
+        <v>1.02</v>
+      </c>
+      <c r="AD262">
+        <v>11.5</v>
+      </c>
+      <c r="AE262">
+        <v>1.28</v>
+      </c>
+      <c r="AF262">
+        <v>3.5</v>
+      </c>
+      <c r="AG262">
+        <v>1.86</v>
+      </c>
+      <c r="AH262">
+        <v>1.93</v>
+      </c>
+      <c r="AI262">
+        <v>1.67</v>
+      </c>
+      <c r="AJ262">
+        <v>2.1</v>
+      </c>
+      <c r="AK262">
+        <v>1.27</v>
+      </c>
+      <c r="AL262">
+        <v>1.28</v>
+      </c>
+      <c r="AM262">
+        <v>1.37</v>
+      </c>
+      <c r="AN262">
+        <v>1.36</v>
+      </c>
+      <c r="AO262">
+        <v>1.21</v>
+      </c>
+      <c r="AP262">
+        <v>1.33</v>
+      </c>
+      <c r="AQ262">
+        <v>1.2</v>
+      </c>
+      <c r="AR262">
+        <v>1.6</v>
+      </c>
+      <c r="AS262">
+        <v>1.43</v>
+      </c>
+      <c r="AT262">
+        <v>3.03</v>
+      </c>
+      <c r="AU262">
+        <v>5</v>
+      </c>
+      <c r="AV262">
+        <v>4</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>6</v>
+      </c>
+      <c r="AY262">
+        <v>10</v>
+      </c>
+      <c r="AZ262">
+        <v>11</v>
+      </c>
+      <c r="BA262">
+        <v>4</v>
+      </c>
+      <c r="BB262">
+        <v>6</v>
+      </c>
+      <c r="BC262">
+        <v>10</v>
+      </c>
+      <c r="BD262">
+        <v>1.98</v>
+      </c>
+      <c r="BE262">
+        <v>7.8</v>
+      </c>
+      <c r="BF262">
+        <v>2.22</v>
+      </c>
+      <c r="BG262">
+        <v>1.25</v>
+      </c>
+      <c r="BH262">
+        <v>3.6</v>
+      </c>
+      <c r="BI262">
+        <v>1.42</v>
+      </c>
+      <c r="BJ262">
+        <v>2.67</v>
+      </c>
+      <c r="BK262">
+        <v>1.67</v>
+      </c>
+      <c r="BL262">
+        <v>2.1</v>
+      </c>
+      <c r="BM262">
+        <v>2.1</v>
+      </c>
+      <c r="BN262">
+        <v>1.67</v>
+      </c>
+      <c r="BO262">
+        <v>2.62</v>
+      </c>
+      <c r="BP262">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,12 @@
     <t>['38', '76']</t>
   </si>
   <si>
+    <t>['39', '46', '51', '54']</t>
+  </si>
+  <si>
+    <t>['20', '36', '71']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1148,6 +1154,9 @@
   </si>
   <si>
     <t>['29', '88', '90+9']</t>
+  </si>
+  <si>
+    <t>['5', '45', '60', '69', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2180,7 +2189,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2798,7 +2807,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3210,7 +3219,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3622,7 +3631,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3700,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>1.2</v>
@@ -3828,7 +3837,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4034,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4240,7 +4249,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4446,7 +4455,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4652,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4733,7 +4742,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4939,7 +4948,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5348,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.71</v>
@@ -5763,7 +5772,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ21">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5888,7 +5897,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6506,7 +6515,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6712,7 +6721,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6918,7 +6927,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7124,7 +7133,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7408,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.43</v>
@@ -7536,7 +7545,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7948,7 +7957,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8154,7 +8163,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8232,7 +8241,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>1.21</v>
@@ -8441,7 +8450,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8566,7 +8575,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8850,7 +8859,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -9184,7 +9193,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9390,7 +9399,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10008,7 +10017,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10626,7 +10635,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10832,7 +10841,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11244,7 +11253,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11656,7 +11665,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11943,7 +11952,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ51">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -12480,7 +12489,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12558,7 +12567,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1.36</v>
@@ -12686,7 +12695,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12970,7 +12979,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13304,7 +13313,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13510,7 +13519,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13716,7 +13725,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13922,7 +13931,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14003,7 +14012,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14540,7 +14549,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14952,7 +14961,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15033,7 +15042,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -16394,7 +16403,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16472,7 +16481,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
         <v>1.71</v>
@@ -16600,7 +16609,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17502,7 +17511,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17711,7 +17720,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17836,7 +17845,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18123,7 +18132,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -18532,7 +18541,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18741,7 +18750,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -19278,7 +19287,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19484,7 +19493,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19690,7 +19699,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19896,7 +19905,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19974,7 +19983,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -20102,7 +20111,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20514,7 +20523,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20720,7 +20729,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20926,7 +20935,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21132,7 +21141,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21750,7 +21759,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21956,7 +21965,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22162,7 +22171,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22368,7 +22377,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22574,7 +22583,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22861,7 +22870,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -22986,7 +22995,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23270,10 +23279,10 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -23810,7 +23819,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24222,7 +24231,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24840,7 +24849,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25252,7 +25261,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25458,7 +25467,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25742,7 +25751,7 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>0.36</v>
@@ -25870,7 +25879,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25951,7 +25960,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ119">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR119">
         <v>1.67</v>
@@ -26154,7 +26163,7 @@
         <v>2.17</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ120">
         <v>1.43</v>
@@ -26488,7 +26497,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26694,7 +26703,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27106,7 +27115,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27393,7 +27402,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ126">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
         <v>1.67</v>
@@ -27518,7 +27527,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28136,7 +28145,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28548,7 +28557,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28960,7 +28969,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29166,7 +29175,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29372,7 +29381,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29578,7 +29587,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29659,7 +29668,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ137">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR137">
         <v>1.82</v>
@@ -29784,7 +29793,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29865,7 +29874,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR138">
         <v>1.26</v>
@@ -30196,7 +30205,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30402,7 +30411,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30686,7 +30695,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -31098,7 +31107,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144">
         <v>0.93</v>
@@ -32050,7 +32059,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32256,7 +32265,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32668,7 +32677,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33573,7 +33582,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ156">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR156">
         <v>1.39</v>
@@ -33904,7 +33913,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -33982,7 +33991,7 @@
         <v>1.63</v>
       </c>
       <c r="AP158">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>1.4</v>
@@ -34316,7 +34325,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34394,7 +34403,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ160">
         <v>1.71</v>
@@ -34522,7 +34531,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34809,7 +34818,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ162">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR162">
         <v>1.43</v>
@@ -34934,7 +34943,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35346,7 +35355,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36788,7 +36797,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37487,7 +37496,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ175">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR175">
         <v>1.56</v>
@@ -37612,7 +37621,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -37690,7 +37699,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -38230,7 +38239,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38642,7 +38651,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38720,7 +38729,7 @@
         <v>0.6</v>
       </c>
       <c r="AP181">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38848,7 +38857,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39466,7 +39475,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39878,7 +39887,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -39959,7 +39968,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40496,7 +40505,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40702,7 +40711,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40986,7 +40995,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
         <v>1.2</v>
@@ -41195,7 +41204,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ193">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR193">
         <v>1.41</v>
@@ -41320,7 +41329,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41401,7 +41410,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ194">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR194">
         <v>1.4</v>
@@ -41732,7 +41741,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41938,7 +41947,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42350,7 +42359,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43174,7 +43183,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43586,7 +43595,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43664,7 +43673,7 @@
         <v>1.27</v>
       </c>
       <c r="AP205">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ205">
         <v>1.4</v>
@@ -43873,7 +43882,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -44282,7 +44291,7 @@
         <v>0.91</v>
       </c>
       <c r="AP208">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
         <v>0.67</v>
@@ -44410,7 +44419,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44697,7 +44706,7 @@
         <v>1</v>
       </c>
       <c r="AQ210">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR210">
         <v>1.54</v>
@@ -44822,7 +44831,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45028,7 +45037,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45646,7 +45655,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46470,7 +46479,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46676,7 +46685,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46757,7 +46766,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ220">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR220">
         <v>1.63</v>
@@ -47372,7 +47381,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ223">
         <v>1.36</v>
@@ -47706,7 +47715,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47784,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AP225">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ225">
         <v>1.21</v>
@@ -47912,7 +47921,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48118,7 +48127,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48405,7 +48414,7 @@
         <v>2</v>
       </c>
       <c r="AQ228">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR228">
         <v>1.7</v>
@@ -48530,7 +48539,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49148,7 +49157,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49354,7 +49363,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49560,7 +49569,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49766,7 +49775,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50384,7 +50393,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50590,7 +50599,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51208,7 +51217,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51620,7 +51629,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -51698,7 +51707,7 @@
         <v>2.38</v>
       </c>
       <c r="AP244">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ244">
         <v>2.13</v>
@@ -52444,7 +52453,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52525,7 +52534,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ248">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR248">
         <v>1.6</v>
@@ -52650,7 +52659,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -52728,7 +52737,7 @@
         <v>1.15</v>
       </c>
       <c r="AP249">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ249">
         <v>1.07</v>
@@ -52937,7 +52946,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ250">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR250">
         <v>1.61</v>
@@ -53062,7 +53071,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53474,7 +53483,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53886,7 +53895,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54092,7 +54101,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54504,7 +54513,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54582,7 +54591,7 @@
         <v>1.07</v>
       </c>
       <c r="AP258">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ258">
         <v>1.07</v>
@@ -54710,7 +54719,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54916,7 +54925,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55485,6 +55494,418 @@
       </c>
       <c r="BP262">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7450915</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45772.54166666666</v>
+      </c>
+      <c r="F263">
+        <v>30</v>
+      </c>
+      <c r="G263" t="s">
+        <v>79</v>
+      </c>
+      <c r="H263" t="s">
+        <v>73</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>2</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>5</v>
+      </c>
+      <c r="N263">
+        <v>9</v>
+      </c>
+      <c r="O263" t="s">
+        <v>268</v>
+      </c>
+      <c r="P263" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q263">
+        <v>4.6</v>
+      </c>
+      <c r="R263">
+        <v>2.53</v>
+      </c>
+      <c r="S263">
+        <v>1.95</v>
+      </c>
+      <c r="T263">
+        <v>1.29</v>
+      </c>
+      <c r="U263">
+        <v>3.34</v>
+      </c>
+      <c r="V263">
+        <v>2.4</v>
+      </c>
+      <c r="W263">
+        <v>1.55</v>
+      </c>
+      <c r="X263">
+        <v>5</v>
+      </c>
+      <c r="Y263">
+        <v>1.12</v>
+      </c>
+      <c r="Z263">
+        <v>4.81</v>
+      </c>
+      <c r="AA263">
+        <v>3.75</v>
+      </c>
+      <c r="AB263">
+        <v>1.65</v>
+      </c>
+      <c r="AC263">
+        <v>1.01</v>
+      </c>
+      <c r="AD263">
+        <v>12</v>
+      </c>
+      <c r="AE263">
+        <v>1.2</v>
+      </c>
+      <c r="AF263">
+        <v>4.4</v>
+      </c>
+      <c r="AG263">
+        <v>1.58</v>
+      </c>
+      <c r="AH263">
+        <v>2.28</v>
+      </c>
+      <c r="AI263">
+        <v>1.65</v>
+      </c>
+      <c r="AJ263">
+        <v>2.25</v>
+      </c>
+      <c r="AK263">
+        <v>2.23</v>
+      </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
+      <c r="AM263">
+        <v>1.16</v>
+      </c>
+      <c r="AN263">
+        <v>1.29</v>
+      </c>
+      <c r="AO263">
+        <v>0.93</v>
+      </c>
+      <c r="AP263">
+        <v>1.2</v>
+      </c>
+      <c r="AQ263">
+        <v>1.07</v>
+      </c>
+      <c r="AR263">
+        <v>1.39</v>
+      </c>
+      <c r="AS263">
+        <v>1.5</v>
+      </c>
+      <c r="AT263">
+        <v>2.89</v>
+      </c>
+      <c r="AU263">
+        <v>5</v>
+      </c>
+      <c r="AV263">
+        <v>10</v>
+      </c>
+      <c r="AW263">
+        <v>4</v>
+      </c>
+      <c r="AX263">
+        <v>4</v>
+      </c>
+      <c r="AY263">
+        <v>9</v>
+      </c>
+      <c r="AZ263">
+        <v>20</v>
+      </c>
+      <c r="BA263">
+        <v>1</v>
+      </c>
+      <c r="BB263">
+        <v>5</v>
+      </c>
+      <c r="BC263">
+        <v>6</v>
+      </c>
+      <c r="BD263">
+        <v>3.18</v>
+      </c>
+      <c r="BE263">
+        <v>7</v>
+      </c>
+      <c r="BF263">
+        <v>1.57</v>
+      </c>
+      <c r="BG263">
+        <v>1.18</v>
+      </c>
+      <c r="BH263">
+        <v>3.9</v>
+      </c>
+      <c r="BI263">
+        <v>1.3</v>
+      </c>
+      <c r="BJ263">
+        <v>2.97</v>
+      </c>
+      <c r="BK263">
+        <v>1.56</v>
+      </c>
+      <c r="BL263">
+        <v>2.21</v>
+      </c>
+      <c r="BM263">
+        <v>1.95</v>
+      </c>
+      <c r="BN263">
+        <v>1.7</v>
+      </c>
+      <c r="BO263">
+        <v>2.38</v>
+      </c>
+      <c r="BP263">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7450917</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45772.64583333334</v>
+      </c>
+      <c r="F264">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>86</v>
+      </c>
+      <c r="H264" t="s">
+        <v>71</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>2</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>269</v>
+      </c>
+      <c r="P264" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q264">
+        <v>2</v>
+      </c>
+      <c r="R264">
+        <v>2.2</v>
+      </c>
+      <c r="S264">
+        <v>6</v>
+      </c>
+      <c r="T264">
+        <v>1.42</v>
+      </c>
+      <c r="U264">
+        <v>2.92</v>
+      </c>
+      <c r="V264">
+        <v>2.7</v>
+      </c>
+      <c r="W264">
+        <v>1.39</v>
+      </c>
+      <c r="X264">
+        <v>6.4</v>
+      </c>
+      <c r="Y264">
+        <v>1.1</v>
+      </c>
+      <c r="Z264">
+        <v>1.58</v>
+      </c>
+      <c r="AA264">
+        <v>3.84</v>
+      </c>
+      <c r="AB264">
+        <v>5.7</v>
+      </c>
+      <c r="AC264">
+        <v>1.01</v>
+      </c>
+      <c r="AD264">
+        <v>10.5</v>
+      </c>
+      <c r="AE264">
+        <v>1.28</v>
+      </c>
+      <c r="AF264">
+        <v>3.3</v>
+      </c>
+      <c r="AG264">
+        <v>1.94</v>
+      </c>
+      <c r="AH264">
+        <v>1.8</v>
+      </c>
+      <c r="AI264">
+        <v>1.94</v>
+      </c>
+      <c r="AJ264">
+        <v>1.77</v>
+      </c>
+      <c r="AK264">
+        <v>1.25</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>2.48</v>
+      </c>
+      <c r="AN264">
+        <v>1.93</v>
+      </c>
+      <c r="AO264">
+        <v>0.71</v>
+      </c>
+      <c r="AP264">
+        <v>2</v>
+      </c>
+      <c r="AQ264">
+        <v>0.67</v>
+      </c>
+      <c r="AR264">
+        <v>1.7</v>
+      </c>
+      <c r="AS264">
+        <v>1.46</v>
+      </c>
+      <c r="AT264">
+        <v>3.16</v>
+      </c>
+      <c r="AU264">
+        <v>9</v>
+      </c>
+      <c r="AV264">
+        <v>9</v>
+      </c>
+      <c r="AW264">
+        <v>4</v>
+      </c>
+      <c r="AX264">
+        <v>10</v>
+      </c>
+      <c r="AY264">
+        <v>16</v>
+      </c>
+      <c r="AZ264">
+        <v>22</v>
+      </c>
+      <c r="BA264">
+        <v>4</v>
+      </c>
+      <c r="BB264">
+        <v>4</v>
+      </c>
+      <c r="BC264">
+        <v>8</v>
+      </c>
+      <c r="BD264">
+        <v>1.4</v>
+      </c>
+      <c r="BE264">
+        <v>8.5</v>
+      </c>
+      <c r="BF264">
+        <v>3.4</v>
+      </c>
+      <c r="BG264">
+        <v>1.25</v>
+      </c>
+      <c r="BH264">
+        <v>3.45</v>
+      </c>
+      <c r="BI264">
+        <v>1.48</v>
+      </c>
+      <c r="BJ264">
+        <v>2.5</v>
+      </c>
+      <c r="BK264">
+        <v>2</v>
+      </c>
+      <c r="BL264">
+        <v>1.95</v>
+      </c>
+      <c r="BM264">
+        <v>2.2</v>
+      </c>
+      <c r="BN264">
+        <v>1.6</v>
+      </c>
+      <c r="BO264">
+        <v>2.6</v>
+      </c>
+      <c r="BP264">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,9 @@
     <t>['20', '36', '71']</t>
   </si>
   <si>
+    <t>['8', '44', '82']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1518,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP264"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2189,7 +2192,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2807,7 +2810,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2888,7 +2891,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3219,7 +3222,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3631,7 +3634,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3837,7 +3840,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3915,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -4043,7 +4046,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4249,7 +4252,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4455,7 +4458,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4661,7 +4664,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5897,7 +5900,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6515,7 +6518,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6721,7 +6724,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6802,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6927,7 +6930,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7133,7 +7136,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7545,7 +7548,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7957,7 +7960,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8035,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8163,7 +8166,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8575,7 +8578,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9193,7 +9196,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9399,7 +9402,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10017,7 +10020,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10510,7 +10513,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10635,7 +10638,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10841,7 +10844,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10919,7 +10922,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>2.13</v>
@@ -11253,7 +11256,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11665,7 +11668,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12489,7 +12492,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12570,7 +12573,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -12695,7 +12698,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13313,7 +13316,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13519,7 +13522,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13725,7 +13728,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13931,7 +13934,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14549,7 +14552,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14833,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -14961,7 +14964,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16403,7 +16406,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16609,7 +16612,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16896,7 +16899,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ75">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17845,7 +17848,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18335,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>0.93</v>
@@ -19287,7 +19290,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19493,7 +19496,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19699,7 +19702,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19905,7 +19908,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20111,7 +20114,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20523,7 +20526,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20729,7 +20732,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20935,7 +20938,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21141,7 +21144,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21428,7 +21431,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ97">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21759,7 +21762,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21840,7 +21843,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -21965,7 +21968,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22043,7 +22046,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100">
         <v>1.21</v>
@@ -22171,7 +22174,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22377,7 +22380,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22583,7 +22586,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22995,7 +22998,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23819,7 +23822,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24231,7 +24234,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24849,7 +24852,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25261,7 +25264,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25467,7 +25470,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25879,7 +25882,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26372,7 +26375,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ121">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26497,7 +26500,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26703,7 +26706,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26781,7 +26784,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
         <v>1.71</v>
@@ -27115,7 +27118,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27527,7 +27530,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28145,7 +28148,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28557,7 +28560,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28969,7 +28972,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29175,7 +29178,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29381,7 +29384,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29587,7 +29590,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29793,7 +29796,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29871,7 +29874,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ138">
         <v>1.07</v>
@@ -30205,7 +30208,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30411,7 +30414,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30904,7 +30907,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ143">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR143">
         <v>1.98</v>
@@ -32059,7 +32062,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32265,7 +32268,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32677,7 +32680,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33579,7 +33582,7 @@
         <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ156">
         <v>0.67</v>
@@ -33913,7 +33916,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34325,7 +34328,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34531,7 +34534,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34943,7 +34946,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35355,7 +35358,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36797,7 +36800,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -36878,7 +36881,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR172">
         <v>1.47</v>
@@ -37621,7 +37624,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38239,7 +38242,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38523,7 +38526,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ180">
         <v>1.43</v>
@@ -38651,7 +38654,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38857,7 +38860,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39475,7 +39478,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39887,7 +39890,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40174,7 +40177,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ188">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR188">
         <v>1.73</v>
@@ -40505,7 +40508,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40711,7 +40714,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41329,7 +41332,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41741,7 +41744,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41819,7 +41822,7 @@
         <v>0.55</v>
       </c>
       <c r="AP196">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ196">
         <v>0.6</v>
@@ -41947,7 +41950,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42359,7 +42362,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43183,7 +43186,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43470,7 +43473,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ204">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR204">
         <v>1.84</v>
@@ -43595,7 +43598,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44419,7 +44422,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44831,7 +44834,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45037,7 +45040,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45655,7 +45658,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45733,7 +45736,7 @@
         <v>1.27</v>
       </c>
       <c r="AP215">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ215">
         <v>1.2</v>
@@ -46479,7 +46482,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46685,7 +46688,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47384,7 +47387,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ223">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR223">
         <v>1.42</v>
@@ -47715,7 +47718,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47921,7 +47924,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48127,7 +48130,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48539,7 +48542,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48823,7 +48826,7 @@
         <v>1.75</v>
       </c>
       <c r="AP230">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ230">
         <v>1.71</v>
@@ -49157,7 +49160,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49363,7 +49366,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49569,7 +49572,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49775,7 +49778,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50393,7 +50396,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50599,7 +50602,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51092,7 +51095,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ241">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR241">
         <v>1.75</v>
@@ -51217,7 +51220,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51629,7 +51632,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -52453,7 +52456,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52659,7 +52662,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53071,7 +53074,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53483,7 +53486,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53561,7 +53564,7 @@
         <v>0.38</v>
       </c>
       <c r="AP253">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ253">
         <v>0.36</v>
@@ -53895,7 +53898,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54101,7 +54104,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54513,7 +54516,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54719,7 +54722,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54925,7 +54928,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55543,7 +55546,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -55906,6 +55909,212 @@
       </c>
       <c r="BP264">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7450913</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45773.40625</v>
+      </c>
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>80</v>
+      </c>
+      <c r="H265" t="s">
+        <v>84</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>3</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>4</v>
+      </c>
+      <c r="O265" t="s">
+        <v>270</v>
+      </c>
+      <c r="P265" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q265">
+        <v>2.65</v>
+      </c>
+      <c r="R265">
+        <v>1.93</v>
+      </c>
+      <c r="S265">
+        <v>3.4</v>
+      </c>
+      <c r="T265">
+        <v>1.43</v>
+      </c>
+      <c r="U265">
+        <v>2.62</v>
+      </c>
+      <c r="V265">
+        <v>2.9</v>
+      </c>
+      <c r="W265">
+        <v>1.36</v>
+      </c>
+      <c r="X265">
+        <v>7</v>
+      </c>
+      <c r="Y265">
+        <v>1.07</v>
+      </c>
+      <c r="Z265">
+        <v>2.05</v>
+      </c>
+      <c r="AA265">
+        <v>3.1</v>
+      </c>
+      <c r="AB265">
+        <v>3.25</v>
+      </c>
+      <c r="AC265">
+        <v>1.03</v>
+      </c>
+      <c r="AD265">
+        <v>8.5</v>
+      </c>
+      <c r="AE265">
+        <v>1.32</v>
+      </c>
+      <c r="AF265">
+        <v>2.88</v>
+      </c>
+      <c r="AG265">
+        <v>2.18</v>
+      </c>
+      <c r="AH265">
+        <v>1.7</v>
+      </c>
+      <c r="AI265">
+        <v>1.8</v>
+      </c>
+      <c r="AJ265">
+        <v>1.95</v>
+      </c>
+      <c r="AK265">
+        <v>1.33</v>
+      </c>
+      <c r="AL265">
+        <v>0</v>
+      </c>
+      <c r="AM265">
+        <v>1.67</v>
+      </c>
+      <c r="AN265">
+        <v>1.21</v>
+      </c>
+      <c r="AO265">
+        <v>1.36</v>
+      </c>
+      <c r="AP265">
+        <v>1.33</v>
+      </c>
+      <c r="AQ265">
+        <v>1.27</v>
+      </c>
+      <c r="AR265">
+        <v>1.67</v>
+      </c>
+      <c r="AS265">
+        <v>1.44</v>
+      </c>
+      <c r="AT265">
+        <v>3.11</v>
+      </c>
+      <c r="AU265">
+        <v>6</v>
+      </c>
+      <c r="AV265">
+        <v>4</v>
+      </c>
+      <c r="AW265">
+        <v>2</v>
+      </c>
+      <c r="AX265">
+        <v>4</v>
+      </c>
+      <c r="AY265">
+        <v>8</v>
+      </c>
+      <c r="AZ265">
+        <v>8</v>
+      </c>
+      <c r="BA265">
+        <v>4</v>
+      </c>
+      <c r="BB265">
+        <v>3</v>
+      </c>
+      <c r="BC265">
+        <v>7</v>
+      </c>
+      <c r="BD265">
+        <v>1.83</v>
+      </c>
+      <c r="BE265">
+        <v>6.35</v>
+      </c>
+      <c r="BF265">
+        <v>2.08</v>
+      </c>
+      <c r="BG265">
+        <v>1.32</v>
+      </c>
+      <c r="BH265">
+        <v>3.35</v>
+      </c>
+      <c r="BI265">
+        <v>1.48</v>
+      </c>
+      <c r="BJ265">
+        <v>2.2</v>
+      </c>
+      <c r="BK265">
+        <v>2.05</v>
+      </c>
+      <c r="BL265">
+        <v>1.93</v>
+      </c>
+      <c r="BM265">
+        <v>2.25</v>
+      </c>
+      <c r="BN265">
+        <v>1.6</v>
+      </c>
+      <c r="BO265">
+        <v>2.85</v>
+      </c>
+      <c r="BP265">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1521,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
         <v>2.13</v>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -7629,7 +7629,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -9277,7 +9277,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ38">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -13397,7 +13397,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ58">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -14424,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -16487,7 +16487,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -17926,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -18750,7 +18750,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -21225,7 +21225,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -22252,7 +22252,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -25960,7 +25960,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>1.07</v>
@@ -26787,7 +26787,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ123">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR123">
         <v>1.23</v>
@@ -30289,7 +30289,7 @@
         <v>2</v>
       </c>
       <c r="AQ140">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR140">
         <v>1.69</v>
@@ -32964,7 +32964,7 @@
         <v>0.86</v>
       </c>
       <c r="AP153">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
         <v>1.07</v>
@@ -34203,7 +34203,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ159">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR159">
         <v>1.47</v>
@@ -35642,7 +35642,7 @@
         <v>0.67</v>
       </c>
       <c r="AP166">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -38323,7 +38323,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR179">
         <v>1.4</v>
@@ -42440,7 +42440,7 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ199">
         <v>1.13</v>
@@ -42855,7 +42855,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ201">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR201">
         <v>1.93</v>
@@ -46148,7 +46148,7 @@
         <v>1.18</v>
       </c>
       <c r="AP217">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
         <v>1.21</v>
@@ -46563,7 +46563,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ219">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR219">
         <v>1.79</v>
@@ -49444,7 +49444,7 @@
         <v>0.42</v>
       </c>
       <c r="AP233">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ233">
         <v>0.36</v>
@@ -50065,7 +50065,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ236">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR236">
         <v>1.6</v>
@@ -53152,7 +53152,7 @@
         <v>1.31</v>
       </c>
       <c r="AP251">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ251">
         <v>1.43</v>
@@ -55215,7 +55215,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ261">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR261">
         <v>1.98</v>
@@ -56115,6 +56115,212 @@
       </c>
       <c r="BP265">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7450914</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45773.52083333334</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>77</v>
+      </c>
+      <c r="H266" t="s">
+        <v>75</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
+        <v>95</v>
+      </c>
+      <c r="P266" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q266">
+        <v>2.43</v>
+      </c>
+      <c r="R266">
+        <v>2.22</v>
+      </c>
+      <c r="S266">
+        <v>3.1</v>
+      </c>
+      <c r="T266">
+        <v>1.32</v>
+      </c>
+      <c r="U266">
+        <v>3</v>
+      </c>
+      <c r="V266">
+        <v>2.5</v>
+      </c>
+      <c r="W266">
+        <v>1.48</v>
+      </c>
+      <c r="X266">
+        <v>5.75</v>
+      </c>
+      <c r="Y266">
+        <v>1.1</v>
+      </c>
+      <c r="Z266">
+        <v>2.1</v>
+      </c>
+      <c r="AA266">
+        <v>3.25</v>
+      </c>
+      <c r="AB266">
+        <v>3.33</v>
+      </c>
+      <c r="AC266">
+        <v>1.03</v>
+      </c>
+      <c r="AD266">
+        <v>11</v>
+      </c>
+      <c r="AE266">
+        <v>1.22</v>
+      </c>
+      <c r="AF266">
+        <v>3.9</v>
+      </c>
+      <c r="AG266">
+        <v>1.66</v>
+      </c>
+      <c r="AH266">
+        <v>2.05</v>
+      </c>
+      <c r="AI266">
+        <v>1.5</v>
+      </c>
+      <c r="AJ266">
+        <v>2.2</v>
+      </c>
+      <c r="AK266">
+        <v>1.22</v>
+      </c>
+      <c r="AL266">
+        <v>0</v>
+      </c>
+      <c r="AM266">
+        <v>1.7</v>
+      </c>
+      <c r="AN266">
+        <v>1.57</v>
+      </c>
+      <c r="AO266">
+        <v>1.71</v>
+      </c>
+      <c r="AP266">
+        <v>1.47</v>
+      </c>
+      <c r="AQ266">
+        <v>1.8</v>
+      </c>
+      <c r="AR266">
+        <v>1.65</v>
+      </c>
+      <c r="AS266">
+        <v>1.53</v>
+      </c>
+      <c r="AT266">
+        <v>3.18</v>
+      </c>
+      <c r="AU266">
+        <v>3</v>
+      </c>
+      <c r="AV266">
+        <v>9</v>
+      </c>
+      <c r="AW266">
+        <v>4</v>
+      </c>
+      <c r="AX266">
+        <v>6</v>
+      </c>
+      <c r="AY266">
+        <v>9</v>
+      </c>
+      <c r="AZ266">
+        <v>18</v>
+      </c>
+      <c r="BA266">
+        <v>6</v>
+      </c>
+      <c r="BB266">
+        <v>4</v>
+      </c>
+      <c r="BC266">
+        <v>10</v>
+      </c>
+      <c r="BD266">
+        <v>1.61</v>
+      </c>
+      <c r="BE266">
+        <v>8</v>
+      </c>
+      <c r="BF266">
+        <v>2.97</v>
+      </c>
+      <c r="BG266">
+        <v>1.23</v>
+      </c>
+      <c r="BH266">
+        <v>3.55</v>
+      </c>
+      <c r="BI266">
+        <v>1.44</v>
+      </c>
+      <c r="BJ266">
+        <v>2.6</v>
+      </c>
+      <c r="BK266">
+        <v>1.67</v>
+      </c>
+      <c r="BL266">
+        <v>2</v>
+      </c>
+      <c r="BM266">
+        <v>2.15</v>
+      </c>
+      <c r="BN266">
+        <v>1.62</v>
+      </c>
+      <c r="BO266">
+        <v>2.7</v>
+      </c>
+      <c r="BP266">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,9 @@
     <t>['8', '44', '82']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -905,9 +908,6 @@
   </si>
   <si>
     <t>['32', '37']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['24', '28', '68']</t>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>['5', '45', '60', '69', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '17', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2192,7 +2195,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.07</v>
@@ -2810,7 +2813,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3222,7 +3225,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3634,7 +3637,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3840,7 +3843,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4046,7 +4049,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4252,7 +4255,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4458,7 +4461,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4664,7 +4667,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5157,7 +5160,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5900,7 +5903,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5978,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>2.13</v>
@@ -6518,7 +6521,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6724,7 +6727,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6930,7 +6933,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7136,7 +7139,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7548,7 +7551,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7960,7 +7963,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8166,7 +8169,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8247,7 +8250,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8578,7 +8581,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9068,7 +9071,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -9196,7 +9199,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9402,7 +9405,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10020,7 +10023,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10638,7 +10641,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10844,7 +10847,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11256,7 +11259,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11668,7 +11671,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11746,7 +11749,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -12161,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12492,7 +12495,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12698,7 +12701,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13316,7 +13319,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -14630,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>0.93</v>
@@ -16281,7 +16284,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ72">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -18132,7 +18135,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -21637,7 +21640,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ98">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -22049,7 +22052,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -22870,7 +22873,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>0.67</v>
@@ -27196,7 +27199,7 @@
         <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
@@ -29259,7 +29262,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ135">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.91</v>
@@ -31934,7 +31937,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ148">
         <v>0.67</v>
@@ -32761,7 +32764,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ152">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>1.7</v>
@@ -34615,7 +34618,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ161">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -35230,7 +35233,7 @@
         <v>0.44</v>
       </c>
       <c r="AP164">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ164">
         <v>0.36</v>
@@ -37911,7 +37914,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ177">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR177">
         <v>1.53</v>
@@ -38242,7 +38245,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -40174,7 +40177,7 @@
         <v>1.4</v>
       </c>
       <c r="AP188">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188">
         <v>1.27</v>
@@ -41619,7 +41622,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ195">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR195">
         <v>1.57</v>
@@ -43598,7 +43601,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -45530,7 +45533,7 @@
         <v>0.75</v>
       </c>
       <c r="AP214">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ214">
         <v>1</v>
@@ -46151,7 +46154,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ217">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -47799,7 +47802,7 @@
         <v>2</v>
       </c>
       <c r="AQ225">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR225">
         <v>1.64</v>
@@ -49366,7 +49369,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49650,7 +49653,7 @@
         <v>1.42</v>
       </c>
       <c r="AP234">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ234">
         <v>1.2</v>
@@ -50602,7 +50605,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51301,7 +51304,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ242">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR242">
         <v>2.01</v>
@@ -52328,7 +52331,7 @@
         <v>0.64</v>
       </c>
       <c r="AP247">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ247">
         <v>0.6</v>
@@ -56320,6 +56323,212 @@
         <v>2.7</v>
       </c>
       <c r="BP266">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7450909</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45773.63541666666</v>
+      </c>
+      <c r="F267">
+        <v>30</v>
+      </c>
+      <c r="G267" t="s">
+        <v>72</v>
+      </c>
+      <c r="H267" t="s">
+        <v>74</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>2</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>3</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267" t="s">
+        <v>271</v>
+      </c>
+      <c r="P267" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q267">
+        <v>3.4</v>
+      </c>
+      <c r="R267">
+        <v>2.38</v>
+      </c>
+      <c r="S267">
+        <v>2.6</v>
+      </c>
+      <c r="T267">
+        <v>1.3</v>
+      </c>
+      <c r="U267">
+        <v>3.25</v>
+      </c>
+      <c r="V267">
+        <v>2.55</v>
+      </c>
+      <c r="W267">
+        <v>1.53</v>
+      </c>
+      <c r="X267">
+        <v>4.75</v>
+      </c>
+      <c r="Y267">
+        <v>1.15</v>
+      </c>
+      <c r="Z267">
+        <v>3.38</v>
+      </c>
+      <c r="AA267">
+        <v>3.38</v>
+      </c>
+      <c r="AB267">
+        <v>2.09</v>
+      </c>
+      <c r="AC267">
+        <v>1</v>
+      </c>
+      <c r="AD267">
+        <v>13</v>
+      </c>
+      <c r="AE267">
+        <v>1.25</v>
+      </c>
+      <c r="AF267">
+        <v>4.75</v>
+      </c>
+      <c r="AG267">
+        <v>1.87</v>
+      </c>
+      <c r="AH267">
+        <v>1.87</v>
+      </c>
+      <c r="AI267">
+        <v>1.71</v>
+      </c>
+      <c r="AJ267">
+        <v>2.15</v>
+      </c>
+      <c r="AK267">
+        <v>1.73</v>
+      </c>
+      <c r="AL267">
+        <v>0</v>
+      </c>
+      <c r="AM267">
+        <v>1.29</v>
+      </c>
+      <c r="AN267">
+        <v>1.79</v>
+      </c>
+      <c r="AO267">
+        <v>1.21</v>
+      </c>
+      <c r="AP267">
+        <v>1.67</v>
+      </c>
+      <c r="AQ267">
+        <v>1.33</v>
+      </c>
+      <c r="AR267">
+        <v>1.7</v>
+      </c>
+      <c r="AS267">
+        <v>1.49</v>
+      </c>
+      <c r="AT267">
+        <v>3.19</v>
+      </c>
+      <c r="AU267">
+        <v>7</v>
+      </c>
+      <c r="AV267">
+        <v>8</v>
+      </c>
+      <c r="AW267">
+        <v>8</v>
+      </c>
+      <c r="AX267">
+        <v>11</v>
+      </c>
+      <c r="AY267">
+        <v>17</v>
+      </c>
+      <c r="AZ267">
+        <v>24</v>
+      </c>
+      <c r="BA267">
+        <v>4</v>
+      </c>
+      <c r="BB267">
+        <v>7</v>
+      </c>
+      <c r="BC267">
+        <v>11</v>
+      </c>
+      <c r="BD267">
+        <v>2.4</v>
+      </c>
+      <c r="BE267">
+        <v>7.5</v>
+      </c>
+      <c r="BF267">
+        <v>1.65</v>
+      </c>
+      <c r="BG267">
+        <v>1.23</v>
+      </c>
+      <c r="BH267">
+        <v>3.6</v>
+      </c>
+      <c r="BI267">
+        <v>1.42</v>
+      </c>
+      <c r="BJ267">
+        <v>2.62</v>
+      </c>
+      <c r="BK267">
+        <v>1.75</v>
+      </c>
+      <c r="BL267">
+        <v>1.97</v>
+      </c>
+      <c r="BM267">
+        <v>2.2</v>
+      </c>
+      <c r="BN267">
+        <v>1.65</v>
+      </c>
+      <c r="BO267">
+        <v>2.55</v>
+      </c>
+      <c r="BP267">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['45+6', '49', '59']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1524,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP267"/>
+  <dimension ref="A1:BP268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2195,7 +2198,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2813,7 +2816,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3225,7 +3228,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3637,7 +3640,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3843,7 +3846,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4049,7 +4052,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4255,7 +4258,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4336,7 +4339,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ14">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4461,7 +4464,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4667,7 +4670,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5157,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5903,7 +5906,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6521,7 +6524,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6727,7 +6730,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6933,7 +6936,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7139,7 +7142,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7551,7 +7554,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7629,7 +7632,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
         <v>1.8</v>
@@ -7963,7 +7966,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8169,7 +8172,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8581,7 +8584,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9199,7 +9202,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9405,7 +9408,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10023,7 +10026,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10641,7 +10644,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10847,7 +10850,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11259,7 +11262,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11671,7 +11674,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11752,7 +11755,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -12367,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ53">
         <v>0.36</v>
@@ -12495,7 +12498,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12701,7 +12704,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13525,7 +13528,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13731,7 +13734,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13937,7 +13940,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14555,7 +14558,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14967,7 +14970,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15254,7 +15257,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ67">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -15663,7 +15666,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16409,7 +16412,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16615,7 +16618,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17851,7 +17854,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17932,7 +17935,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -19293,7 +19296,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19371,7 +19374,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ87">
         <v>1.43</v>
@@ -19499,7 +19502,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19580,7 +19583,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ88">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19705,7 +19708,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19911,7 +19914,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20117,7 +20120,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20529,7 +20532,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20735,7 +20738,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20941,7 +20944,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21147,7 +21150,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21765,7 +21768,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21843,7 +21846,7 @@
         <v>1.17</v>
       </c>
       <c r="AP99">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
         <v>1.27</v>
@@ -21971,7 +21974,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22177,7 +22180,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22383,7 +22386,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22464,7 +22467,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR102">
         <v>1.67</v>
@@ -22589,7 +22592,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23001,7 +23004,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23825,7 +23828,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24237,7 +24240,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24855,7 +24858,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25267,7 +25270,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25473,7 +25476,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25885,7 +25888,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26503,7 +26506,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26584,7 +26587,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR122">
         <v>2.04</v>
@@ -26709,7 +26712,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27121,7 +27124,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27533,7 +27536,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28023,7 +28026,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -28151,7 +28154,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28563,7 +28566,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28975,7 +28978,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29181,7 +29184,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29387,7 +29390,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29593,7 +29596,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29799,7 +29802,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30211,7 +30214,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30417,7 +30420,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -32065,7 +32068,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32271,7 +32274,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32349,7 +32352,7 @@
         <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
         <v>1.2</v>
@@ -32558,7 +32561,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ151">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR151">
         <v>1.81</v>
@@ -32683,7 +32686,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33919,7 +33922,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34331,7 +34334,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34412,7 +34415,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ160">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR160">
         <v>1.51</v>
@@ -34537,7 +34540,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34821,7 +34824,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ162">
         <v>1.07</v>
@@ -34949,7 +34952,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35361,7 +35364,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36803,7 +36806,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37090,7 +37093,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR173">
         <v>1.71</v>
@@ -37627,7 +37630,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38117,7 +38120,7 @@
         <v>1.56</v>
       </c>
       <c r="AP178">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ178">
         <v>1.4</v>
@@ -38245,7 +38248,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38657,7 +38660,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38863,7 +38866,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39481,7 +39484,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39893,7 +39896,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40511,7 +40514,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40717,7 +40720,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41207,7 +41210,7 @@
         <v>0.4</v>
       </c>
       <c r="AP193">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193">
         <v>0.67</v>
@@ -41335,7 +41338,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41747,7 +41750,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41953,7 +41956,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42034,7 +42037,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ197">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR197">
         <v>1.68</v>
@@ -42365,7 +42368,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43189,7 +43192,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43601,7 +43604,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44425,7 +44428,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44503,7 +44506,7 @@
         <v>0.75</v>
       </c>
       <c r="AP209">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>0.6</v>
@@ -44837,7 +44840,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45043,7 +45046,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45661,7 +45664,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45948,7 +45951,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ216">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -46485,7 +46488,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46691,7 +46694,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47721,7 +47724,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47927,7 +47930,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48133,7 +48136,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48545,7 +48548,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48832,7 +48835,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ230">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR230">
         <v>1.6</v>
@@ -49163,7 +49166,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49241,7 +49244,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ232">
         <v>1.07</v>
@@ -49369,7 +49372,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49575,7 +49578,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49781,7 +49784,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50399,7 +50402,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50605,7 +50608,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51223,7 +51226,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51635,7 +51638,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -52125,7 +52128,7 @@
         <v>1</v>
       </c>
       <c r="AP246">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ246">
         <v>0.93</v>
@@ -52459,7 +52462,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52665,7 +52668,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53077,7 +53080,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53364,7 +53367,7 @@
         <v>2</v>
       </c>
       <c r="AQ252">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR252">
         <v>1.69</v>
@@ -53489,7 +53492,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53901,7 +53904,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54107,7 +54110,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54519,7 +54522,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54725,7 +54728,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54931,7 +54934,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55549,7 +55552,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56373,7 +56376,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56530,6 +56533,212 @@
       </c>
       <c r="BP267">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7450912</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45774.30208333334</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>85</v>
+      </c>
+      <c r="H268" t="s">
+        <v>70</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>4</v>
+      </c>
+      <c r="O268" t="s">
+        <v>272</v>
+      </c>
+      <c r="P268" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q268">
+        <v>3.95</v>
+      </c>
+      <c r="R268">
+        <v>1.9</v>
+      </c>
+      <c r="S268">
+        <v>2.8</v>
+      </c>
+      <c r="T268">
+        <v>1.33</v>
+      </c>
+      <c r="U268">
+        <v>3</v>
+      </c>
+      <c r="V268">
+        <v>2.73</v>
+      </c>
+      <c r="W268">
+        <v>1.42</v>
+      </c>
+      <c r="X268">
+        <v>6</v>
+      </c>
+      <c r="Y268">
+        <v>1.09</v>
+      </c>
+      <c r="Z268">
+        <v>3</v>
+      </c>
+      <c r="AA268">
+        <v>3.2</v>
+      </c>
+      <c r="AB268">
+        <v>2.1</v>
+      </c>
+      <c r="AC268">
+        <v>1.01</v>
+      </c>
+      <c r="AD268">
+        <v>10</v>
+      </c>
+      <c r="AE268">
+        <v>1.22</v>
+      </c>
+      <c r="AF268">
+        <v>3.52</v>
+      </c>
+      <c r="AG268">
+        <v>1.83</v>
+      </c>
+      <c r="AH268">
+        <v>1.91</v>
+      </c>
+      <c r="AI268">
+        <v>1.67</v>
+      </c>
+      <c r="AJ268">
+        <v>2.08</v>
+      </c>
+      <c r="AK268">
+        <v>1.3</v>
+      </c>
+      <c r="AL268">
+        <v>0</v>
+      </c>
+      <c r="AM268">
+        <v>1.27</v>
+      </c>
+      <c r="AN268">
+        <v>1.43</v>
+      </c>
+      <c r="AO268">
+        <v>1.71</v>
+      </c>
+      <c r="AP268">
+        <v>1.53</v>
+      </c>
+      <c r="AQ268">
+        <v>1.6</v>
+      </c>
+      <c r="AR268">
+        <v>1.5</v>
+      </c>
+      <c r="AS268">
+        <v>1.3</v>
+      </c>
+      <c r="AT268">
+        <v>2.8</v>
+      </c>
+      <c r="AU268">
+        <v>5</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>1</v>
+      </c>
+      <c r="AX268">
+        <v>5</v>
+      </c>
+      <c r="AY268">
+        <v>7</v>
+      </c>
+      <c r="AZ268">
+        <v>9</v>
+      </c>
+      <c r="BA268">
+        <v>2</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>7</v>
+      </c>
+      <c r="BD268">
+        <v>1.83</v>
+      </c>
+      <c r="BE268">
+        <v>6.5</v>
+      </c>
+      <c r="BF268">
+        <v>2.35</v>
+      </c>
+      <c r="BG268">
+        <v>1.21</v>
+      </c>
+      <c r="BH268">
+        <v>3.58</v>
+      </c>
+      <c r="BI268">
+        <v>1.47</v>
+      </c>
+      <c r="BJ268">
+        <v>2.5</v>
+      </c>
+      <c r="BK268">
+        <v>1.7</v>
+      </c>
+      <c r="BL268">
+        <v>1.96</v>
+      </c>
+      <c r="BM268">
+        <v>2.1</v>
+      </c>
+      <c r="BN268">
+        <v>1.7</v>
+      </c>
+      <c r="BO268">
+        <v>2.62</v>
+      </c>
+      <c r="BP268">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['45+6', '49', '59']</t>
   </si>
   <si>
+    <t>['79', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1166,6 +1169,9 @@
   </si>
   <si>
     <t>['14', '17', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '34']</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2198,7 +2204,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2816,7 +2822,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3228,7 +3234,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3640,7 +3646,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3846,7 +3852,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4052,7 +4058,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4258,7 +4264,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4336,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4464,7 +4470,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4545,7 +4551,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4670,7 +4676,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21">
         <v>1.07</v>
@@ -5906,7 +5912,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6524,7 +6530,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6730,7 +6736,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6936,7 +6942,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7142,7 +7148,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7220,7 +7226,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1.2</v>
@@ -7429,7 +7435,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7554,7 +7560,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7966,7 +7972,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8172,7 +8178,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8584,7 +8590,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9202,7 +9208,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9408,7 +9414,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9489,7 +9495,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -10026,7 +10032,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10310,7 +10316,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>2.13</v>
@@ -10644,7 +10650,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10850,7 +10856,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11262,7 +11268,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11674,7 +11680,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12498,7 +12504,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12704,7 +12710,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12785,7 +12791,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -13400,7 +13406,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -13528,7 +13534,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13606,7 +13612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13734,7 +13740,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13940,7 +13946,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14558,7 +14564,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14970,7 +14976,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16078,7 +16084,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16412,7 +16418,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16618,7 +16624,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17108,7 +17114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>1.13</v>
@@ -17854,7 +17860,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19296,7 +19302,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19377,7 +19383,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ87">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19502,7 +19508,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19708,7 +19714,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19914,7 +19920,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20120,7 +20126,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20532,7 +20538,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20610,7 +20616,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>2.13</v>
@@ -20738,7 +20744,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20816,7 +20822,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20944,7 +20950,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21150,7 +21156,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21768,7 +21774,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21974,7 +21980,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22180,7 +22186,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22386,7 +22392,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22592,7 +22598,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22673,7 +22679,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ103">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR103">
         <v>1.6</v>
@@ -23004,7 +23010,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23082,7 +23088,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ105">
         <v>0.36</v>
@@ -23494,7 +23500,7 @@
         <v>0.4</v>
       </c>
       <c r="AP107">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>0.6</v>
@@ -23828,7 +23834,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24240,7 +24246,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24858,7 +24864,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25270,7 +25276,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25476,7 +25482,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25888,7 +25894,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26175,7 +26181,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -26378,7 +26384,7 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ121">
         <v>1.27</v>
@@ -26506,7 +26512,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26584,7 +26590,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ122">
         <v>1.6</v>
@@ -26712,7 +26718,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27124,7 +27130,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27536,7 +27542,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28154,7 +28160,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28566,7 +28572,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28978,7 +28984,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29184,7 +29190,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29390,7 +29396,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29596,7 +29602,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29802,7 +29808,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30214,7 +30220,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30420,7 +30426,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30498,7 +30504,7 @@
         <v>0.14</v>
       </c>
       <c r="AP141">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ141">
         <v>0.36</v>
@@ -30910,7 +30916,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ143">
         <v>1.27</v>
@@ -31531,7 +31537,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ146">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR146">
         <v>1.5</v>
@@ -32068,7 +32074,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32274,7 +32280,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32686,7 +32692,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33176,7 +33182,7 @@
         <v>1.25</v>
       </c>
       <c r="AP154">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>1.13</v>
@@ -33382,10 +33388,10 @@
         <v>1.75</v>
       </c>
       <c r="AP155">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ155">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR155">
         <v>1.98</v>
@@ -33922,7 +33928,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34334,7 +34340,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34540,7 +34546,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34952,7 +34958,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35364,7 +35370,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36266,7 +36272,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP169">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ169">
         <v>0.6</v>
@@ -36806,7 +36812,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37502,7 +37508,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ175">
         <v>0.67</v>
@@ -37630,7 +37636,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38248,7 +38254,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38535,7 +38541,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ180">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38660,7 +38666,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38866,7 +38872,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39484,7 +39490,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39562,7 +39568,7 @@
         <v>0.9</v>
       </c>
       <c r="AP185">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ185">
         <v>1.07</v>
@@ -39896,7 +39902,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40514,7 +40520,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40720,7 +40726,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41338,7 +41344,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41622,7 +41628,7 @@
         <v>1.3</v>
       </c>
       <c r="AP195">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ195">
         <v>1.33</v>
@@ -41750,7 +41756,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41956,7 +41962,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42368,7 +42374,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42652,7 +42658,7 @@
         <v>0.82</v>
       </c>
       <c r="AP200">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ200">
         <v>0.93</v>
@@ -42858,7 +42864,7 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ201">
         <v>1.8</v>
@@ -43192,7 +43198,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43273,7 +43279,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ203">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR203">
         <v>1.8</v>
@@ -43604,7 +43610,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44428,7 +44434,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44840,7 +44846,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45046,7 +45052,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45664,7 +45670,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46360,7 +46366,7 @@
         <v>0.83</v>
       </c>
       <c r="AP218">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ218">
         <v>0.67</v>
@@ -46488,7 +46494,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46694,7 +46700,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46978,7 +46984,7 @@
         <v>1.42</v>
       </c>
       <c r="AP221">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ221">
         <v>1.4</v>
@@ -47724,7 +47730,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47930,7 +47936,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48011,7 +48017,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ226">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR226">
         <v>1.8</v>
@@ -48136,7 +48142,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48548,7 +48554,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49041,7 +49047,7 @@
         <v>1</v>
       </c>
       <c r="AQ231">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR231">
         <v>1.56</v>
@@ -49166,7 +49172,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49372,7 +49378,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49578,7 +49584,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49784,7 +49790,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50402,7 +50408,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50480,7 +50486,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP238">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ238">
         <v>1</v>
@@ -50608,7 +50614,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51226,7 +51232,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51304,7 +51310,7 @@
         <v>1.08</v>
       </c>
       <c r="AP242">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ242">
         <v>1.33</v>
@@ -51638,7 +51644,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -52462,7 +52468,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52668,7 +52674,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53080,7 +53086,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53161,7 +53167,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ251">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR251">
         <v>1.64</v>
@@ -53492,7 +53498,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53904,7 +53910,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54110,7 +54116,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54522,7 +54528,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54728,7 +54734,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54934,7 +54940,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55552,7 +55558,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56376,7 +56382,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56739,6 +56745,418 @@
       </c>
       <c r="BP268">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7450910</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45774.40625</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>87</v>
+      </c>
+      <c r="H269" t="s">
+        <v>82</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269" t="s">
+        <v>95</v>
+      </c>
+      <c r="P269" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q269">
+        <v>2.46</v>
+      </c>
+      <c r="R269">
+        <v>2.2</v>
+      </c>
+      <c r="S269">
+        <v>3.85</v>
+      </c>
+      <c r="T269">
+        <v>1.33</v>
+      </c>
+      <c r="U269">
+        <v>3</v>
+      </c>
+      <c r="V269">
+        <v>2.73</v>
+      </c>
+      <c r="W269">
+        <v>1.45</v>
+      </c>
+      <c r="X269">
+        <v>5.8</v>
+      </c>
+      <c r="Y269">
+        <v>1.09</v>
+      </c>
+      <c r="Z269">
+        <v>1.99</v>
+      </c>
+      <c r="AA269">
+        <v>3.38</v>
+      </c>
+      <c r="AB269">
+        <v>3.68</v>
+      </c>
+      <c r="AC269">
+        <v>1.05</v>
+      </c>
+      <c r="AD269">
+        <v>12.5</v>
+      </c>
+      <c r="AE269">
+        <v>1.22</v>
+      </c>
+      <c r="AF269">
+        <v>3.8</v>
+      </c>
+      <c r="AG269">
+        <v>1.77</v>
+      </c>
+      <c r="AH269">
+        <v>1.98</v>
+      </c>
+      <c r="AI269">
+        <v>1.67</v>
+      </c>
+      <c r="AJ269">
+        <v>2.15</v>
+      </c>
+      <c r="AK269">
+        <v>1.3</v>
+      </c>
+      <c r="AL269">
+        <v>0</v>
+      </c>
+      <c r="AM269">
+        <v>1.85</v>
+      </c>
+      <c r="AN269">
+        <v>1.64</v>
+      </c>
+      <c r="AO269">
+        <v>0.93</v>
+      </c>
+      <c r="AP269">
+        <v>1.6</v>
+      </c>
+      <c r="AQ269">
+        <v>0.93</v>
+      </c>
+      <c r="AR269">
+        <v>2</v>
+      </c>
+      <c r="AS269">
+        <v>1.37</v>
+      </c>
+      <c r="AT269">
+        <v>3.37</v>
+      </c>
+      <c r="AU269">
+        <v>0</v>
+      </c>
+      <c r="AV269">
+        <v>3</v>
+      </c>
+      <c r="AW269">
+        <v>9</v>
+      </c>
+      <c r="AX269">
+        <v>5</v>
+      </c>
+      <c r="AY269">
+        <v>11</v>
+      </c>
+      <c r="AZ269">
+        <v>10</v>
+      </c>
+      <c r="BA269">
+        <v>5</v>
+      </c>
+      <c r="BB269">
+        <v>5</v>
+      </c>
+      <c r="BC269">
+        <v>10</v>
+      </c>
+      <c r="BD269">
+        <v>1.55</v>
+      </c>
+      <c r="BE269">
+        <v>9.5</v>
+      </c>
+      <c r="BF269">
+        <v>3.14</v>
+      </c>
+      <c r="BG269">
+        <v>1.22</v>
+      </c>
+      <c r="BH269">
+        <v>3.9</v>
+      </c>
+      <c r="BI269">
+        <v>1.38</v>
+      </c>
+      <c r="BJ269">
+        <v>2.78</v>
+      </c>
+      <c r="BK269">
+        <v>1.83</v>
+      </c>
+      <c r="BL269">
+        <v>2.09</v>
+      </c>
+      <c r="BM269">
+        <v>2.05</v>
+      </c>
+      <c r="BN269">
+        <v>1.7</v>
+      </c>
+      <c r="BO269">
+        <v>2.5</v>
+      </c>
+      <c r="BP269">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7450916</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45774.52083333334</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>81</v>
+      </c>
+      <c r="H270" t="s">
+        <v>76</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>2</v>
+      </c>
+      <c r="K270">
+        <v>2</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+      <c r="N270">
+        <v>4</v>
+      </c>
+      <c r="O270" t="s">
+        <v>273</v>
+      </c>
+      <c r="P270" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q270">
+        <v>4</v>
+      </c>
+      <c r="R270">
+        <v>2.15</v>
+      </c>
+      <c r="S270">
+        <v>2.43</v>
+      </c>
+      <c r="T270">
+        <v>1.32</v>
+      </c>
+      <c r="U270">
+        <v>3.05</v>
+      </c>
+      <c r="V270">
+        <v>2.55</v>
+      </c>
+      <c r="W270">
+        <v>1.46</v>
+      </c>
+      <c r="X270">
+        <v>6</v>
+      </c>
+      <c r="Y270">
+        <v>1.09</v>
+      </c>
+      <c r="Z270">
+        <v>3.3</v>
+      </c>
+      <c r="AA270">
+        <v>3.3</v>
+      </c>
+      <c r="AB270">
+        <v>1.97</v>
+      </c>
+      <c r="AC270">
+        <v>1.05</v>
+      </c>
+      <c r="AD270">
+        <v>11</v>
+      </c>
+      <c r="AE270">
+        <v>1.26</v>
+      </c>
+      <c r="AF270">
+        <v>3.96</v>
+      </c>
+      <c r="AG270">
+        <v>1.87</v>
+      </c>
+      <c r="AH270">
+        <v>2.03</v>
+      </c>
+      <c r="AI270">
+        <v>1.7</v>
+      </c>
+      <c r="AJ270">
+        <v>2.1</v>
+      </c>
+      <c r="AK270">
+        <v>1.31</v>
+      </c>
+      <c r="AL270">
+        <v>0</v>
+      </c>
+      <c r="AM270">
+        <v>1.3</v>
+      </c>
+      <c r="AN270">
+        <v>1.36</v>
+      </c>
+      <c r="AO270">
+        <v>1.43</v>
+      </c>
+      <c r="AP270">
+        <v>1.33</v>
+      </c>
+      <c r="AQ270">
+        <v>1.4</v>
+      </c>
+      <c r="AR270">
+        <v>1.66</v>
+      </c>
+      <c r="AS270">
+        <v>1.44</v>
+      </c>
+      <c r="AT270">
+        <v>3.1</v>
+      </c>
+      <c r="AU270">
+        <v>4</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>12</v>
+      </c>
+      <c r="AX270">
+        <v>2</v>
+      </c>
+      <c r="AY270">
+        <v>23</v>
+      </c>
+      <c r="AZ270">
+        <v>8</v>
+      </c>
+      <c r="BA270">
+        <v>12</v>
+      </c>
+      <c r="BB270">
+        <v>1</v>
+      </c>
+      <c r="BC270">
+        <v>13</v>
+      </c>
+      <c r="BD270">
+        <v>2.45</v>
+      </c>
+      <c r="BE270">
+        <v>6.55</v>
+      </c>
+      <c r="BF270">
+        <v>1.77</v>
+      </c>
+      <c r="BG270">
+        <v>1.27</v>
+      </c>
+      <c r="BH270">
+        <v>3.2</v>
+      </c>
+      <c r="BI270">
+        <v>1.4</v>
+      </c>
+      <c r="BJ270">
+        <v>2.7</v>
+      </c>
+      <c r="BK270">
+        <v>1.85</v>
+      </c>
+      <c r="BL270">
+        <v>2.05</v>
+      </c>
+      <c r="BM270">
+        <v>2.09</v>
+      </c>
+      <c r="BN270">
+        <v>1.66</v>
+      </c>
+      <c r="BO270">
+        <v>2.71</v>
+      </c>
+      <c r="BP270">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,9 @@
     <t>['79', '90+1']</t>
   </si>
   <si>
+    <t>['27', '66']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1172,6 +1175,9 @@
   </si>
   <si>
     <t>['5', '34']</t>
+  </si>
+  <si>
+    <t>['55', '65']</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2204,7 +2210,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2822,7 +2828,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3234,7 +3240,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3646,7 +3652,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3852,7 +3858,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4058,7 +4064,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4264,7 +4270,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4470,7 +4476,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4676,7 +4682,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4754,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
         <v>1.07</v>
@@ -5578,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>0.6</v>
@@ -5912,7 +5918,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6199,7 +6205,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ23">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6530,7 +6536,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6736,7 +6742,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6942,7 +6948,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7148,7 +7154,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7560,7 +7566,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7847,7 +7853,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ31">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7972,7 +7978,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8178,7 +8184,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8590,7 +8596,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9208,7 +9214,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9414,7 +9420,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9492,7 +9498,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -10032,7 +10038,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10650,7 +10656,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10856,7 +10862,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11268,7 +11274,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11680,7 +11686,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12379,7 +12385,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ53">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12504,7 +12510,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12710,7 +12716,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13200,7 +13206,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
         <v>1.13</v>
@@ -13534,7 +13540,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13740,7 +13746,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13946,7 +13952,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14564,7 +14570,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14976,7 +14982,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16418,7 +16424,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16624,7 +16630,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17860,7 +17866,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19174,7 +19180,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
         <v>1.07</v>
@@ -19302,7 +19308,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19508,7 +19514,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19714,7 +19720,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19795,7 +19801,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19920,7 +19926,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20126,7 +20132,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20538,7 +20544,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20744,7 +20750,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20950,7 +20956,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21156,7 +21162,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21774,7 +21780,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21980,7 +21986,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22186,7 +22192,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22392,7 +22398,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22470,7 +22476,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ102">
         <v>1.6</v>
@@ -22598,7 +22604,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23010,7 +23016,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23091,7 +23097,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ105">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -23709,7 +23715,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23834,7 +23840,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24246,7 +24252,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24864,7 +24870,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25276,7 +25282,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25482,7 +25488,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25769,7 +25775,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR118">
         <v>1.58</v>
@@ -25894,7 +25900,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26512,7 +26518,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26718,7 +26724,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27130,7 +27136,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27414,7 +27420,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>0.67</v>
@@ -27542,7 +27548,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28160,7 +28166,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28572,7 +28578,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28984,7 +28990,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29190,7 +29196,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29396,7 +29402,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29474,7 +29480,7 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ136">
         <v>1.4</v>
@@ -29602,7 +29608,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29808,7 +29814,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30220,7 +30226,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30426,7 +30432,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30507,7 +30513,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ141">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -32074,7 +32080,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32280,7 +32286,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32692,7 +32698,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33803,7 +33809,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR157">
         <v>1.39</v>
@@ -33928,7 +33934,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34340,7 +34346,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34546,7 +34552,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34624,7 +34630,7 @@
         <v>1.25</v>
       </c>
       <c r="AP161">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ161">
         <v>1.33</v>
@@ -34958,7 +34964,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35245,7 +35251,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ164">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR164">
         <v>1.72</v>
@@ -35370,7 +35376,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36812,7 +36818,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37636,7 +37642,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38254,7 +38260,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38666,7 +38672,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38872,7 +38878,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39490,7 +39496,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39902,7 +39908,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40520,7 +40526,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40598,7 +40604,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ190">
         <v>0.67</v>
@@ -40726,7 +40732,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40807,7 +40813,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ191">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR191">
         <v>1.48</v>
@@ -41344,7 +41350,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41756,7 +41762,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41962,7 +41968,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42374,7 +42380,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43198,7 +43204,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43482,7 +43488,7 @@
         <v>1.36</v>
       </c>
       <c r="AP204">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ204">
         <v>1.27</v>
@@ -43610,7 +43616,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44434,7 +44440,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44846,7 +44852,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45052,7 +45058,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45339,7 +45345,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ213">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR213">
         <v>1.92</v>
@@ -45670,7 +45676,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46494,7 +46500,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46700,7 +46706,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47602,7 +47608,7 @@
         <v>1.25</v>
       </c>
       <c r="AP224">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ224">
         <v>1.13</v>
@@ -47730,7 +47736,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47936,7 +47942,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48142,7 +48148,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48554,7 +48560,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49172,7 +49178,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49378,7 +49384,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49459,7 +49465,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ233">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR233">
         <v>1.63</v>
@@ -49584,7 +49590,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49790,7 +49796,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -49868,7 +49874,7 @@
         <v>2.33</v>
       </c>
       <c r="AP235">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ235">
         <v>2.13</v>
@@ -50408,7 +50414,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50614,7 +50620,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51232,7 +51238,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51644,7 +51650,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -51928,7 +51934,7 @@
         <v>1.31</v>
       </c>
       <c r="AP245">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ245">
         <v>1.2</v>
@@ -52468,7 +52474,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52674,7 +52680,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53086,7 +53092,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53498,7 +53504,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53579,7 +53585,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ253">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR253">
         <v>1.59</v>
@@ -53910,7 +53916,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54116,7 +54122,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54528,7 +54534,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54734,7 +54740,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54940,7 +54946,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55558,7 +55564,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56382,7 +56388,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57000,7 +57006,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57157,6 +57163,212 @@
       </c>
       <c r="BP270">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7450911</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>83</v>
+      </c>
+      <c r="H271" t="s">
+        <v>78</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>4</v>
+      </c>
+      <c r="O271" t="s">
+        <v>274</v>
+      </c>
+      <c r="P271" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q271">
+        <v>2.45</v>
+      </c>
+      <c r="R271">
+        <v>2.18</v>
+      </c>
+      <c r="S271">
+        <v>3.55</v>
+      </c>
+      <c r="T271">
+        <v>1.33</v>
+      </c>
+      <c r="U271">
+        <v>3</v>
+      </c>
+      <c r="V271">
+        <v>2.5</v>
+      </c>
+      <c r="W271">
+        <v>1.44</v>
+      </c>
+      <c r="X271">
+        <v>6</v>
+      </c>
+      <c r="Y271">
+        <v>1.09</v>
+      </c>
+      <c r="Z271">
+        <v>2.25</v>
+      </c>
+      <c r="AA271">
+        <v>3.53</v>
+      </c>
+      <c r="AB271">
+        <v>2.95</v>
+      </c>
+      <c r="AC271">
+        <v>1.03</v>
+      </c>
+      <c r="AD271">
+        <v>11</v>
+      </c>
+      <c r="AE271">
+        <v>1.2</v>
+      </c>
+      <c r="AF271">
+        <v>3.9</v>
+      </c>
+      <c r="AG271">
+        <v>1.87</v>
+      </c>
+      <c r="AH271">
+        <v>2.03</v>
+      </c>
+      <c r="AI271">
+        <v>1.62</v>
+      </c>
+      <c r="AJ271">
+        <v>2.2</v>
+      </c>
+      <c r="AK271">
+        <v>1.33</v>
+      </c>
+      <c r="AL271">
+        <v>0</v>
+      </c>
+      <c r="AM271">
+        <v>1.62</v>
+      </c>
+      <c r="AN271">
+        <v>1.21</v>
+      </c>
+      <c r="AO271">
+        <v>0.36</v>
+      </c>
+      <c r="AP271">
+        <v>1.2</v>
+      </c>
+      <c r="AQ271">
+        <v>0.4</v>
+      </c>
+      <c r="AR271">
+        <v>1.71</v>
+      </c>
+      <c r="AS271">
+        <v>1.3</v>
+      </c>
+      <c r="AT271">
+        <v>3.01</v>
+      </c>
+      <c r="AU271">
+        <v>5</v>
+      </c>
+      <c r="AV271">
+        <v>9</v>
+      </c>
+      <c r="AW271">
+        <v>10</v>
+      </c>
+      <c r="AX271">
+        <v>8</v>
+      </c>
+      <c r="AY271">
+        <v>21</v>
+      </c>
+      <c r="AZ271">
+        <v>18</v>
+      </c>
+      <c r="BA271">
+        <v>3</v>
+      </c>
+      <c r="BB271">
+        <v>5</v>
+      </c>
+      <c r="BC271">
+        <v>8</v>
+      </c>
+      <c r="BD271">
+        <v>1.55</v>
+      </c>
+      <c r="BE271">
+        <v>8.5</v>
+      </c>
+      <c r="BF271">
+        <v>2.95</v>
+      </c>
+      <c r="BG271">
+        <v>1.2</v>
+      </c>
+      <c r="BH271">
+        <v>4</v>
+      </c>
+      <c r="BI271">
+        <v>1.32</v>
+      </c>
+      <c r="BJ271">
+        <v>2.88</v>
+      </c>
+      <c r="BK271">
+        <v>1.58</v>
+      </c>
+      <c r="BL271">
+        <v>2.25</v>
+      </c>
+      <c r="BM271">
+        <v>1.91</v>
+      </c>
+      <c r="BN271">
+        <v>1.8</v>
+      </c>
+      <c r="BO271">
+        <v>2.4</v>
+      </c>
+      <c r="BP271">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,12 @@
     <t>['27', '66']</t>
   </si>
   <si>
+    <t>['30', '64', '81']</t>
+  </si>
+  <si>
+    <t>['3', '14', '16', '32', '35', '56', '64', '82']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1178,6 +1184,9 @@
   </si>
   <si>
     <t>['55', '65']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1879,7 +1888,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2082,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -2210,7 +2219,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2703,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2828,7 +2837,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3112,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -3240,7 +3249,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3321,7 +3330,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ9">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3524,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>0.93</v>
@@ -3652,7 +3661,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3858,7 +3867,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4064,7 +4073,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4142,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -4270,7 +4279,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4476,7 +4485,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4682,7 +4691,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5587,7 +5596,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5918,7 +5927,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5999,7 +6008,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -6408,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -6536,7 +6545,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6742,7 +6751,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6948,7 +6957,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7154,7 +7163,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7566,7 +7575,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7978,7 +7987,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8059,7 +8068,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -8184,7 +8193,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8596,7 +8605,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9214,7 +9223,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9420,7 +9429,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9910,7 +9919,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -10038,7 +10047,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10325,7 +10334,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10528,7 +10537,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.27</v>
@@ -10656,7 +10665,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10862,7 +10871,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10943,7 +10952,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -11149,7 +11158,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11274,7 +11283,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11561,7 +11570,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11686,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11970,7 +11979,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ51">
         <v>1.07</v>
@@ -12176,7 +12185,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -12510,7 +12519,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12716,7 +12725,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12794,7 +12803,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -13540,7 +13549,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13746,7 +13755,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13952,7 +13961,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14570,7 +14579,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14982,7 +14991,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15266,7 +15275,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ67">
         <v>1.6</v>
@@ -15475,7 +15484,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15681,7 +15690,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15887,7 +15896,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -16424,7 +16433,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16630,7 +16639,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17326,7 +17335,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -17535,7 +17544,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17738,7 +17747,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -17866,7 +17875,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18565,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83">
         <v>1.5</v>
@@ -19308,7 +19317,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19514,7 +19523,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19720,7 +19729,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19926,7 +19935,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20132,7 +20141,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20416,7 +20425,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20544,7 +20553,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20625,7 +20634,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR93">
         <v>1.66</v>
@@ -20750,7 +20759,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20831,7 +20840,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR94">
         <v>1.85</v>
@@ -20956,7 +20965,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21034,7 +21043,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ95">
         <v>1.4</v>
@@ -21162,7 +21171,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21240,7 +21249,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
         <v>1.8</v>
@@ -21780,7 +21789,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21986,7 +21995,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22192,7 +22201,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22398,7 +22407,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22604,7 +22613,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23016,7 +23025,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23509,7 +23518,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23712,7 +23721,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>0.4</v>
@@ -23840,7 +23849,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24127,7 +24136,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ110">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR110">
         <v>1.69</v>
@@ -24252,7 +24261,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24536,10 +24545,10 @@
         <v>2.67</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR112">
         <v>1.59</v>
@@ -24742,7 +24751,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ113">
         <v>1.07</v>
@@ -24870,7 +24879,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24948,10 +24957,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -25282,7 +25291,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25488,7 +25497,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25900,7 +25909,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26518,7 +26527,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26724,7 +26733,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27136,7 +27145,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27548,7 +27557,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28166,7 +28175,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28453,7 +28462,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28578,7 +28587,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28656,7 +28665,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
         <v>1.2</v>
@@ -28862,10 +28871,10 @@
         <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR133">
         <v>1.65</v>
@@ -28990,7 +28999,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29071,7 +29080,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ134">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR134">
         <v>1.7</v>
@@ -29196,7 +29205,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29274,7 +29283,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29402,7 +29411,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29608,7 +29617,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29814,7 +29823,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30098,7 +30107,7 @@
         <v>1.43</v>
       </c>
       <c r="AP139">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -30226,7 +30235,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30432,7 +30441,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31337,7 +31346,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
         <v>1.63</v>
@@ -31746,10 +31755,10 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ147">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -32080,7 +32089,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32161,7 +32170,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32286,7 +32295,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32698,7 +32707,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32776,7 +32785,7 @@
         <v>1.29</v>
       </c>
       <c r="AP152">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ152">
         <v>1.33</v>
@@ -33934,7 +33943,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34346,7 +34355,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34552,7 +34561,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34964,7 +34973,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35042,7 +35051,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ163">
         <v>1.07</v>
@@ -35376,7 +35385,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35454,7 +35463,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ165">
         <v>0.93</v>
@@ -35869,7 +35878,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ167">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR167">
         <v>1.71</v>
@@ -36075,7 +36084,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR168">
         <v>1.8</v>
@@ -36281,7 +36290,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ169">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36818,7 +36827,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -36896,7 +36905,7 @@
         <v>1.22</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ172">
         <v>1.27</v>
@@ -37102,7 +37111,7 @@
         <v>1.89</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ173">
         <v>1.6</v>
@@ -37642,7 +37651,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38260,7 +38269,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38672,7 +38681,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38753,7 +38762,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR181">
         <v>1.46</v>
@@ -38878,7 +38887,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39162,10 +39171,10 @@
         <v>2.2</v>
       </c>
       <c r="AP183">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ183">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR183">
         <v>2.02</v>
@@ -39368,7 +39377,7 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ184">
         <v>0.93</v>
@@ -39496,7 +39505,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39783,7 +39792,7 @@
         <v>2</v>
       </c>
       <c r="AQ186">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR186">
         <v>1.66</v>
@@ -39908,7 +39917,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -39986,7 +39995,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP187">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ187">
         <v>1.07</v>
@@ -40526,7 +40535,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40732,7 +40741,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41350,7 +41359,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41762,7 +41771,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41843,7 +41852,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ196">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR196">
         <v>1.46</v>
@@ -41968,7 +41977,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42252,10 +42261,10 @@
         <v>0.82</v>
       </c>
       <c r="AP198">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
         <v>1.96</v>
@@ -42380,7 +42389,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43076,7 +43085,7 @@
         <v>1.09</v>
       </c>
       <c r="AP202">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ202">
         <v>1.13</v>
@@ -43204,7 +43213,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43616,7 +43625,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44440,7 +44449,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44521,7 +44530,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ209">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR209">
         <v>1.41</v>
@@ -44724,7 +44733,7 @@
         <v>1</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ210">
         <v>1.07</v>
@@ -44852,7 +44861,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45058,7 +45067,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45139,7 +45148,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ212">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR212">
         <v>1.62</v>
@@ -45342,7 +45351,7 @@
         <v>0.45</v>
       </c>
       <c r="AP213">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ213">
         <v>0.4</v>
@@ -45551,7 +45560,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
         <v>1.68</v>
@@ -45676,7 +45685,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46500,7 +46509,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46706,7 +46715,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46784,7 +46793,7 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ220">
         <v>0.67</v>
@@ -47736,7 +47745,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47942,7 +47951,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48148,7 +48157,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48560,7 +48569,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48641,7 +48650,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ229">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR229">
         <v>1.58</v>
@@ -49050,7 +49059,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ231">
         <v>1.4</v>
@@ -49178,7 +49187,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49384,7 +49393,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49590,7 +49599,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49796,7 +49805,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -49877,7 +49886,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ235">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR235">
         <v>1.76</v>
@@ -50080,7 +50089,7 @@
         <v>1.92</v>
       </c>
       <c r="AP236">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ236">
         <v>1.8</v>
@@ -50414,7 +50423,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50495,7 +50504,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ238">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR238">
         <v>1.65</v>
@@ -50620,7 +50629,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -50698,7 +50707,7 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ239">
         <v>1.4</v>
@@ -50904,7 +50913,7 @@
         <v>1.23</v>
       </c>
       <c r="AP240">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ240">
         <v>1.13</v>
@@ -51238,7 +51247,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51650,7 +51659,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -51731,7 +51740,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ244">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR244">
         <v>1.41</v>
@@ -52349,7 +52358,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ247">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR247">
         <v>1.63</v>
@@ -52474,7 +52483,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52680,7 +52689,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53092,7 +53101,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53504,7 +53513,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53916,7 +53925,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -53994,7 +54003,7 @@
         <v>1</v>
       </c>
       <c r="AP255">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ255">
         <v>1.13</v>
@@ -54122,7 +54131,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54409,7 +54418,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ257">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR257">
         <v>1.85</v>
@@ -54534,7 +54543,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54740,7 +54749,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54821,7 +54830,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ259">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR259">
         <v>1.73</v>
@@ -54946,7 +54955,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55230,7 +55239,7 @@
         <v>1.85</v>
       </c>
       <c r="AP261">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ261">
         <v>1.8</v>
@@ -55436,7 +55445,7 @@
         <v>1.21</v>
       </c>
       <c r="AP262">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ262">
         <v>1.2</v>
@@ -55564,7 +55573,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56388,7 +56397,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57006,7 +57015,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57212,7 +57221,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57369,6 +57378,624 @@
       </c>
       <c r="BP271">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7450924</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45780.40625</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>78</v>
+      </c>
+      <c r="H272" t="s">
+        <v>86</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>95</v>
+      </c>
+      <c r="P272" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q272">
+        <v>4.75</v>
+      </c>
+      <c r="R272">
+        <v>2.21</v>
+      </c>
+      <c r="S272">
+        <v>2.4</v>
+      </c>
+      <c r="T272">
+        <v>1.32</v>
+      </c>
+      <c r="U272">
+        <v>3.1</v>
+      </c>
+      <c r="V272">
+        <v>2.55</v>
+      </c>
+      <c r="W272">
+        <v>1.44</v>
+      </c>
+      <c r="X272">
+        <v>5.7</v>
+      </c>
+      <c r="Y272">
+        <v>1.1</v>
+      </c>
+      <c r="Z272">
+        <v>4.5</v>
+      </c>
+      <c r="AA272">
+        <v>3.5</v>
+      </c>
+      <c r="AB272">
+        <v>1.73</v>
+      </c>
+      <c r="AC272">
+        <v>1.05</v>
+      </c>
+      <c r="AD272">
+        <v>10.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.25</v>
+      </c>
+      <c r="AF272">
+        <v>3.8</v>
+      </c>
+      <c r="AG272">
+        <v>1.83</v>
+      </c>
+      <c r="AH272">
+        <v>2.05</v>
+      </c>
+      <c r="AI272">
+        <v>1.75</v>
+      </c>
+      <c r="AJ272">
+        <v>2</v>
+      </c>
+      <c r="AK272">
+        <v>1.25</v>
+      </c>
+      <c r="AL272">
+        <v>1.27</v>
+      </c>
+      <c r="AM272">
+        <v>1.18</v>
+      </c>
+      <c r="AN272">
+        <v>1.33</v>
+      </c>
+      <c r="AO272">
+        <v>2.13</v>
+      </c>
+      <c r="AP272">
+        <v>1.25</v>
+      </c>
+      <c r="AQ272">
+        <v>2.19</v>
+      </c>
+      <c r="AR272">
+        <v>1.59</v>
+      </c>
+      <c r="AS272">
+        <v>1.51</v>
+      </c>
+      <c r="AT272">
+        <v>3.1</v>
+      </c>
+      <c r="AU272">
+        <v>0</v>
+      </c>
+      <c r="AV272">
+        <v>8</v>
+      </c>
+      <c r="AW272">
+        <v>5</v>
+      </c>
+      <c r="AX272">
+        <v>10</v>
+      </c>
+      <c r="AY272">
+        <v>5</v>
+      </c>
+      <c r="AZ272">
+        <v>24</v>
+      </c>
+      <c r="BA272">
+        <v>1</v>
+      </c>
+      <c r="BB272">
+        <v>11</v>
+      </c>
+      <c r="BC272">
+        <v>12</v>
+      </c>
+      <c r="BD272">
+        <v>2.65</v>
+      </c>
+      <c r="BE272">
+        <v>8.5</v>
+      </c>
+      <c r="BF272">
+        <v>1.66</v>
+      </c>
+      <c r="BG272">
+        <v>1.27</v>
+      </c>
+      <c r="BH272">
+        <v>3.3</v>
+      </c>
+      <c r="BI272">
+        <v>1.44</v>
+      </c>
+      <c r="BJ272">
+        <v>2.45</v>
+      </c>
+      <c r="BK272">
+        <v>1.82</v>
+      </c>
+      <c r="BL272">
+        <v>1.93</v>
+      </c>
+      <c r="BM272">
+        <v>2.3</v>
+      </c>
+      <c r="BN272">
+        <v>1.57</v>
+      </c>
+      <c r="BO272">
+        <v>2.9</v>
+      </c>
+      <c r="BP272">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7450926</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45780.52083333334</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>71</v>
+      </c>
+      <c r="H273" t="s">
+        <v>83</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>4</v>
+      </c>
+      <c r="O273" t="s">
+        <v>275</v>
+      </c>
+      <c r="P273" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q273">
+        <v>2.4</v>
+      </c>
+      <c r="R273">
+        <v>2.38</v>
+      </c>
+      <c r="S273">
+        <v>3.57</v>
+      </c>
+      <c r="T273">
+        <v>1.28</v>
+      </c>
+      <c r="U273">
+        <v>3.34</v>
+      </c>
+      <c r="V273">
+        <v>2.3</v>
+      </c>
+      <c r="W273">
+        <v>1.54</v>
+      </c>
+      <c r="X273">
+        <v>5.25</v>
+      </c>
+      <c r="Y273">
+        <v>1.13</v>
+      </c>
+      <c r="Z273">
+        <v>1.9</v>
+      </c>
+      <c r="AA273">
+        <v>3.5</v>
+      </c>
+      <c r="AB273">
+        <v>3.25</v>
+      </c>
+      <c r="AC273">
+        <v>1.04</v>
+      </c>
+      <c r="AD273">
+        <v>10</v>
+      </c>
+      <c r="AE273">
+        <v>1.22</v>
+      </c>
+      <c r="AF273">
+        <v>4.33</v>
+      </c>
+      <c r="AG273">
+        <v>1.57</v>
+      </c>
+      <c r="AH273">
+        <v>2.31</v>
+      </c>
+      <c r="AI273">
+        <v>1.57</v>
+      </c>
+      <c r="AJ273">
+        <v>2.35</v>
+      </c>
+      <c r="AK273">
+        <v>1.3</v>
+      </c>
+      <c r="AL273">
+        <v>1.28</v>
+      </c>
+      <c r="AM273">
+        <v>1.75</v>
+      </c>
+      <c r="AN273">
+        <v>1</v>
+      </c>
+      <c r="AO273">
+        <v>1</v>
+      </c>
+      <c r="AP273">
+        <v>1.13</v>
+      </c>
+      <c r="AQ273">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR273">
+        <v>1.56</v>
+      </c>
+      <c r="AS273">
+        <v>1.47</v>
+      </c>
+      <c r="AT273">
+        <v>3.03</v>
+      </c>
+      <c r="AU273">
+        <v>8</v>
+      </c>
+      <c r="AV273">
+        <v>7</v>
+      </c>
+      <c r="AW273">
+        <v>4</v>
+      </c>
+      <c r="AX273">
+        <v>9</v>
+      </c>
+      <c r="AY273">
+        <v>16</v>
+      </c>
+      <c r="AZ273">
+        <v>22</v>
+      </c>
+      <c r="BA273">
+        <v>2</v>
+      </c>
+      <c r="BB273">
+        <v>11</v>
+      </c>
+      <c r="BC273">
+        <v>13</v>
+      </c>
+      <c r="BD273">
+        <v>1.74</v>
+      </c>
+      <c r="BE273">
+        <v>9</v>
+      </c>
+      <c r="BF273">
+        <v>2.3</v>
+      </c>
+      <c r="BG273">
+        <v>1.18</v>
+      </c>
+      <c r="BH273">
+        <v>4</v>
+      </c>
+      <c r="BI273">
+        <v>1.37</v>
+      </c>
+      <c r="BJ273">
+        <v>2.85</v>
+      </c>
+      <c r="BK273">
+        <v>1.62</v>
+      </c>
+      <c r="BL273">
+        <v>2.05</v>
+      </c>
+      <c r="BM273">
+        <v>1.78</v>
+      </c>
+      <c r="BN273">
+        <v>1.86</v>
+      </c>
+      <c r="BO273">
+        <v>2.46</v>
+      </c>
+      <c r="BP273">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7450921</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45780.63541666666</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>76</v>
+      </c>
+      <c r="H274" t="s">
+        <v>79</v>
+      </c>
+      <c r="I274">
+        <v>5</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>6</v>
+      </c>
+      <c r="L274">
+        <v>8</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>9</v>
+      </c>
+      <c r="O274" t="s">
+        <v>276</v>
+      </c>
+      <c r="P274" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q274">
+        <v>1.57</v>
+      </c>
+      <c r="R274">
+        <v>2.73</v>
+      </c>
+      <c r="S274">
+        <v>6.75</v>
+      </c>
+      <c r="T274">
+        <v>1.22</v>
+      </c>
+      <c r="U274">
+        <v>4.5</v>
+      </c>
+      <c r="V274">
+        <v>2.08</v>
+      </c>
+      <c r="W274">
+        <v>1.7</v>
+      </c>
+      <c r="X274">
+        <v>4.33</v>
+      </c>
+      <c r="Y274">
+        <v>1.21</v>
+      </c>
+      <c r="Z274">
+        <v>1.28</v>
+      </c>
+      <c r="AA274">
+        <v>5.6</v>
+      </c>
+      <c r="AB274">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC274">
+        <v>1.02</v>
+      </c>
+      <c r="AD274">
+        <v>21</v>
+      </c>
+      <c r="AE274">
+        <v>1.12</v>
+      </c>
+      <c r="AF274">
+        <v>6.3</v>
+      </c>
+      <c r="AG274">
+        <v>1.52</v>
+      </c>
+      <c r="AH274">
+        <v>2.36</v>
+      </c>
+      <c r="AI274">
+        <v>1.8</v>
+      </c>
+      <c r="AJ274">
+        <v>2.05</v>
+      </c>
+      <c r="AK274">
+        <v>1.13</v>
+      </c>
+      <c r="AL274">
+        <v>1.14</v>
+      </c>
+      <c r="AM274">
+        <v>3.65</v>
+      </c>
+      <c r="AN274">
+        <v>2.6</v>
+      </c>
+      <c r="AO274">
+        <v>0.6</v>
+      </c>
+      <c r="AP274">
+        <v>2.63</v>
+      </c>
+      <c r="AQ274">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR274">
+        <v>1.97</v>
+      </c>
+      <c r="AS274">
+        <v>1.07</v>
+      </c>
+      <c r="AT274">
+        <v>3.04</v>
+      </c>
+      <c r="AU274">
+        <v>9</v>
+      </c>
+      <c r="AV274">
+        <v>9</v>
+      </c>
+      <c r="AW274">
+        <v>7</v>
+      </c>
+      <c r="AX274">
+        <v>4</v>
+      </c>
+      <c r="AY274">
+        <v>18</v>
+      </c>
+      <c r="AZ274">
+        <v>14</v>
+      </c>
+      <c r="BA274">
+        <v>3</v>
+      </c>
+      <c r="BB274">
+        <v>7</v>
+      </c>
+      <c r="BC274">
+        <v>10</v>
+      </c>
+      <c r="BD274">
+        <v>1.22</v>
+      </c>
+      <c r="BE274">
+        <v>12.25</v>
+      </c>
+      <c r="BF274">
+        <v>4.9</v>
+      </c>
+      <c r="BG274">
+        <v>1.24</v>
+      </c>
+      <c r="BH274">
+        <v>3.4</v>
+      </c>
+      <c r="BI274">
+        <v>1.43</v>
+      </c>
+      <c r="BJ274">
+        <v>2.8</v>
+      </c>
+      <c r="BK274">
+        <v>1.62</v>
+      </c>
+      <c r="BL274">
+        <v>2.15</v>
+      </c>
+      <c r="BM274">
+        <v>1.97</v>
+      </c>
+      <c r="BN274">
+        <v>1.75</v>
+      </c>
+      <c r="BO274">
+        <v>2.55</v>
+      </c>
+      <c r="BP274">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="392">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1188,6 +1188,9 @@
   <si>
     <t>['47']</t>
   </si>
+  <si>
+    <t>['49', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -1548,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.5600000000000001</v>
@@ -2094,7 +2097,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2300,7 +2303,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2915,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.27</v>
@@ -3124,7 +3127,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3742,7 +3745,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4975,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -6211,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.4</v>
@@ -6420,7 +6423,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -7035,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -7244,7 +7247,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -8683,7 +8686,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.13</v>
@@ -8892,7 +8895,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -9301,7 +9304,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -10128,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10746,7 +10749,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ45">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -11361,10 +11364,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11567,7 +11570,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>0.9399999999999999</v>
@@ -13630,7 +13633,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -14245,7 +14248,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.93</v>
@@ -14454,7 +14457,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14866,7 +14869,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ65">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -15069,7 +15072,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ66">
         <v>1.07</v>
@@ -15481,7 +15484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>0.5600000000000001</v>
@@ -16717,10 +16720,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -18986,7 +18989,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -19192,7 +19195,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19601,7 +19604,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>1.6</v>
@@ -19807,7 +19810,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89">
         <v>0.4</v>
@@ -20428,7 +20431,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -21661,7 +21664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -22691,7 +22694,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103">
         <v>1.4</v>
@@ -23927,10 +23930,10 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -24339,7 +24342,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
         <v>1.4</v>
@@ -24754,7 +24757,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ113">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -25163,7 +25166,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -25372,7 +25375,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ116">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -27635,7 +27638,7 @@
         <v>1.17</v>
       </c>
       <c r="AP127">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ127">
         <v>1.4</v>
@@ -27844,7 +27847,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -28050,7 +28053,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -28253,7 +28256,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1.13</v>
@@ -28668,7 +28671,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR132">
         <v>1.49</v>
@@ -29077,7 +29080,7 @@
         <v>2.43</v>
       </c>
       <c r="AP134">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>2.19</v>
@@ -29695,7 +29698,7 @@
         <v>0.29</v>
       </c>
       <c r="AP137">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>0.67</v>
@@ -31343,7 +31346,7 @@
         <v>0.63</v>
       </c>
       <c r="AP145">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ145">
         <v>0.9399999999999999</v>
@@ -31549,7 +31552,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ146">
         <v>1.4</v>
@@ -31964,7 +31967,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR148">
         <v>1.73</v>
@@ -32376,7 +32379,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ150">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR150">
         <v>1.43</v>
@@ -32994,7 +32997,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR153">
         <v>1.63</v>
@@ -34227,7 +34230,7 @@
         <v>2.25</v>
       </c>
       <c r="AP159">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ159">
         <v>1.8</v>
@@ -35054,7 +35057,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ163">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
         <v>1.52</v>
@@ -35672,7 +35675,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR166">
         <v>1.68</v>
@@ -35875,7 +35878,7 @@
         <v>2.33</v>
       </c>
       <c r="AP167">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ167">
         <v>2.19</v>
@@ -36493,10 +36496,10 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ170">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -37320,7 +37323,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ174">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR174">
         <v>1.83</v>
@@ -37935,7 +37938,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
         <v>1.33</v>
@@ -38965,7 +38968,7 @@
         <v>1.1</v>
       </c>
       <c r="AP182">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ182">
         <v>1.13</v>
@@ -39586,7 +39589,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ185">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR185">
         <v>1.95</v>
@@ -40407,7 +40410,7 @@
         <v>1.4</v>
       </c>
       <c r="AP189">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
         <v>1.4</v>
@@ -40616,7 +40619,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ190">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR190">
         <v>1.75</v>
@@ -40819,7 +40822,7 @@
         <v>0.4</v>
       </c>
       <c r="AP191">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ191">
         <v>0.4</v>
@@ -41028,7 +41031,7 @@
         <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -42055,7 +42058,7 @@
         <v>1.7</v>
       </c>
       <c r="AP197">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ197">
         <v>1.6</v>
@@ -44115,7 +44118,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ207">
         <v>1.13</v>
@@ -44324,7 +44327,7 @@
         <v>2</v>
       </c>
       <c r="AQ208">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR208">
         <v>1.66</v>
@@ -44939,10 +44942,10 @@
         <v>0.82</v>
       </c>
       <c r="AP211">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ211">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR211">
         <v>1.62</v>
@@ -45145,7 +45148,7 @@
         <v>2.27</v>
       </c>
       <c r="AP212">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ212">
         <v>2.19</v>
@@ -45766,7 +45769,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ215">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR215">
         <v>1.54</v>
@@ -46384,7 +46387,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ218">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR218">
         <v>1.64</v>
@@ -48029,7 +48032,7 @@
         <v>1.55</v>
       </c>
       <c r="AP226">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ226">
         <v>1.4</v>
@@ -48235,7 +48238,7 @@
         <v>0.83</v>
       </c>
       <c r="AP227">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ227">
         <v>0.93</v>
@@ -48647,7 +48650,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP229">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ229">
         <v>0.5600000000000001</v>
@@ -49268,7 +49271,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ232">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR232">
         <v>1.48</v>
@@ -49680,7 +49683,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ234">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR234">
         <v>1.63</v>
@@ -50298,7 +50301,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ237">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR237">
         <v>1.47</v>
@@ -51119,7 +51122,7 @@
         <v>1.38</v>
       </c>
       <c r="AP241">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ241">
         <v>1.27</v>
@@ -51946,7 +51949,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ245">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR245">
         <v>1.71</v>
@@ -52561,7 +52564,7 @@
         <v>0.54</v>
       </c>
       <c r="AP248">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ248">
         <v>0.67</v>
@@ -52770,7 +52773,7 @@
         <v>2</v>
       </c>
       <c r="AQ249">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR249">
         <v>1.65</v>
@@ -52973,7 +52976,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ250">
         <v>1.07</v>
@@ -53797,7 +53800,7 @@
         <v>1.14</v>
       </c>
       <c r="AP254">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ254">
         <v>1.13</v>
@@ -54624,7 +54627,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ258">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR258">
         <v>1.41</v>
@@ -54827,7 +54830,7 @@
         <v>0.86</v>
       </c>
       <c r="AP259">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ259">
         <v>0.9399999999999999</v>
@@ -55036,7 +55039,7 @@
         <v>2</v>
       </c>
       <c r="AQ260">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR260">
         <v>1.71</v>
@@ -55448,7 +55451,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ262">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR262">
         <v>1.6</v>
@@ -57996,6 +57999,624 @@
       </c>
       <c r="BP274">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7450922</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45781.30208333334</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>84</v>
+      </c>
+      <c r="H275" t="s">
+        <v>81</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275" t="s">
+        <v>95</v>
+      </c>
+      <c r="P275" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q275">
+        <v>2.92</v>
+      </c>
+      <c r="R275">
+        <v>2.05</v>
+      </c>
+      <c r="S275">
+        <v>3.95</v>
+      </c>
+      <c r="T275">
+        <v>1.52</v>
+      </c>
+      <c r="U275">
+        <v>2.59</v>
+      </c>
+      <c r="V275">
+        <v>3.32</v>
+      </c>
+      <c r="W275">
+        <v>1.34</v>
+      </c>
+      <c r="X275">
+        <v>9.5</v>
+      </c>
+      <c r="Y275">
+        <v>1.04</v>
+      </c>
+      <c r="Z275">
+        <v>2.52</v>
+      </c>
+      <c r="AA275">
+        <v>2.87</v>
+      </c>
+      <c r="AB275">
+        <v>3.13</v>
+      </c>
+      <c r="AC275">
+        <v>1.04</v>
+      </c>
+      <c r="AD275">
+        <v>7.1</v>
+      </c>
+      <c r="AE275">
+        <v>1.37</v>
+      </c>
+      <c r="AF275">
+        <v>2.67</v>
+      </c>
+      <c r="AG275">
+        <v>2.6</v>
+      </c>
+      <c r="AH275">
+        <v>1.58</v>
+      </c>
+      <c r="AI275">
+        <v>1.95</v>
+      </c>
+      <c r="AJ275">
+        <v>1.8</v>
+      </c>
+      <c r="AK275">
+        <v>1.4</v>
+      </c>
+      <c r="AL275">
+        <v>1.3</v>
+      </c>
+      <c r="AM275">
+        <v>1.5</v>
+      </c>
+      <c r="AN275">
+        <v>1.27</v>
+      </c>
+      <c r="AO275">
+        <v>1.07</v>
+      </c>
+      <c r="AP275">
+        <v>1.25</v>
+      </c>
+      <c r="AQ275">
+        <v>1.06</v>
+      </c>
+      <c r="AR275">
+        <v>1.57</v>
+      </c>
+      <c r="AS275">
+        <v>1.39</v>
+      </c>
+      <c r="AT275">
+        <v>2.96</v>
+      </c>
+      <c r="AU275">
+        <v>4</v>
+      </c>
+      <c r="AV275">
+        <v>3</v>
+      </c>
+      <c r="AW275">
+        <v>5</v>
+      </c>
+      <c r="AX275">
+        <v>4</v>
+      </c>
+      <c r="AY275">
+        <v>12</v>
+      </c>
+      <c r="AZ275">
+        <v>9</v>
+      </c>
+      <c r="BA275">
+        <v>9</v>
+      </c>
+      <c r="BB275">
+        <v>6</v>
+      </c>
+      <c r="BC275">
+        <v>15</v>
+      </c>
+      <c r="BD275">
+        <v>1.72</v>
+      </c>
+      <c r="BE275">
+        <v>6.5</v>
+      </c>
+      <c r="BF275">
+        <v>2.91</v>
+      </c>
+      <c r="BG275">
+        <v>1.25</v>
+      </c>
+      <c r="BH275">
+        <v>3.4</v>
+      </c>
+      <c r="BI275">
+        <v>1.47</v>
+      </c>
+      <c r="BJ275">
+        <v>2.54</v>
+      </c>
+      <c r="BK275">
+        <v>2</v>
+      </c>
+      <c r="BL275">
+        <v>1.91</v>
+      </c>
+      <c r="BM275">
+        <v>2.25</v>
+      </c>
+      <c r="BN275">
+        <v>1.57</v>
+      </c>
+      <c r="BO275">
+        <v>2.8</v>
+      </c>
+      <c r="BP275">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7450918</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45781.40625</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>75</v>
+      </c>
+      <c r="H276" t="s">
+        <v>80</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>95</v>
+      </c>
+      <c r="P276" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q276">
+        <v>2.81</v>
+      </c>
+      <c r="R276">
+        <v>2.2</v>
+      </c>
+      <c r="S276">
+        <v>3.09</v>
+      </c>
+      <c r="T276">
+        <v>1.3</v>
+      </c>
+      <c r="U276">
+        <v>3.1</v>
+      </c>
+      <c r="V276">
+        <v>2.44</v>
+      </c>
+      <c r="W276">
+        <v>1.54</v>
+      </c>
+      <c r="X276">
+        <v>5.45</v>
+      </c>
+      <c r="Y276">
+        <v>1.09</v>
+      </c>
+      <c r="Z276">
+        <v>2.35</v>
+      </c>
+      <c r="AA276">
+        <v>3.35</v>
+      </c>
+      <c r="AB276">
+        <v>2.8</v>
+      </c>
+      <c r="AC276">
+        <v>1.01</v>
+      </c>
+      <c r="AD276">
+        <v>11</v>
+      </c>
+      <c r="AE276">
+        <v>1.22</v>
+      </c>
+      <c r="AF276">
+        <v>4.2</v>
+      </c>
+      <c r="AG276">
+        <v>1.72</v>
+      </c>
+      <c r="AH276">
+        <v>2.19</v>
+      </c>
+      <c r="AI276">
+        <v>1.6</v>
+      </c>
+      <c r="AJ276">
+        <v>2.25</v>
+      </c>
+      <c r="AK276">
+        <v>1.3</v>
+      </c>
+      <c r="AL276">
+        <v>1.22</v>
+      </c>
+      <c r="AM276">
+        <v>1.58</v>
+      </c>
+      <c r="AN276">
+        <v>1.2</v>
+      </c>
+      <c r="AO276">
+        <v>0.67</v>
+      </c>
+      <c r="AP276">
+        <v>1.13</v>
+      </c>
+      <c r="AQ276">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR276">
+        <v>1.6</v>
+      </c>
+      <c r="AS276">
+        <v>1.33</v>
+      </c>
+      <c r="AT276">
+        <v>2.93</v>
+      </c>
+      <c r="AU276">
+        <v>3</v>
+      </c>
+      <c r="AV276">
+        <v>5</v>
+      </c>
+      <c r="AW276">
+        <v>8</v>
+      </c>
+      <c r="AX276">
+        <v>7</v>
+      </c>
+      <c r="AY276">
+        <v>13</v>
+      </c>
+      <c r="AZ276">
+        <v>13</v>
+      </c>
+      <c r="BA276">
+        <v>4</v>
+      </c>
+      <c r="BB276">
+        <v>5</v>
+      </c>
+      <c r="BC276">
+        <v>9</v>
+      </c>
+      <c r="BD276">
+        <v>1.65</v>
+      </c>
+      <c r="BE276">
+        <v>9</v>
+      </c>
+      <c r="BF276">
+        <v>2.62</v>
+      </c>
+      <c r="BG276">
+        <v>1.2</v>
+      </c>
+      <c r="BH276">
+        <v>3.4</v>
+      </c>
+      <c r="BI276">
+        <v>1.44</v>
+      </c>
+      <c r="BJ276">
+        <v>2.5</v>
+      </c>
+      <c r="BK276">
+        <v>1.67</v>
+      </c>
+      <c r="BL276">
+        <v>2.18</v>
+      </c>
+      <c r="BM276">
+        <v>2.2</v>
+      </c>
+      <c r="BN276">
+        <v>1.68</v>
+      </c>
+      <c r="BO276">
+        <v>2.75</v>
+      </c>
+      <c r="BP276">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7450919</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45781.52083333334</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>70</v>
+      </c>
+      <c r="H277" t="s">
+        <v>87</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="O277" t="s">
+        <v>250</v>
+      </c>
+      <c r="P277" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q277">
+        <v>2.11</v>
+      </c>
+      <c r="R277">
+        <v>2.33</v>
+      </c>
+      <c r="S277">
+        <v>5.19</v>
+      </c>
+      <c r="T277">
+        <v>1.28</v>
+      </c>
+      <c r="U277">
+        <v>3.3</v>
+      </c>
+      <c r="V277">
+        <v>2.3</v>
+      </c>
+      <c r="W277">
+        <v>1.55</v>
+      </c>
+      <c r="X277">
+        <v>5.1</v>
+      </c>
+      <c r="Y277">
+        <v>1.13</v>
+      </c>
+      <c r="Z277">
+        <v>1.57</v>
+      </c>
+      <c r="AA277">
+        <v>3.75</v>
+      </c>
+      <c r="AB277">
+        <v>4</v>
+      </c>
+      <c r="AC277">
+        <v>1.03</v>
+      </c>
+      <c r="AD277">
+        <v>12</v>
+      </c>
+      <c r="AE277">
+        <v>1.2</v>
+      </c>
+      <c r="AF277">
+        <v>4.55</v>
+      </c>
+      <c r="AG277">
+        <v>1.59</v>
+      </c>
+      <c r="AH277">
+        <v>2.37</v>
+      </c>
+      <c r="AI277">
+        <v>1.62</v>
+      </c>
+      <c r="AJ277">
+        <v>2.2</v>
+      </c>
+      <c r="AK277">
+        <v>1.15</v>
+      </c>
+      <c r="AL277">
+        <v>1.24</v>
+      </c>
+      <c r="AM277">
+        <v>2.2</v>
+      </c>
+      <c r="AN277">
+        <v>2.07</v>
+      </c>
+      <c r="AO277">
+        <v>1.2</v>
+      </c>
+      <c r="AP277">
+        <v>2</v>
+      </c>
+      <c r="AQ277">
+        <v>1.19</v>
+      </c>
+      <c r="AR277">
+        <v>1.74</v>
+      </c>
+      <c r="AS277">
+        <v>1.43</v>
+      </c>
+      <c r="AT277">
+        <v>3.17</v>
+      </c>
+      <c r="AU277">
+        <v>8</v>
+      </c>
+      <c r="AV277">
+        <v>6</v>
+      </c>
+      <c r="AW277">
+        <v>14</v>
+      </c>
+      <c r="AX277">
+        <v>2</v>
+      </c>
+      <c r="AY277">
+        <v>27</v>
+      </c>
+      <c r="AZ277">
+        <v>11</v>
+      </c>
+      <c r="BA277">
+        <v>5</v>
+      </c>
+      <c r="BB277">
+        <v>6</v>
+      </c>
+      <c r="BC277">
+        <v>11</v>
+      </c>
+      <c r="BD277">
+        <v>1.6</v>
+      </c>
+      <c r="BE277">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF277">
+        <v>2.62</v>
+      </c>
+      <c r="BG277">
+        <v>1.24</v>
+      </c>
+      <c r="BH277">
+        <v>3.6</v>
+      </c>
+      <c r="BI277">
+        <v>1.5</v>
+      </c>
+      <c r="BJ277">
+        <v>2.4</v>
+      </c>
+      <c r="BK277">
+        <v>1.83</v>
+      </c>
+      <c r="BL277">
+        <v>2.05</v>
+      </c>
+      <c r="BM277">
+        <v>2.1</v>
+      </c>
+      <c r="BN277">
+        <v>1.67</v>
+      </c>
+      <c r="BO277">
+        <v>2.65</v>
+      </c>
+      <c r="BP277">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1194,6 +1194,9 @@
   <si>
     <t>['49', '87']</t>
   </si>
+  <si>
+    <t>['28', '31', '59', '68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2924,7 +2927,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3333,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>2.19</v>
@@ -6629,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -6838,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -10546,7 +10549,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -11161,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>0.5600000000000001</v>
@@ -12606,7 +12609,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -14457,7 +14460,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.19</v>
@@ -16932,7 +16935,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ75">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17959,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>1.6</v>
@@ -18783,7 +18786,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -21464,7 +21467,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ97">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21876,7 +21879,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ99">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -22285,7 +22288,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -25993,7 +25996,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>1.07</v>
@@ -26408,7 +26411,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ121">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -30940,7 +30943,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ143">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR143">
         <v>1.98</v>
@@ -32997,7 +33000,7 @@
         <v>0.86</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ153">
         <v>1.06</v>
@@ -35675,7 +35678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166">
         <v>0.8100000000000001</v>
@@ -36914,7 +36917,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ172">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR172">
         <v>1.47</v>
@@ -40210,7 +40213,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ188">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR188">
         <v>1.73</v>
@@ -42473,7 +42476,7 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -43506,7 +43509,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ204">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR204">
         <v>1.84</v>
@@ -46181,7 +46184,7 @@
         <v>1.18</v>
       </c>
       <c r="AP217">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ217">
         <v>1.33</v>
@@ -47420,7 +47423,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ223">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.42</v>
@@ -49477,7 +49480,7 @@
         <v>0.42</v>
       </c>
       <c r="AP233">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ233">
         <v>0.4</v>
@@ -51128,7 +51131,7 @@
         <v>2</v>
       </c>
       <c r="AQ241">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR241">
         <v>1.75</v>
@@ -53185,7 +53188,7 @@
         <v>1.31</v>
       </c>
       <c r="AP251">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ251">
         <v>1.4</v>
@@ -56072,7 +56075,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ265">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR265">
         <v>1.67</v>
@@ -56275,7 +56278,7 @@
         <v>1.71</v>
       </c>
       <c r="AP266">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ266">
         <v>1.8</v>
@@ -58826,6 +58829,212 @@
       </c>
       <c r="BP278">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7450932</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F279">
+        <v>32</v>
+      </c>
+      <c r="G279" t="s">
+        <v>77</v>
+      </c>
+      <c r="H279" t="s">
+        <v>84</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>3</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>4</v>
+      </c>
+      <c r="N279">
+        <v>5</v>
+      </c>
+      <c r="O279" t="s">
+        <v>245</v>
+      </c>
+      <c r="P279" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q279">
+        <v>3.06</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>3.8</v>
+      </c>
+      <c r="T279">
+        <v>1.44</v>
+      </c>
+      <c r="U279">
+        <v>2.5</v>
+      </c>
+      <c r="V279">
+        <v>3</v>
+      </c>
+      <c r="W279">
+        <v>1.33</v>
+      </c>
+      <c r="X279">
+        <v>8.25</v>
+      </c>
+      <c r="Y279">
+        <v>1.06</v>
+      </c>
+      <c r="Z279">
+        <v>2.63</v>
+      </c>
+      <c r="AA279">
+        <v>2.95</v>
+      </c>
+      <c r="AB279">
+        <v>2.5</v>
+      </c>
+      <c r="AC279">
+        <v>1.07</v>
+      </c>
+      <c r="AD279">
+        <v>9.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.32</v>
+      </c>
+      <c r="AF279">
+        <v>3.1</v>
+      </c>
+      <c r="AG279">
+        <v>2.01</v>
+      </c>
+      <c r="AH279">
+        <v>1.71</v>
+      </c>
+      <c r="AI279">
+        <v>1.85</v>
+      </c>
+      <c r="AJ279">
+        <v>1.83</v>
+      </c>
+      <c r="AK279">
+        <v>1.36</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>1.53</v>
+      </c>
+      <c r="AN279">
+        <v>1.47</v>
+      </c>
+      <c r="AO279">
+        <v>1.27</v>
+      </c>
+      <c r="AP279">
+        <v>1.38</v>
+      </c>
+      <c r="AQ279">
+        <v>1.38</v>
+      </c>
+      <c r="AR279">
+        <v>1.62</v>
+      </c>
+      <c r="AS279">
+        <v>1.42</v>
+      </c>
+      <c r="AT279">
+        <v>3.04</v>
+      </c>
+      <c r="AU279">
+        <v>3</v>
+      </c>
+      <c r="AV279">
+        <v>8</v>
+      </c>
+      <c r="AW279">
+        <v>5</v>
+      </c>
+      <c r="AX279">
+        <v>8</v>
+      </c>
+      <c r="AY279">
+        <v>10</v>
+      </c>
+      <c r="AZ279">
+        <v>21</v>
+      </c>
+      <c r="BA279">
+        <v>10</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>14</v>
+      </c>
+      <c r="BD279">
+        <v>1.79</v>
+      </c>
+      <c r="BE279">
+        <v>6.75</v>
+      </c>
+      <c r="BF279">
+        <v>2.7</v>
+      </c>
+      <c r="BG279">
+        <v>1.25</v>
+      </c>
+      <c r="BH279">
+        <v>3.28</v>
+      </c>
+      <c r="BI279">
+        <v>1.48</v>
+      </c>
+      <c r="BJ279">
+        <v>2.4</v>
+      </c>
+      <c r="BK279">
+        <v>1.73</v>
+      </c>
+      <c r="BL279">
+        <v>2</v>
+      </c>
+      <c r="BM279">
+        <v>2.38</v>
+      </c>
+      <c r="BN279">
+        <v>1.55</v>
+      </c>
+      <c r="BO279">
+        <v>3.2</v>
+      </c>
+      <c r="BP279">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="395">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -850,6 +850,9 @@
     <t>['45+1', '90+4']</t>
   </si>
   <si>
+    <t>['15', '77']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1557,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2228,7 +2231,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2846,7 +2849,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3258,7 +3261,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3670,7 +3673,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3876,7 +3879,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4082,7 +4085,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4288,7 +4291,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4494,7 +4497,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4700,7 +4703,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4987,7 +4990,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5808,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21">
         <v>1.07</v>
@@ -5936,7 +5939,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6554,7 +6557,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6760,7 +6763,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6966,7 +6969,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7172,7 +7175,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7584,7 +7587,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7996,7 +7999,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8202,7 +8205,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8489,7 +8492,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8614,7 +8617,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9232,7 +9235,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9438,7 +9441,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10056,7 +10059,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10340,7 +10343,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ43">
         <v>2.19</v>
@@ -10674,7 +10677,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10880,7 +10883,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11292,7 +11295,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11704,7 +11707,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12528,7 +12531,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12734,7 +12737,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13558,7 +13561,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13636,7 +13639,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59">
         <v>0.8100000000000001</v>
@@ -13764,7 +13767,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13970,7 +13973,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14051,7 +14054,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14588,7 +14591,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15000,7 +15003,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16442,7 +16445,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16648,7 +16651,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17138,7 +17141,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ76">
         <v>1.06</v>
@@ -17759,7 +17762,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17884,7 +17887,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18789,7 +18792,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -19326,7 +19329,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19532,7 +19535,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19738,7 +19741,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19944,7 +19947,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20150,7 +20153,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20562,7 +20565,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20768,7 +20771,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20846,7 +20849,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ94">
         <v>0.9399999999999999</v>
@@ -20974,7 +20977,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21180,7 +21183,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21798,7 +21801,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22004,7 +22007,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22210,7 +22213,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22416,7 +22419,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22622,7 +22625,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22909,7 +22912,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -23034,7 +23037,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23112,7 +23115,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ105">
         <v>0.4</v>
@@ -23858,7 +23861,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24270,7 +24273,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24888,7 +24891,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25300,7 +25303,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25506,7 +25509,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25918,7 +25921,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26536,7 +26539,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26614,7 +26617,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ122">
         <v>1.6</v>
@@ -26742,7 +26745,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27154,7 +27157,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27441,7 +27444,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR126">
         <v>1.67</v>
@@ -27566,7 +27569,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28184,7 +28187,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28596,7 +28599,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29008,7 +29011,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29214,7 +29217,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29420,7 +29423,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29626,7 +29629,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29707,7 +29710,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR137">
         <v>1.82</v>
@@ -29832,7 +29835,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30244,7 +30247,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30450,7 +30453,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30940,7 +30943,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ143">
         <v>1.38</v>
@@ -32098,7 +32101,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32304,7 +32307,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32716,7 +32719,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33412,7 +33415,7 @@
         <v>1.75</v>
       </c>
       <c r="AP155">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ155">
         <v>1.4</v>
@@ -33621,7 +33624,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ156">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR156">
         <v>1.39</v>
@@ -33952,7 +33955,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34364,7 +34367,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34570,7 +34573,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34982,7 +34985,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35394,7 +35397,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36296,7 +36299,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP169">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ169">
         <v>0.5600000000000001</v>
@@ -36836,7 +36839,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37535,7 +37538,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ175">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR175">
         <v>1.56</v>
@@ -37660,7 +37663,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38278,7 +38281,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38690,7 +38693,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38896,7 +38899,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39514,7 +39517,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39592,7 +39595,7 @@
         <v>0.9</v>
       </c>
       <c r="AP185">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185">
         <v>1.06</v>
@@ -39926,7 +39929,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40544,7 +40547,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40750,7 +40753,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41243,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ193">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR193">
         <v>1.41</v>
@@ -41368,7 +41371,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41780,7 +41783,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41986,7 +41989,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42398,7 +42401,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42888,7 +42891,7 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ201">
         <v>1.8</v>
@@ -43222,7 +43225,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43634,7 +43637,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43921,7 +43924,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -44458,7 +44461,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44870,7 +44873,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45076,7 +45079,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45694,7 +45697,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46518,7 +46521,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46724,7 +46727,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46805,7 +46808,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR220">
         <v>1.63</v>
@@ -47008,7 +47011,7 @@
         <v>1.42</v>
       </c>
       <c r="AP221">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ221">
         <v>1.4</v>
@@ -47754,7 +47757,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47960,7 +47963,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48166,7 +48169,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48578,7 +48581,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49196,7 +49199,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49402,7 +49405,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49608,7 +49611,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49814,7 +49817,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50432,7 +50435,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50638,7 +50641,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51256,7 +51259,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51334,7 +51337,7 @@
         <v>1.08</v>
       </c>
       <c r="AP242">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ242">
         <v>1.33</v>
@@ -51668,7 +51671,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -52492,7 +52495,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52573,7 +52576,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ248">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR248">
         <v>1.6</v>
@@ -52698,7 +52701,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53110,7 +53113,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53522,7 +53525,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53934,7 +53937,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54140,7 +54143,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54552,7 +54555,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54758,7 +54761,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54964,7 +54967,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55582,7 +55585,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -55869,7 +55872,7 @@
         <v>2</v>
       </c>
       <c r="AQ264">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR264">
         <v>1.7</v>
@@ -56406,7 +56409,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56896,7 +56899,7 @@
         <v>0.93</v>
       </c>
       <c r="AP269">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ269">
         <v>0.93</v>
@@ -57024,7 +57027,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57230,7 +57233,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57436,7 +57439,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57642,7 +57645,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58260,7 +58263,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58466,7 +58469,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58878,7 +58881,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59035,6 +59038,212 @@
       </c>
       <c r="BP279">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7450928</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45786.64583333334</v>
+      </c>
+      <c r="F280">
+        <v>32</v>
+      </c>
+      <c r="G280" t="s">
+        <v>87</v>
+      </c>
+      <c r="H280" t="s">
+        <v>71</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="O280" t="s">
+        <v>278</v>
+      </c>
+      <c r="P280" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q280">
+        <v>2.93</v>
+      </c>
+      <c r="R280">
+        <v>2.3</v>
+      </c>
+      <c r="S280">
+        <v>3.1</v>
+      </c>
+      <c r="T280">
+        <v>1.33</v>
+      </c>
+      <c r="U280">
+        <v>3.27</v>
+      </c>
+      <c r="V280">
+        <v>2.35</v>
+      </c>
+      <c r="W280">
+        <v>1.52</v>
+      </c>
+      <c r="X280">
+        <v>5.05</v>
+      </c>
+      <c r="Y280">
+        <v>1.14</v>
+      </c>
+      <c r="Z280">
+        <v>2.14</v>
+      </c>
+      <c r="AA280">
+        <v>3.09</v>
+      </c>
+      <c r="AB280">
+        <v>3.05</v>
+      </c>
+      <c r="AC280">
+        <v>1.02</v>
+      </c>
+      <c r="AD280">
+        <v>15.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.15</v>
+      </c>
+      <c r="AF280">
+        <v>4.5</v>
+      </c>
+      <c r="AG280">
+        <v>1.73</v>
+      </c>
+      <c r="AH280">
+        <v>1.95</v>
+      </c>
+      <c r="AI280">
+        <v>1.52</v>
+      </c>
+      <c r="AJ280">
+        <v>2.58</v>
+      </c>
+      <c r="AK280">
+        <v>1.24</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>1.51</v>
+      </c>
+      <c r="AN280">
+        <v>1.6</v>
+      </c>
+      <c r="AO280">
+        <v>0.67</v>
+      </c>
+      <c r="AP280">
+        <v>1.69</v>
+      </c>
+      <c r="AQ280">
+        <v>0.63</v>
+      </c>
+      <c r="AR280">
+        <v>1.94</v>
+      </c>
+      <c r="AS280">
+        <v>1.52</v>
+      </c>
+      <c r="AT280">
+        <v>3.46</v>
+      </c>
+      <c r="AU280">
+        <v>11</v>
+      </c>
+      <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>10</v>
+      </c>
+      <c r="AX280">
+        <v>7</v>
+      </c>
+      <c r="AY280">
+        <v>26</v>
+      </c>
+      <c r="AZ280">
+        <v>15</v>
+      </c>
+      <c r="BA280">
+        <v>13</v>
+      </c>
+      <c r="BB280">
+        <v>2</v>
+      </c>
+      <c r="BC280">
+        <v>15</v>
+      </c>
+      <c r="BD280">
+        <v>1.62</v>
+      </c>
+      <c r="BE280">
+        <v>6.75</v>
+      </c>
+      <c r="BF280">
+        <v>2.81</v>
+      </c>
+      <c r="BG280">
+        <v>1.18</v>
+      </c>
+      <c r="BH280">
+        <v>3.8</v>
+      </c>
+      <c r="BI280">
+        <v>1.33</v>
+      </c>
+      <c r="BJ280">
+        <v>3</v>
+      </c>
+      <c r="BK280">
+        <v>1.6</v>
+      </c>
+      <c r="BL280">
+        <v>2.14</v>
+      </c>
+      <c r="BM280">
+        <v>2.02</v>
+      </c>
+      <c r="BN280">
+        <v>1.71</v>
+      </c>
+      <c r="BO280">
+        <v>2.6</v>
+      </c>
+      <c r="BP280">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,15 @@
     <t>['15', '77']</t>
   </si>
   <si>
+    <t>['2', '90+3']</t>
+  </si>
+  <si>
+    <t>['27', '43']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1156,9 +1165,6 @@
     <t>['58', '67']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['28', '49', '58', '90+3']</t>
   </si>
   <si>
@@ -1199,6 +1205,9 @@
   </si>
   <si>
     <t>['28', '31', '59', '68']</t>
+  </si>
+  <si>
+    <t>['45+4', '83']</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2231,7 +2240,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2849,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3261,7 +3270,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3548,7 +3557,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3673,7 +3682,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3879,7 +3888,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4085,7 +4094,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4291,7 +4300,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4369,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4497,7 +4506,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4703,7 +4712,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4781,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ16">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5399,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ19">
         <v>1.8</v>
@@ -5605,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ20">
         <v>0.5600000000000001</v>
@@ -5814,7 +5823,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5939,7 +5948,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6557,7 +6566,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6763,7 +6772,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6969,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7050,7 +7059,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -7175,7 +7184,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7253,7 +7262,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28">
         <v>1.19</v>
@@ -7459,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>1.4</v>
@@ -7587,7 +7596,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7999,7 +8008,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8205,7 +8214,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8617,7 +8626,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9235,7 +9244,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9441,7 +9450,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9519,7 +9528,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -9728,7 +9737,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ40">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -10059,7 +10068,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10677,7 +10686,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10883,7 +10892,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11295,7 +11304,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11707,7 +11716,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11788,7 +11797,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11994,7 +12003,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ51">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -12531,7 +12540,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12609,7 +12618,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ54">
         <v>1.38</v>
@@ -12737,7 +12746,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13227,7 +13236,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ57">
         <v>1.06</v>
@@ -13433,7 +13442,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -13561,7 +13570,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13767,7 +13776,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13973,7 +13982,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14260,7 +14269,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR62">
         <v>1.9</v>
@@ -14591,7 +14600,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14672,7 +14681,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -15003,7 +15012,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15084,7 +15093,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -15290,7 +15299,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ67">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -16111,7 +16120,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16445,7 +16454,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16651,7 +16660,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17553,7 +17562,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -17887,7 +17896,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17968,7 +17977,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -18174,7 +18183,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -18380,7 +18389,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18583,7 +18592,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ83">
         <v>0.5600000000000001</v>
@@ -19201,7 +19210,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19329,7 +19338,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19535,7 +19544,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19616,7 +19625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19741,7 +19750,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19947,7 +19956,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20153,7 +20162,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20565,7 +20574,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20643,7 +20652,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>2.19</v>
@@ -20771,7 +20780,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20977,7 +20986,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21183,7 +21192,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21801,7 +21810,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22007,7 +22016,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22213,7 +22222,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22294,7 +22303,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22419,7 +22428,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22497,10 +22506,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ102">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR102">
         <v>1.67</v>
@@ -22625,7 +22634,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23037,7 +23046,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23321,10 +23330,10 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -23527,7 +23536,7 @@
         <v>0.4</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107">
         <v>0.5600000000000001</v>
@@ -23861,7 +23870,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24273,7 +24282,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24891,7 +24900,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25303,7 +25312,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25509,7 +25518,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25793,7 +25802,7 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
         <v>0.4</v>
@@ -25921,7 +25930,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26002,7 +26011,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.67</v>
@@ -26411,7 +26420,7 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>1.38</v>
@@ -26539,7 +26548,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26620,7 +26629,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ122">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR122">
         <v>2.04</v>
@@ -26745,7 +26754,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27032,7 +27041,7 @@
         <v>2</v>
       </c>
       <c r="AQ124">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR124">
         <v>1.68</v>
@@ -27157,7 +27166,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27441,7 +27450,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ126">
         <v>0.63</v>
@@ -27569,7 +27578,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28187,7 +28196,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28599,7 +28608,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29011,7 +29020,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29217,7 +29226,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29423,7 +29432,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29501,7 +29510,7 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ136">
         <v>1.4</v>
@@ -29629,7 +29638,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29835,7 +29844,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29916,7 +29925,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ138">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.26</v>
@@ -30247,7 +30256,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30453,7 +30462,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30531,7 +30540,7 @@
         <v>0.14</v>
       </c>
       <c r="AP141">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ141">
         <v>0.4</v>
@@ -30737,7 +30746,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -31152,7 +31161,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ144">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -32101,7 +32110,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32307,7 +32316,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32594,7 +32603,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ151">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR151">
         <v>1.81</v>
@@ -32719,7 +32728,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33209,7 +33218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33955,7 +33964,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34033,7 +34042,7 @@
         <v>1.63</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
         <v>1.4</v>
@@ -34367,7 +34376,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34448,7 +34457,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ160">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR160">
         <v>1.51</v>
@@ -34573,7 +34582,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34651,7 +34660,7 @@
         <v>1.25</v>
       </c>
       <c r="AP161">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ161">
         <v>1.33</v>
@@ -34860,7 +34869,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ162">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.43</v>
@@ -34985,7 +34994,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35397,7 +35406,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35478,7 +35487,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ165">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR165">
         <v>2.02</v>
@@ -36839,7 +36848,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37126,7 +37135,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ173">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR173">
         <v>1.71</v>
@@ -37535,7 +37544,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ175">
         <v>0.63</v>
@@ -37663,7 +37672,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -37741,7 +37750,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ176">
         <v>1.06</v>
@@ -38281,7 +38290,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38693,7 +38702,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38899,7 +38908,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39392,7 +39401,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ184">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR184">
         <v>1.49</v>
@@ -39517,7 +39526,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39929,7 +39938,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40010,7 +40019,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ187">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40547,7 +40556,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40625,7 +40634,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ190">
         <v>0.8100000000000001</v>
@@ -40753,7 +40762,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41037,7 +41046,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ192">
         <v>1.19</v>
@@ -41371,7 +41380,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41452,7 +41461,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ194">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR194">
         <v>1.4</v>
@@ -41655,7 +41664,7 @@
         <v>1.3</v>
       </c>
       <c r="AP195">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ195">
         <v>1.33</v>
@@ -41783,7 +41792,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41989,7 +41998,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42070,7 +42079,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ197">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR197">
         <v>1.68</v>
@@ -42401,7 +42410,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42685,10 +42694,10 @@
         <v>0.82</v>
       </c>
       <c r="AP200">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ200">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR200">
         <v>1.6</v>
@@ -43225,7 +43234,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43509,7 +43518,7 @@
         <v>1.36</v>
       </c>
       <c r="AP204">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ204">
         <v>1.38</v>
@@ -43637,7 +43646,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44333,7 +44342,7 @@
         <v>0.91</v>
       </c>
       <c r="AP208">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ208">
         <v>0.8100000000000001</v>
@@ -44461,7 +44470,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44748,7 +44757,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.54</v>
@@ -44873,7 +44882,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45079,7 +45088,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45697,7 +45706,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45984,7 +45993,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ216">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -46393,7 +46402,7 @@
         <v>0.83</v>
       </c>
       <c r="AP218">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ218">
         <v>0.8100000000000001</v>
@@ -46521,7 +46530,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46727,7 +46736,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47629,7 +47638,7 @@
         <v>1.25</v>
       </c>
       <c r="AP224">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ224">
         <v>1.13</v>
@@ -47757,7 +47766,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47835,7 +47844,7 @@
         <v>1.17</v>
       </c>
       <c r="AP225">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ225">
         <v>1.33</v>
@@ -47963,7 +47972,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48169,7 +48178,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48250,7 +48259,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR227">
         <v>1.59</v>
@@ -48456,7 +48465,7 @@
         <v>2</v>
       </c>
       <c r="AQ228">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR228">
         <v>1.7</v>
@@ -48581,7 +48590,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48868,7 +48877,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ230">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR230">
         <v>1.6</v>
@@ -49199,7 +49208,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49405,7 +49414,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49611,7 +49620,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49817,7 +49826,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -49895,7 +49904,7 @@
         <v>2.33</v>
       </c>
       <c r="AP235">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ235">
         <v>2.19</v>
@@ -50435,7 +50444,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50513,7 +50522,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP238">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ238">
         <v>0.9399999999999999</v>
@@ -50641,7 +50650,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51259,7 +51268,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51671,7 +51680,7 @@
         <v>212</v>
       </c>
       <c r="P244" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="Q244">
         <v>5.5</v>
@@ -51955,7 +51964,7 @@
         <v>1.31</v>
       </c>
       <c r="AP245">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ245">
         <v>1.19</v>
@@ -52164,7 +52173,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ246">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR246">
         <v>1.49</v>
@@ -52495,7 +52504,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52701,7 +52710,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -52779,7 +52788,7 @@
         <v>1.15</v>
       </c>
       <c r="AP249">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
@@ -52988,7 +52997,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ250">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR250">
         <v>1.61</v>
@@ -53113,7 +53122,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53400,7 +53409,7 @@
         <v>2</v>
       </c>
       <c r="AQ252">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR252">
         <v>1.69</v>
@@ -53525,7 +53534,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53937,7 +53946,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54143,7 +54152,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54555,7 +54564,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54761,7 +54770,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54967,7 +54976,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55585,7 +55594,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -55666,7 +55675,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ263">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR263">
         <v>1.39</v>
@@ -55869,7 +55878,7 @@
         <v>0.71</v>
       </c>
       <c r="AP264">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ264">
         <v>0.63</v>
@@ -56409,7 +56418,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56696,7 +56705,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ268">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR268">
         <v>1.5</v>
@@ -56902,7 +56911,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ269">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR269">
         <v>2</v>
@@ -57027,7 +57036,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57105,7 +57114,7 @@
         <v>1.43</v>
       </c>
       <c r="AP270">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ270">
         <v>1.4</v>
@@ -57233,7 +57242,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57311,7 +57320,7 @@
         <v>0.36</v>
       </c>
       <c r="AP271">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ271">
         <v>0.4</v>
@@ -57439,7 +57448,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57645,7 +57654,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58263,7 +58272,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58469,7 +58478,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58881,7 +58890,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59244,6 +59253,624 @@
       </c>
       <c r="BP280">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7450934</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45787.40625</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>81</v>
+      </c>
+      <c r="H281" t="s">
+        <v>73</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>279</v>
+      </c>
+      <c r="P281" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q281">
+        <v>3.5</v>
+      </c>
+      <c r="R281">
+        <v>2.17</v>
+      </c>
+      <c r="S281">
+        <v>2.83</v>
+      </c>
+      <c r="T281">
+        <v>1.33</v>
+      </c>
+      <c r="U281">
+        <v>3</v>
+      </c>
+      <c r="V281">
+        <v>2.5</v>
+      </c>
+      <c r="W281">
+        <v>1.45</v>
+      </c>
+      <c r="X281">
+        <v>5.75</v>
+      </c>
+      <c r="Y281">
+        <v>1.07</v>
+      </c>
+      <c r="Z281">
+        <v>2.99</v>
+      </c>
+      <c r="AA281">
+        <v>3.3</v>
+      </c>
+      <c r="AB281">
+        <v>2.2</v>
+      </c>
+      <c r="AC281">
+        <v>1.05</v>
+      </c>
+      <c r="AD281">
+        <v>11</v>
+      </c>
+      <c r="AE281">
+        <v>1.2</v>
+      </c>
+      <c r="AF281">
+        <v>3.8</v>
+      </c>
+      <c r="AG281">
+        <v>1.8</v>
+      </c>
+      <c r="AH281">
+        <v>1.95</v>
+      </c>
+      <c r="AI281">
+        <v>1.65</v>
+      </c>
+      <c r="AJ281">
+        <v>2.15</v>
+      </c>
+      <c r="AK281">
+        <v>1.54</v>
+      </c>
+      <c r="AL281">
+        <v>0</v>
+      </c>
+      <c r="AM281">
+        <v>1.34</v>
+      </c>
+      <c r="AN281">
+        <v>1.33</v>
+      </c>
+      <c r="AO281">
+        <v>1.07</v>
+      </c>
+      <c r="AP281">
+        <v>1.44</v>
+      </c>
+      <c r="AQ281">
+        <v>1</v>
+      </c>
+      <c r="AR281">
+        <v>1.67</v>
+      </c>
+      <c r="AS281">
+        <v>1.52</v>
+      </c>
+      <c r="AT281">
+        <v>3.19</v>
+      </c>
+      <c r="AU281">
+        <v>6</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>6</v>
+      </c>
+      <c r="AX281">
+        <v>9</v>
+      </c>
+      <c r="AY281">
+        <v>15</v>
+      </c>
+      <c r="AZ281">
+        <v>17</v>
+      </c>
+      <c r="BA281">
+        <v>5</v>
+      </c>
+      <c r="BB281">
+        <v>10</v>
+      </c>
+      <c r="BC281">
+        <v>15</v>
+      </c>
+      <c r="BD281">
+        <v>2.1</v>
+      </c>
+      <c r="BE281">
+        <v>7.9</v>
+      </c>
+      <c r="BF281">
+        <v>1.88</v>
+      </c>
+      <c r="BG281">
+        <v>1.18</v>
+      </c>
+      <c r="BH281">
+        <v>3.8</v>
+      </c>
+      <c r="BI281">
+        <v>1.36</v>
+      </c>
+      <c r="BJ281">
+        <v>2.75</v>
+      </c>
+      <c r="BK281">
+        <v>1.6</v>
+      </c>
+      <c r="BL281">
+        <v>2.12</v>
+      </c>
+      <c r="BM281">
+        <v>1.94</v>
+      </c>
+      <c r="BN281">
+        <v>1.8</v>
+      </c>
+      <c r="BO281">
+        <v>2.45</v>
+      </c>
+      <c r="BP281">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7450929</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45787.52083333334</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>83</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282">
+        <v>2</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>3</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>280</v>
+      </c>
+      <c r="P282" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q282">
+        <v>2.75</v>
+      </c>
+      <c r="R282">
+        <v>2.06</v>
+      </c>
+      <c r="S282">
+        <v>3.55</v>
+      </c>
+      <c r="T282">
+        <v>1.38</v>
+      </c>
+      <c r="U282">
+        <v>2.85</v>
+      </c>
+      <c r="V282">
+        <v>2.5</v>
+      </c>
+      <c r="W282">
+        <v>1.4</v>
+      </c>
+      <c r="X282">
+        <v>6.2</v>
+      </c>
+      <c r="Y282">
+        <v>1.08</v>
+      </c>
+      <c r="Z282">
+        <v>2.1</v>
+      </c>
+      <c r="AA282">
+        <v>3.42</v>
+      </c>
+      <c r="AB282">
+        <v>3.4</v>
+      </c>
+      <c r="AC282">
+        <v>1.03</v>
+      </c>
+      <c r="AD282">
+        <v>10</v>
+      </c>
+      <c r="AE282">
+        <v>1.23</v>
+      </c>
+      <c r="AF282">
+        <v>3.6</v>
+      </c>
+      <c r="AG282">
+        <v>1.75</v>
+      </c>
+      <c r="AH282">
+        <v>1.95</v>
+      </c>
+      <c r="AI282">
+        <v>1.65</v>
+      </c>
+      <c r="AJ282">
+        <v>2.1</v>
+      </c>
+      <c r="AK282">
+        <v>1.25</v>
+      </c>
+      <c r="AL282">
+        <v>0</v>
+      </c>
+      <c r="AM282">
+        <v>1.62</v>
+      </c>
+      <c r="AN282">
+        <v>1.2</v>
+      </c>
+      <c r="AO282">
+        <v>0.93</v>
+      </c>
+      <c r="AP282">
+        <v>1.31</v>
+      </c>
+      <c r="AQ282">
+        <v>0.88</v>
+      </c>
+      <c r="AR282">
+        <v>1.72</v>
+      </c>
+      <c r="AS282">
+        <v>1.36</v>
+      </c>
+      <c r="AT282">
+        <v>3.08</v>
+      </c>
+      <c r="AU282">
+        <v>5</v>
+      </c>
+      <c r="AV282">
+        <v>4</v>
+      </c>
+      <c r="AW282">
+        <v>7</v>
+      </c>
+      <c r="AX282">
+        <v>11</v>
+      </c>
+      <c r="AY282">
+        <v>16</v>
+      </c>
+      <c r="AZ282">
+        <v>20</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>5</v>
+      </c>
+      <c r="BC282">
+        <v>9</v>
+      </c>
+      <c r="BD282">
+        <v>1.74</v>
+      </c>
+      <c r="BE282">
+        <v>9</v>
+      </c>
+      <c r="BF282">
+        <v>2.28</v>
+      </c>
+      <c r="BG282">
+        <v>1.2</v>
+      </c>
+      <c r="BH282">
+        <v>4</v>
+      </c>
+      <c r="BI282">
+        <v>1.43</v>
+      </c>
+      <c r="BJ282">
+        <v>3</v>
+      </c>
+      <c r="BK282">
+        <v>1.57</v>
+      </c>
+      <c r="BL282">
+        <v>1.95</v>
+      </c>
+      <c r="BM282">
+        <v>2.12</v>
+      </c>
+      <c r="BN282">
+        <v>1.6</v>
+      </c>
+      <c r="BO282">
+        <v>2.38</v>
+      </c>
+      <c r="BP282">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7450935</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45787.63541666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>86</v>
+      </c>
+      <c r="H283" t="s">
+        <v>70</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>281</v>
+      </c>
+      <c r="P283" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q283">
+        <v>2.33</v>
+      </c>
+      <c r="R283">
+        <v>2.3</v>
+      </c>
+      <c r="S283">
+        <v>4.25</v>
+      </c>
+      <c r="T283">
+        <v>1.35</v>
+      </c>
+      <c r="U283">
+        <v>2.9</v>
+      </c>
+      <c r="V283">
+        <v>2.73</v>
+      </c>
+      <c r="W283">
+        <v>1.42</v>
+      </c>
+      <c r="X283">
+        <v>5.8</v>
+      </c>
+      <c r="Y283">
+        <v>1.09</v>
+      </c>
+      <c r="Z283">
+        <v>1.76</v>
+      </c>
+      <c r="AA283">
+        <v>3.26</v>
+      </c>
+      <c r="AB283">
+        <v>4.1</v>
+      </c>
+      <c r="AC283">
+        <v>1</v>
+      </c>
+      <c r="AD283">
+        <v>12</v>
+      </c>
+      <c r="AE283">
+        <v>1.26</v>
+      </c>
+      <c r="AF283">
+        <v>3.5</v>
+      </c>
+      <c r="AG283">
+        <v>1.95</v>
+      </c>
+      <c r="AH283">
+        <v>1.75</v>
+      </c>
+      <c r="AI283">
+        <v>1.73</v>
+      </c>
+      <c r="AJ283">
+        <v>1.94</v>
+      </c>
+      <c r="AK283">
+        <v>1.19</v>
+      </c>
+      <c r="AL283">
+        <v>0</v>
+      </c>
+      <c r="AM283">
+        <v>2</v>
+      </c>
+      <c r="AN283">
+        <v>2</v>
+      </c>
+      <c r="AO283">
+        <v>1.6</v>
+      </c>
+      <c r="AP283">
+        <v>1.88</v>
+      </c>
+      <c r="AQ283">
+        <v>1.69</v>
+      </c>
+      <c r="AR283">
+        <v>1.71</v>
+      </c>
+      <c r="AS283">
+        <v>1.31</v>
+      </c>
+      <c r="AT283">
+        <v>3.02</v>
+      </c>
+      <c r="AU283">
+        <v>4</v>
+      </c>
+      <c r="AV283">
+        <v>6</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>6</v>
+      </c>
+      <c r="AY283">
+        <v>11</v>
+      </c>
+      <c r="AZ283">
+        <v>12</v>
+      </c>
+      <c r="BA283">
+        <v>6</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>1.55</v>
+      </c>
+      <c r="BE283">
+        <v>6.5</v>
+      </c>
+      <c r="BF283">
+        <v>2.75</v>
+      </c>
+      <c r="BG283">
+        <v>1.27</v>
+      </c>
+      <c r="BH283">
+        <v>3.2</v>
+      </c>
+      <c r="BI283">
+        <v>1.47</v>
+      </c>
+      <c r="BJ283">
+        <v>2.59</v>
+      </c>
+      <c r="BK283">
+        <v>1.88</v>
+      </c>
+      <c r="BL283">
+        <v>1.76</v>
+      </c>
+      <c r="BM283">
+        <v>2.35</v>
+      </c>
+      <c r="BN283">
+        <v>1.48</v>
+      </c>
+      <c r="BO283">
+        <v>3</v>
+      </c>
+      <c r="BP283">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -862,6 +862,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['18', '45+4', '90']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1208,6 +1211,9 @@
   </si>
   <si>
     <t>['45+4', '83']</t>
+  </si>
+  <si>
+    <t>['50', '60']</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2240,7 +2246,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2527,7 +2533,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2858,7 +2864,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3270,7 +3276,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3682,7 +3688,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3888,7 +3894,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3966,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -4094,7 +4100,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4300,7 +4306,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4506,7 +4512,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4712,7 +4718,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5948,7 +5954,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6566,7 +6572,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6647,7 +6653,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6772,7 +6778,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6978,7 +6984,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7184,7 +7190,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7596,7 +7602,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -8008,7 +8014,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8086,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8214,7 +8220,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8626,7 +8632,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9244,7 +9250,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9450,7 +9456,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9943,7 +9949,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -10068,7 +10074,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10686,7 +10692,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10892,7 +10898,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10970,7 +10976,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46">
         <v>2.19</v>
@@ -11304,7 +11310,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11716,7 +11722,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12540,7 +12546,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12746,7 +12752,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13033,7 +13039,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -13570,7 +13576,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13776,7 +13782,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13982,7 +13988,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14600,7 +14606,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14884,7 +14890,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>1.06</v>
@@ -15012,7 +15018,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16123,7 +16129,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16454,7 +16460,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16660,7 +16666,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17896,7 +17902,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18386,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ82">
         <v>0.88</v>
@@ -19338,7 +19344,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19544,7 +19550,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19750,7 +19756,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19956,7 +19962,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20162,7 +20168,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20243,7 +20249,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -20574,7 +20580,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20780,7 +20786,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20986,7 +20992,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21192,7 +21198,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21810,7 +21816,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22016,7 +22022,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22094,7 +22100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -22222,7 +22228,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22428,7 +22434,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22634,7 +22640,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23046,7 +23052,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23870,7 +23876,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24282,7 +24288,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24900,7 +24906,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25187,7 +25193,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>1.74</v>
@@ -25312,7 +25318,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25518,7 +25524,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25930,7 +25936,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26548,7 +26554,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26754,7 +26760,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26832,7 +26838,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123">
         <v>1.8</v>
@@ -27166,7 +27172,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27247,7 +27253,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
@@ -27578,7 +27584,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28196,7 +28202,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28608,7 +28614,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29020,7 +29026,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29226,7 +29232,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29432,7 +29438,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29638,7 +29644,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29844,7 +29850,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29922,7 +29928,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -30256,7 +30262,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30462,7 +30468,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30749,7 +30755,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>1.61</v>
@@ -32110,7 +32116,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32316,7 +32322,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32728,7 +32734,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33630,7 +33636,7 @@
         <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156">
         <v>0.63</v>
@@ -33964,7 +33970,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34376,7 +34382,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34582,7 +34588,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34994,7 +35000,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35406,7 +35412,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36723,7 +36729,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36848,7 +36854,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37672,7 +37678,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38290,7 +38296,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38574,7 +38580,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180">
         <v>1.4</v>
@@ -38702,7 +38708,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38908,7 +38914,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -38989,7 +38995,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ182">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR182">
         <v>1.68</v>
@@ -39526,7 +39532,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39938,7 +39944,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40556,7 +40562,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40762,7 +40768,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41380,7 +41386,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41792,7 +41798,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41870,7 +41876,7 @@
         <v>0.55</v>
       </c>
       <c r="AP196">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ196">
         <v>0.5600000000000001</v>
@@ -41998,7 +42004,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42410,7 +42416,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43109,7 +43115,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ202">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
         <v>1.62</v>
@@ -43234,7 +43240,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43646,7 +43652,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44470,7 +44476,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44882,7 +44888,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45088,7 +45094,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45706,7 +45712,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45784,7 +45790,7 @@
         <v>1.27</v>
       </c>
       <c r="AP215">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ215">
         <v>1.19</v>
@@ -46530,7 +46536,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46736,7 +46742,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47641,7 +47647,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ224">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
         <v>1.84</v>
@@ -47766,7 +47772,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47972,7 +47978,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48178,7 +48184,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48590,7 +48596,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48874,7 +48880,7 @@
         <v>1.75</v>
       </c>
       <c r="AP230">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ230">
         <v>1.69</v>
@@ -49208,7 +49214,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49414,7 +49420,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49620,7 +49626,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49826,7 +49832,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50444,7 +50450,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50650,7 +50656,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -50937,7 +50943,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ240">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR240">
         <v>2</v>
@@ -51268,7 +51274,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52504,7 +52510,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52710,7 +52716,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53122,7 +53128,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53534,7 +53540,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53612,7 +53618,7 @@
         <v>0.38</v>
       </c>
       <c r="AP253">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ253">
         <v>0.4</v>
@@ -53821,7 +53827,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ254">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR254">
         <v>1.59</v>
@@ -53946,7 +53952,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54152,7 +54158,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54564,7 +54570,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54770,7 +54776,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54976,7 +54982,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55594,7 +55600,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56084,7 +56090,7 @@
         <v>1.36</v>
       </c>
       <c r="AP265">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ265">
         <v>1.38</v>
@@ -56418,7 +56424,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57036,7 +57042,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57242,7 +57248,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57448,7 +57454,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57654,7 +57660,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58272,7 +58278,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58478,7 +58484,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58890,7 +58896,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59508,7 +59514,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59714,7 +59720,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59871,6 +59877,212 @@
       </c>
       <c r="BP283">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7450930</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45788.30208333334</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>80</v>
+      </c>
+      <c r="H284" t="s">
+        <v>85</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>5</v>
+      </c>
+      <c r="O284" t="s">
+        <v>282</v>
+      </c>
+      <c r="P284" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q284">
+        <v>2.67</v>
+      </c>
+      <c r="R284">
+        <v>2.12</v>
+      </c>
+      <c r="S284">
+        <v>3.95</v>
+      </c>
+      <c r="T284">
+        <v>1.33</v>
+      </c>
+      <c r="U284">
+        <v>3</v>
+      </c>
+      <c r="V284">
+        <v>2.6</v>
+      </c>
+      <c r="W284">
+        <v>1.44</v>
+      </c>
+      <c r="X284">
+        <v>6</v>
+      </c>
+      <c r="Y284">
+        <v>1.08</v>
+      </c>
+      <c r="Z284">
+        <v>2.07</v>
+      </c>
+      <c r="AA284">
+        <v>3.25</v>
+      </c>
+      <c r="AB284">
+        <v>3.25</v>
+      </c>
+      <c r="AC284">
+        <v>1</v>
+      </c>
+      <c r="AD284">
+        <v>9.5</v>
+      </c>
+      <c r="AE284">
+        <v>1.22</v>
+      </c>
+      <c r="AF284">
+        <v>3.5</v>
+      </c>
+      <c r="AG284">
+        <v>1.88</v>
+      </c>
+      <c r="AH284">
+        <v>1.92</v>
+      </c>
+      <c r="AI284">
+        <v>1.7</v>
+      </c>
+      <c r="AJ284">
+        <v>2.03</v>
+      </c>
+      <c r="AK284">
+        <v>1.3</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>1.7</v>
+      </c>
+      <c r="AN284">
+        <v>1.33</v>
+      </c>
+      <c r="AO284">
+        <v>1.13</v>
+      </c>
+      <c r="AP284">
+        <v>1.44</v>
+      </c>
+      <c r="AQ284">
+        <v>1.06</v>
+      </c>
+      <c r="AR284">
+        <v>1.64</v>
+      </c>
+      <c r="AS284">
+        <v>1.39</v>
+      </c>
+      <c r="AT284">
+        <v>3.03</v>
+      </c>
+      <c r="AU284">
+        <v>8</v>
+      </c>
+      <c r="AV284">
+        <v>7</v>
+      </c>
+      <c r="AW284">
+        <v>5</v>
+      </c>
+      <c r="AX284">
+        <v>5</v>
+      </c>
+      <c r="AY284">
+        <v>13</v>
+      </c>
+      <c r="AZ284">
+        <v>14</v>
+      </c>
+      <c r="BA284">
+        <v>4</v>
+      </c>
+      <c r="BB284">
+        <v>2</v>
+      </c>
+      <c r="BC284">
+        <v>6</v>
+      </c>
+      <c r="BD284">
+        <v>1.95</v>
+      </c>
+      <c r="BE284">
+        <v>6.45</v>
+      </c>
+      <c r="BF284">
+        <v>2.2</v>
+      </c>
+      <c r="BG284">
+        <v>1.23</v>
+      </c>
+      <c r="BH284">
+        <v>3.7</v>
+      </c>
+      <c r="BI284">
+        <v>1.41</v>
+      </c>
+      <c r="BJ284">
+        <v>2.7</v>
+      </c>
+      <c r="BK284">
+        <v>1.65</v>
+      </c>
+      <c r="BL284">
+        <v>2.1</v>
+      </c>
+      <c r="BM284">
+        <v>2.05</v>
+      </c>
+      <c r="BN284">
+        <v>1.7</v>
+      </c>
+      <c r="BO284">
+        <v>2.55</v>
+      </c>
+      <c r="BP284">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,9 @@
     <t>['18', '45+4', '90']</t>
   </si>
   <si>
+    <t>['2', '78']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1575,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP284"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2246,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2324,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>1.06</v>
@@ -2736,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -2864,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3276,7 +3279,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3688,7 +3691,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3894,7 +3897,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4100,7 +4103,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4306,7 +4309,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4512,7 +4515,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4593,7 +4596,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4718,7 +4721,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5417,7 +5420,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ19">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5954,7 +5957,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6032,7 +6035,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>2.19</v>
@@ -6572,7 +6575,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6778,7 +6781,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6856,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ26">
         <v>1.38</v>
@@ -6984,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7190,7 +7193,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7477,7 +7480,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7602,7 +7605,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7683,7 +7686,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -8014,7 +8017,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8220,7 +8223,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8632,7 +8635,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9122,7 +9125,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -9250,7 +9253,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9331,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -9456,7 +9459,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9537,7 +9540,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -10074,7 +10077,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10152,7 +10155,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10692,7 +10695,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10898,7 +10901,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11310,7 +11313,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11722,7 +11725,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11800,7 +11803,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>1.69</v>
@@ -12546,7 +12549,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12752,7 +12755,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12833,7 +12836,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -13451,7 +13454,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13576,7 +13579,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13782,7 +13785,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13860,7 +13863,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13988,7 +13991,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14606,7 +14609,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14684,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -15018,7 +15021,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15920,7 +15923,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>2.19</v>
@@ -16460,7 +16463,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16541,7 +16544,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16666,7 +16669,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17902,7 +17905,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18186,7 +18189,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -19010,7 +19013,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>1.19</v>
@@ -19344,7 +19347,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19425,7 +19428,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19550,7 +19553,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19756,7 +19759,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19962,7 +19965,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20168,7 +20171,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20580,7 +20583,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20786,7 +20789,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20992,7 +20995,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21198,7 +21201,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21279,7 +21282,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21816,7 +21819,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22022,7 +22025,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22228,7 +22231,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22434,7 +22437,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22640,7 +22643,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22721,7 +22724,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.6</v>
@@ -22924,7 +22927,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>0.63</v>
@@ -23052,7 +23055,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23876,7 +23879,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24288,7 +24291,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24906,7 +24909,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25318,7 +25321,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25524,7 +25527,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25602,7 +25605,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
         <v>1.06</v>
@@ -25936,7 +25939,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26223,7 +26226,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ120">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -26554,7 +26557,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26760,7 +26763,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26841,7 +26844,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ123">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR123">
         <v>1.23</v>
@@ -27044,7 +27047,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
         <v>0.88</v>
@@ -27172,7 +27175,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27250,7 +27253,7 @@
         <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ125">
         <v>1.06</v>
@@ -27584,7 +27587,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28202,7 +28205,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28614,7 +28617,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29026,7 +29029,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29232,7 +29235,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29438,7 +29441,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29644,7 +29647,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29850,7 +29853,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30262,7 +30265,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30340,10 +30343,10 @@
         <v>2.57</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ140">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR140">
         <v>1.69</v>
@@ -30468,7 +30471,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31579,7 +31582,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
         <v>1.5</v>
@@ -31988,7 +31991,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ148">
         <v>0.8100000000000001</v>
@@ -32116,7 +32119,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32322,7 +32325,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32734,7 +32737,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33433,7 +33436,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ155">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.98</v>
@@ -33970,7 +33973,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34257,7 +34260,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ159">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR159">
         <v>1.47</v>
@@ -34382,7 +34385,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34588,7 +34591,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35000,7 +35003,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35284,7 +35287,7 @@
         <v>0.44</v>
       </c>
       <c r="AP164">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ164">
         <v>0.4</v>
@@ -35412,7 +35415,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36726,7 +36729,7 @@
         <v>1.11</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -36854,7 +36857,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37678,7 +37681,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38296,7 +38299,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38377,7 +38380,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR179">
         <v>1.4</v>
@@ -38583,7 +38586,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ180">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38708,7 +38711,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38914,7 +38917,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39532,7 +39535,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39816,7 +39819,7 @@
         <v>0.6</v>
       </c>
       <c r="AP186">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ186">
         <v>0.5600000000000001</v>
@@ -39944,7 +39947,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40228,7 +40231,7 @@
         <v>1.4</v>
       </c>
       <c r="AP188">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ188">
         <v>1.38</v>
@@ -40562,7 +40565,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40768,7 +40771,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41386,7 +41389,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41798,7 +41801,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42004,7 +42007,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42416,7 +42419,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42909,7 +42912,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ201">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR201">
         <v>1.93</v>
@@ -43240,7 +43243,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43321,7 +43324,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ203">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR203">
         <v>1.8</v>
@@ -43652,7 +43655,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43936,7 +43939,7 @@
         <v>0.36</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ206">
         <v>0.63</v>
@@ -44476,7 +44479,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44888,7 +44891,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45094,7 +45097,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45584,7 +45587,7 @@
         <v>0.75</v>
       </c>
       <c r="AP214">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -45712,7 +45715,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46536,7 +46539,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46617,7 +46620,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ219">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR219">
         <v>1.79</v>
@@ -46742,7 +46745,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47772,7 +47775,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47978,7 +47981,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48059,7 +48062,7 @@
         <v>2</v>
       </c>
       <c r="AQ226">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR226">
         <v>1.8</v>
@@ -48184,7 +48187,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48468,7 +48471,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -48596,7 +48599,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49089,7 +49092,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ231">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR231">
         <v>1.56</v>
@@ -49214,7 +49217,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49420,7 +49423,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49626,7 +49629,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49704,7 +49707,7 @@
         <v>1.42</v>
       </c>
       <c r="AP234">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ234">
         <v>1.19</v>
@@ -49832,7 +49835,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50119,7 +50122,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ236">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR236">
         <v>1.6</v>
@@ -50450,7 +50453,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50656,7 +50659,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51274,7 +51277,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52382,7 +52385,7 @@
         <v>0.64</v>
       </c>
       <c r="AP247">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ247">
         <v>0.5600000000000001</v>
@@ -52510,7 +52513,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52716,7 +52719,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53128,7 +53131,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53209,7 +53212,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ251">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR251">
         <v>1.64</v>
@@ -53412,7 +53415,7 @@
         <v>1.62</v>
       </c>
       <c r="AP252">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ252">
         <v>1.69</v>
@@ -53540,7 +53543,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53952,7 +53955,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54158,7 +54161,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54570,7 +54573,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54776,7 +54779,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54982,7 +54985,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55060,7 +55063,7 @@
         <v>0.71</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ260">
         <v>0.8100000000000001</v>
@@ -55269,7 +55272,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ261">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR261">
         <v>1.98</v>
@@ -55600,7 +55603,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56299,7 +56302,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ266">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR266">
         <v>1.65</v>
@@ -56424,7 +56427,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56502,7 +56505,7 @@
         <v>1.21</v>
       </c>
       <c r="AP267">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ267">
         <v>1.33</v>
@@ -57042,7 +57045,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57123,7 +57126,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ270">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR270">
         <v>1.66</v>
@@ -57248,7 +57251,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57454,7 +57457,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57660,7 +57663,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58278,7 +58281,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58484,7 +58487,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58896,7 +58899,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59514,7 +59517,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59720,7 +59723,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59926,7 +59929,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60083,6 +60086,418 @@
       </c>
       <c r="BP284">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7450927</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45788.40625</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>72</v>
+      </c>
+      <c r="H285" t="s">
+        <v>75</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>283</v>
+      </c>
+      <c r="P285" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q285">
+        <v>2.4</v>
+      </c>
+      <c r="R285">
+        <v>2.18</v>
+      </c>
+      <c r="S285">
+        <v>3.5</v>
+      </c>
+      <c r="T285">
+        <v>1.31</v>
+      </c>
+      <c r="U285">
+        <v>3.15</v>
+      </c>
+      <c r="V285">
+        <v>2.4</v>
+      </c>
+      <c r="W285">
+        <v>1.49</v>
+      </c>
+      <c r="X285">
+        <v>5.5</v>
+      </c>
+      <c r="Y285">
+        <v>1.12</v>
+      </c>
+      <c r="Z285">
+        <v>2.22</v>
+      </c>
+      <c r="AA285">
+        <v>3.55</v>
+      </c>
+      <c r="AB285">
+        <v>2.8</v>
+      </c>
+      <c r="AC285">
+        <v>1.04</v>
+      </c>
+      <c r="AD285">
+        <v>13.3</v>
+      </c>
+      <c r="AE285">
+        <v>1.2</v>
+      </c>
+      <c r="AF285">
+        <v>4.2</v>
+      </c>
+      <c r="AG285">
+        <v>1.69</v>
+      </c>
+      <c r="AH285">
+        <v>2.2</v>
+      </c>
+      <c r="AI285">
+        <v>1.55</v>
+      </c>
+      <c r="AJ285">
+        <v>2.3</v>
+      </c>
+      <c r="AK285">
+        <v>1.24</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>1.62</v>
+      </c>
+      <c r="AN285">
+        <v>1.67</v>
+      </c>
+      <c r="AO285">
+        <v>1.8</v>
+      </c>
+      <c r="AP285">
+        <v>1.75</v>
+      </c>
+      <c r="AQ285">
+        <v>1.69</v>
+      </c>
+      <c r="AR285">
+        <v>1.72</v>
+      </c>
+      <c r="AS285">
+        <v>1.56</v>
+      </c>
+      <c r="AT285">
+        <v>3.28</v>
+      </c>
+      <c r="AU285">
+        <v>5</v>
+      </c>
+      <c r="AV285">
+        <v>6</v>
+      </c>
+      <c r="AW285">
+        <v>7</v>
+      </c>
+      <c r="AX285">
+        <v>8</v>
+      </c>
+      <c r="AY285">
+        <v>15</v>
+      </c>
+      <c r="AZ285">
+        <v>17</v>
+      </c>
+      <c r="BA285">
+        <v>1</v>
+      </c>
+      <c r="BB285">
+        <v>10</v>
+      </c>
+      <c r="BC285">
+        <v>11</v>
+      </c>
+      <c r="BD285">
+        <v>1.75</v>
+      </c>
+      <c r="BE285">
+        <v>6.5</v>
+      </c>
+      <c r="BF285">
+        <v>2.5</v>
+      </c>
+      <c r="BG285">
+        <v>1.2</v>
+      </c>
+      <c r="BH285">
+        <v>3.3</v>
+      </c>
+      <c r="BI285">
+        <v>1.45</v>
+      </c>
+      <c r="BJ285">
+        <v>2.7</v>
+      </c>
+      <c r="BK285">
+        <v>1.65</v>
+      </c>
+      <c r="BL285">
+        <v>2</v>
+      </c>
+      <c r="BM285">
+        <v>2.05</v>
+      </c>
+      <c r="BN285">
+        <v>1.7</v>
+      </c>
+      <c r="BO285">
+        <v>2.75</v>
+      </c>
+      <c r="BP285">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7450931</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45788.52083333334</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>74</v>
+      </c>
+      <c r="H286" t="s">
+        <v>76</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
+        <v>95</v>
+      </c>
+      <c r="P286" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q286">
+        <v>2.9</v>
+      </c>
+      <c r="R286">
+        <v>2.3</v>
+      </c>
+      <c r="S286">
+        <v>3</v>
+      </c>
+      <c r="T286">
+        <v>1.25</v>
+      </c>
+      <c r="U286">
+        <v>3.3</v>
+      </c>
+      <c r="V286">
+        <v>2.3</v>
+      </c>
+      <c r="W286">
+        <v>1.61</v>
+      </c>
+      <c r="X286">
+        <v>4.75</v>
+      </c>
+      <c r="Y286">
+        <v>1.13</v>
+      </c>
+      <c r="Z286">
+        <v>2.06</v>
+      </c>
+      <c r="AA286">
+        <v>3.37</v>
+      </c>
+      <c r="AB286">
+        <v>2.97</v>
+      </c>
+      <c r="AC286">
+        <v>1.03</v>
+      </c>
+      <c r="AD286">
+        <v>12</v>
+      </c>
+      <c r="AE286">
+        <v>1.15</v>
+      </c>
+      <c r="AF286">
+        <v>4.33</v>
+      </c>
+      <c r="AG286">
+        <v>1.55</v>
+      </c>
+      <c r="AH286">
+        <v>2.2</v>
+      </c>
+      <c r="AI286">
+        <v>1.5</v>
+      </c>
+      <c r="AJ286">
+        <v>2.6</v>
+      </c>
+      <c r="AK286">
+        <v>1.48</v>
+      </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
+      <c r="AM286">
+        <v>1.52</v>
+      </c>
+      <c r="AN286">
+        <v>2</v>
+      </c>
+      <c r="AO286">
+        <v>1.4</v>
+      </c>
+      <c r="AP286">
+        <v>1.88</v>
+      </c>
+      <c r="AQ286">
+        <v>1.5</v>
+      </c>
+      <c r="AR286">
+        <v>1.71</v>
+      </c>
+      <c r="AS286">
+        <v>1.41</v>
+      </c>
+      <c r="AT286">
+        <v>3.12</v>
+      </c>
+      <c r="AU286">
+        <v>3</v>
+      </c>
+      <c r="AV286">
+        <v>2</v>
+      </c>
+      <c r="AW286">
+        <v>10</v>
+      </c>
+      <c r="AX286">
+        <v>9</v>
+      </c>
+      <c r="AY286">
+        <v>15</v>
+      </c>
+      <c r="AZ286">
+        <v>15</v>
+      </c>
+      <c r="BA286">
+        <v>8</v>
+      </c>
+      <c r="BB286">
+        <v>5</v>
+      </c>
+      <c r="BC286">
+        <v>13</v>
+      </c>
+      <c r="BD286">
+        <v>1.5</v>
+      </c>
+      <c r="BE286">
+        <v>8.6</v>
+      </c>
+      <c r="BF286">
+        <v>2.81</v>
+      </c>
+      <c r="BG286">
+        <v>1.25</v>
+      </c>
+      <c r="BH286">
+        <v>3.6</v>
+      </c>
+      <c r="BI286">
+        <v>1.38</v>
+      </c>
+      <c r="BJ286">
+        <v>2.8</v>
+      </c>
+      <c r="BK286">
+        <v>1.65</v>
+      </c>
+      <c r="BL286">
+        <v>2.21</v>
+      </c>
+      <c r="BM286">
+        <v>2.05</v>
+      </c>
+      <c r="BN286">
+        <v>1.67</v>
+      </c>
+      <c r="BO286">
+        <v>2.62</v>
+      </c>
+      <c r="BP286">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -60034,7 +60034,7 @@
         <v>5</v>
       </c>
       <c r="AY284">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ284">
         <v>14</v>
@@ -60407,7 +60407,7 @@
         <v>1.48</v>
       </c>
       <c r="AL286">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM286">
         <v>1.52</v>
@@ -60446,10 +60446,10 @@
         <v>9</v>
       </c>
       <c r="AY286">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ286">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA286">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="403">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -868,6 +868,9 @@
     <t>['2', '78']</t>
   </si>
   <si>
+    <t>['51', '70']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1217,6 +1220,9 @@
   </si>
   <si>
     <t>['50', '60']</t>
+  </si>
+  <si>
+    <t>['5', '25', '37']</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2249,7 +2255,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2867,7 +2873,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3279,7 +3285,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3691,7 +3697,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3769,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11">
         <v>1.19</v>
@@ -3897,7 +3903,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4103,7 +4109,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4309,7 +4315,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4515,7 +4521,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4721,7 +4727,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5957,7 +5963,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6244,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6575,7 +6581,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6781,7 +6787,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6987,7 +6993,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7193,7 +7199,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7605,7 +7611,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7892,7 +7898,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ31">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -8017,7 +8023,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8223,7 +8229,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8301,7 +8307,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -8635,7 +8641,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8919,7 +8925,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ36">
         <v>0.8100000000000001</v>
@@ -9253,7 +9259,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9459,7 +9465,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10077,7 +10083,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10695,7 +10701,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10901,7 +10907,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11313,7 +11319,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11725,7 +11731,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12424,7 +12430,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12549,7 +12555,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12755,7 +12761,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13039,7 +13045,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -13579,7 +13585,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13785,7 +13791,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13991,7 +13997,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14609,7 +14615,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15021,7 +15027,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16463,7 +16469,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16541,7 +16547,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>1.69</v>
@@ -16669,7 +16675,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17905,7 +17911,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19347,7 +19353,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19553,7 +19559,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19759,7 +19765,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19840,7 +19846,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ89">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19965,7 +19971,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20043,7 +20049,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20171,7 +20177,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20583,7 +20589,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20789,7 +20795,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20995,7 +21001,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21201,7 +21207,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21819,7 +21825,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22025,7 +22031,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22231,7 +22237,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22437,7 +22443,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22643,7 +22649,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23055,7 +23061,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23136,7 +23142,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -23754,7 +23760,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23879,7 +23885,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24291,7 +24297,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24909,7 +24915,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25321,7 +25327,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25527,7 +25533,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25814,7 +25820,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR118">
         <v>1.58</v>
@@ -25939,7 +25945,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26223,7 +26229,7 @@
         <v>2.17</v>
       </c>
       <c r="AP120">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -26557,7 +26563,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26763,7 +26769,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27175,7 +27181,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27587,7 +27593,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28205,7 +28211,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28617,7 +28623,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29029,7 +29035,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29235,7 +29241,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29441,7 +29447,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29647,7 +29653,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29853,7 +29859,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30265,7 +30271,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30471,7 +30477,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30552,7 +30558,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -31167,7 +31173,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ144">
         <v>0.88</v>
@@ -32119,7 +32125,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32325,7 +32331,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32737,7 +32743,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33848,7 +33854,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
         <v>1.39</v>
@@ -33973,7 +33979,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34385,7 +34391,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34463,7 +34469,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ160">
         <v>1.69</v>
@@ -34591,7 +34597,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35003,7 +35009,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35290,7 +35296,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ164">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR164">
         <v>1.72</v>
@@ -35415,7 +35421,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36857,7 +36863,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37681,7 +37687,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38299,7 +38305,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38711,7 +38717,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38789,7 +38795,7 @@
         <v>0.6</v>
       </c>
       <c r="AP181">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ181">
         <v>0.9399999999999999</v>
@@ -38917,7 +38923,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39535,7 +39541,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39947,7 +39953,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40565,7 +40571,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40771,7 +40777,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40852,7 +40858,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ191">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR191">
         <v>1.48</v>
@@ -41389,7 +41395,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41801,7 +41807,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42007,7 +42013,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42419,7 +42425,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43243,7 +43249,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43655,7 +43661,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43733,7 +43739,7 @@
         <v>1.27</v>
       </c>
       <c r="AP205">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ205">
         <v>1.4</v>
@@ -44479,7 +44485,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44891,7 +44897,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45097,7 +45103,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45384,7 +45390,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ213">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR213">
         <v>1.92</v>
@@ -45715,7 +45721,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46539,7 +46545,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46745,7 +46751,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47441,7 +47447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ223">
         <v>1.38</v>
@@ -47775,7 +47781,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47981,7 +47987,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48187,7 +48193,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48599,7 +48605,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49217,7 +49223,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49423,7 +49429,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49504,7 +49510,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ233">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR233">
         <v>1.63</v>
@@ -49629,7 +49635,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49835,7 +49841,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50453,7 +50459,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50659,7 +50665,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51277,7 +51283,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51767,7 +51773,7 @@
         <v>2.38</v>
       </c>
       <c r="AP244">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ244">
         <v>2.19</v>
@@ -52513,7 +52519,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52719,7 +52725,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53131,7 +53137,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53543,7 +53549,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53624,7 +53630,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ253">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR253">
         <v>1.59</v>
@@ -53955,7 +53961,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54161,7 +54167,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54573,7 +54579,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54651,7 +54657,7 @@
         <v>1.07</v>
       </c>
       <c r="AP258">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ258">
         <v>1.06</v>
@@ -54779,7 +54785,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54985,7 +54991,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55603,7 +55609,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -55681,7 +55687,7 @@
         <v>0.93</v>
       </c>
       <c r="AP263">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -56427,7 +56433,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57045,7 +57051,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57251,7 +57257,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57332,7 +57338,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ271">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR271">
         <v>1.71</v>
@@ -57457,7 +57463,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57663,7 +57669,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58281,7 +58287,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58487,7 +58493,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58899,7 +58905,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59517,7 +59523,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59723,7 +59729,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59929,7 +59935,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60498,6 +60504,212 @@
       </c>
       <c r="BP286">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7450933</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45789.58333333334</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>79</v>
+      </c>
+      <c r="H287" t="s">
+        <v>78</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>3</v>
+      </c>
+      <c r="K287">
+        <v>3</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287" t="s">
+        <v>284</v>
+      </c>
+      <c r="P287" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q287">
+        <v>3.1</v>
+      </c>
+      <c r="R287">
+        <v>2.2</v>
+      </c>
+      <c r="S287">
+        <v>3.08</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>3.25</v>
+      </c>
+      <c r="V287">
+        <v>2.62</v>
+      </c>
+      <c r="W287">
+        <v>1.43</v>
+      </c>
+      <c r="X287">
+        <v>6.5</v>
+      </c>
+      <c r="Y287">
+        <v>1.05</v>
+      </c>
+      <c r="Z287">
+        <v>2.7</v>
+      </c>
+      <c r="AA287">
+        <v>3.15</v>
+      </c>
+      <c r="AB287">
+        <v>2.57</v>
+      </c>
+      <c r="AC287">
+        <v>1.03</v>
+      </c>
+      <c r="AD287">
+        <v>9.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.22</v>
+      </c>
+      <c r="AF287">
+        <v>3.7</v>
+      </c>
+      <c r="AG287">
+        <v>1.79</v>
+      </c>
+      <c r="AH287">
+        <v>1.93</v>
+      </c>
+      <c r="AI287">
+        <v>1.61</v>
+      </c>
+      <c r="AJ287">
+        <v>2.31</v>
+      </c>
+      <c r="AK287">
+        <v>1.33</v>
+      </c>
+      <c r="AL287">
+        <v>1.25</v>
+      </c>
+      <c r="AM287">
+        <v>1.5</v>
+      </c>
+      <c r="AN287">
+        <v>1.2</v>
+      </c>
+      <c r="AO287">
+        <v>0.4</v>
+      </c>
+      <c r="AP287">
+        <v>1.13</v>
+      </c>
+      <c r="AQ287">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR287">
+        <v>1.38</v>
+      </c>
+      <c r="AS287">
+        <v>1.36</v>
+      </c>
+      <c r="AT287">
+        <v>2.74</v>
+      </c>
+      <c r="AU287">
+        <v>5</v>
+      </c>
+      <c r="AV287">
+        <v>8</v>
+      </c>
+      <c r="AW287">
+        <v>16</v>
+      </c>
+      <c r="AX287">
+        <v>8</v>
+      </c>
+      <c r="AY287">
+        <v>29</v>
+      </c>
+      <c r="AZ287">
+        <v>20</v>
+      </c>
+      <c r="BA287">
+        <v>6</v>
+      </c>
+      <c r="BB287">
+        <v>6</v>
+      </c>
+      <c r="BC287">
+        <v>12</v>
+      </c>
+      <c r="BD287">
+        <v>1.97</v>
+      </c>
+      <c r="BE287">
+        <v>7.6</v>
+      </c>
+      <c r="BF287">
+        <v>2.14</v>
+      </c>
+      <c r="BG287">
+        <v>1.25</v>
+      </c>
+      <c r="BH287">
+        <v>3.5</v>
+      </c>
+      <c r="BI287">
+        <v>1.5</v>
+      </c>
+      <c r="BJ287">
+        <v>2.62</v>
+      </c>
+      <c r="BK287">
+        <v>1.84</v>
+      </c>
+      <c r="BL287">
+        <v>2.1</v>
+      </c>
+      <c r="BM287">
+        <v>2.1</v>
+      </c>
+      <c r="BN287">
+        <v>1.67</v>
+      </c>
+      <c r="BO287">
+        <v>2.75</v>
+      </c>
+      <c r="BP287">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,9 @@
     <t>['51', '70']</t>
   </si>
   <si>
+    <t>['43', '52', '76']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1584,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP287"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2255,7 +2258,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2539,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
         <v>1.06</v>
@@ -2873,7 +2876,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3285,7 +3288,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3697,7 +3700,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3903,7 +3906,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3984,7 +3987,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4109,7 +4112,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4315,7 +4318,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4521,7 +4524,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4727,7 +4730,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5963,7 +5966,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6581,7 +6584,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6787,7 +6790,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6993,7 +6996,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7199,7 +7202,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7611,7 +7614,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7895,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0.5600000000000001</v>
@@ -8023,7 +8026,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8229,7 +8232,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8641,7 +8644,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9134,7 +9137,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -9259,7 +9262,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9465,7 +9468,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9749,7 +9752,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -10083,7 +10086,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10701,7 +10704,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10907,7 +10910,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11319,7 +11322,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11731,7 +11734,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12555,7 +12558,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12761,7 +12764,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13585,7 +13588,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13791,7 +13794,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13872,7 +13875,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13997,7 +14000,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14075,7 +14078,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61">
         <v>0.63</v>
@@ -14615,7 +14618,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15027,7 +15030,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16341,7 +16344,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16469,7 +16472,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16675,7 +16678,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17374,7 +17377,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -17911,7 +17914,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19353,7 +19356,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19559,7 +19562,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19765,7 +19768,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19971,7 +19974,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20177,7 +20180,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20589,7 +20592,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20795,7 +20798,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -21001,7 +21004,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21082,7 +21085,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -21207,7 +21210,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21491,7 +21494,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
         <v>1.38</v>
@@ -21825,7 +21828,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22031,7 +22034,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22237,7 +22240,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22443,7 +22446,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22649,7 +22652,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23061,7 +23064,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23885,7 +23888,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24169,7 +24172,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ110">
         <v>0.5600000000000001</v>
@@ -24297,7 +24300,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24378,7 +24381,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24915,7 +24918,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25327,7 +25330,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25533,7 +25536,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25945,7 +25948,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26563,7 +26566,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26769,7 +26772,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27181,7 +27184,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27593,7 +27596,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27674,7 +27677,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR127">
         <v>1.46</v>
@@ -27877,7 +27880,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ128">
         <v>1.06</v>
@@ -28211,7 +28214,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28623,7 +28626,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29035,7 +29038,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29241,7 +29244,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29447,7 +29450,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29528,7 +29531,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ136">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29653,7 +29656,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29859,7 +29862,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30271,7 +30274,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30477,7 +30480,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -32125,7 +32128,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32331,7 +32334,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32615,7 +32618,7 @@
         <v>2.14</v>
       </c>
       <c r="AP151">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ151">
         <v>1.69</v>
@@ -32743,7 +32746,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33979,7 +33982,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34060,7 +34063,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR158">
         <v>1.55</v>
@@ -34391,7 +34394,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34597,7 +34600,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35009,7 +35012,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35421,7 +35424,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36117,7 +36120,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ168">
         <v>0.9399999999999999</v>
@@ -36863,7 +36866,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37353,7 +37356,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ174">
         <v>1.19</v>
@@ -37687,7 +37690,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38180,7 +38183,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ178">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR178">
         <v>1.4</v>
@@ -38305,7 +38308,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38717,7 +38720,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38923,7 +38926,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39541,7 +39544,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39953,7 +39956,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40446,7 +40449,7 @@
         <v>2</v>
       </c>
       <c r="AQ189">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR189">
         <v>1.82</v>
@@ -40571,7 +40574,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40777,7 +40780,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41395,7 +41398,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41807,7 +41810,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42013,7 +42016,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42425,7 +42428,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43249,7 +43252,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43327,7 +43330,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ203">
         <v>1.5</v>
@@ -43661,7 +43664,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43742,7 +43745,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ205">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR205">
         <v>1.46</v>
@@ -44485,7 +44488,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44897,7 +44900,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45103,7 +45106,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45721,7 +45724,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46545,7 +46548,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46623,7 +46626,7 @@
         <v>2.09</v>
       </c>
       <c r="AP219">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ219">
         <v>1.69</v>
@@ -46751,7 +46754,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47038,7 +47041,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ221">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR221">
         <v>1.97</v>
@@ -47781,7 +47784,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47987,7 +47990,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48193,7 +48196,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48605,7 +48608,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49223,7 +49226,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49429,7 +49432,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49635,7 +49638,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49841,7 +49844,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50459,7 +50462,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50665,7 +50668,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -50746,7 +50749,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ239">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR239">
         <v>1.6</v>
@@ -51283,7 +51286,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51567,7 +51570,7 @@
         <v>1.08</v>
       </c>
       <c r="AP243">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ243">
         <v>1.06</v>
@@ -52519,7 +52522,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52725,7 +52728,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53137,7 +53140,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53549,7 +53552,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53961,7 +53964,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54167,7 +54170,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54248,7 +54251,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ256">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR256">
         <v>1.49</v>
@@ -54451,7 +54454,7 @@
         <v>2.29</v>
       </c>
       <c r="AP257">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ257">
         <v>2.19</v>
@@ -54579,7 +54582,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54785,7 +54788,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54991,7 +54994,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55609,7 +55612,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56433,7 +56436,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57051,7 +57054,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57257,7 +57260,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57463,7 +57466,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57669,7 +57672,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58287,7 +58290,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58493,7 +58496,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58905,7 +58908,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59523,7 +59526,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59729,7 +59732,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59935,7 +59938,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60553,7 +60556,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60710,6 +60713,212 @@
       </c>
       <c r="BP287">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7450923</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45791.64583333334</v>
+      </c>
+      <c r="F288">
+        <v>31</v>
+      </c>
+      <c r="G288" t="s">
+        <v>73</v>
+      </c>
+      <c r="H288" t="s">
+        <v>77</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>3</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>285</v>
+      </c>
+      <c r="P288" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q288">
+        <v>1.82</v>
+      </c>
+      <c r="R288">
+        <v>2.61</v>
+      </c>
+      <c r="S288">
+        <v>6</v>
+      </c>
+      <c r="T288">
+        <v>1.25</v>
+      </c>
+      <c r="U288">
+        <v>3.5</v>
+      </c>
+      <c r="V288">
+        <v>2.25</v>
+      </c>
+      <c r="W288">
+        <v>1.59</v>
+      </c>
+      <c r="X288">
+        <v>4.6</v>
+      </c>
+      <c r="Y288">
+        <v>1.15</v>
+      </c>
+      <c r="Z288">
+        <v>1.36</v>
+      </c>
+      <c r="AA288">
+        <v>5</v>
+      </c>
+      <c r="AB288">
+        <v>7.6</v>
+      </c>
+      <c r="AC288">
+        <v>1.01</v>
+      </c>
+      <c r="AD288">
+        <v>17</v>
+      </c>
+      <c r="AE288">
+        <v>1.15</v>
+      </c>
+      <c r="AF288">
+        <v>5</v>
+      </c>
+      <c r="AG288">
+        <v>1.53</v>
+      </c>
+      <c r="AH288">
+        <v>2.45</v>
+      </c>
+      <c r="AI288">
+        <v>1.7</v>
+      </c>
+      <c r="AJ288">
+        <v>2</v>
+      </c>
+      <c r="AK288">
+        <v>1.18</v>
+      </c>
+      <c r="AL288">
+        <v>1.12</v>
+      </c>
+      <c r="AM288">
+        <v>3</v>
+      </c>
+      <c r="AN288">
+        <v>2.47</v>
+      </c>
+      <c r="AO288">
+        <v>1.4</v>
+      </c>
+      <c r="AP288">
+        <v>2.5</v>
+      </c>
+      <c r="AQ288">
+        <v>1.31</v>
+      </c>
+      <c r="AR288">
+        <v>1.87</v>
+      </c>
+      <c r="AS288">
+        <v>1.4</v>
+      </c>
+      <c r="AT288">
+        <v>3.27</v>
+      </c>
+      <c r="AU288">
+        <v>10</v>
+      </c>
+      <c r="AV288">
+        <v>3</v>
+      </c>
+      <c r="AW288">
+        <v>6</v>
+      </c>
+      <c r="AX288">
+        <v>8</v>
+      </c>
+      <c r="AY288">
+        <v>20</v>
+      </c>
+      <c r="AZ288">
+        <v>16</v>
+      </c>
+      <c r="BA288">
+        <v>7</v>
+      </c>
+      <c r="BB288">
+        <v>5</v>
+      </c>
+      <c r="BC288">
+        <v>12</v>
+      </c>
+      <c r="BD288">
+        <v>1.35</v>
+      </c>
+      <c r="BE288">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF288">
+        <v>3.6</v>
+      </c>
+      <c r="BG288">
+        <v>1.16</v>
+      </c>
+      <c r="BH288">
+        <v>4.3</v>
+      </c>
+      <c r="BI288">
+        <v>1.3</v>
+      </c>
+      <c r="BJ288">
+        <v>3.05</v>
+      </c>
+      <c r="BK288">
+        <v>1.52</v>
+      </c>
+      <c r="BL288">
+        <v>2.3</v>
+      </c>
+      <c r="BM288">
+        <v>1.9</v>
+      </c>
+      <c r="BN288">
+        <v>1.81</v>
+      </c>
+      <c r="BO288">
+        <v>2.4</v>
+      </c>
+      <c r="BP288">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="405">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1227,6 +1227,9 @@
   <si>
     <t>['5', '25', '37']</t>
   </si>
+  <si>
+    <t>['17', '34']</t>
+  </si>
 </sst>
 </file>
 
@@ -1587,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4602,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -5223,7 +5226,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -8313,7 +8316,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8516,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -10782,7 +10785,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -12227,7 +12230,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -16347,7 +16350,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16962,7 +16965,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>1.38</v>
@@ -20258,7 +20261,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -21703,7 +21706,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -22115,7 +22118,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -25408,7 +25411,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>1.19</v>
@@ -28498,7 +28501,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -29325,7 +29328,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.91</v>
@@ -32206,7 +32209,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
         <v>2.19</v>
@@ -32827,7 +32830,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.7</v>
@@ -33854,7 +33857,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ157">
         <v>0.5600000000000001</v>
@@ -34681,7 +34684,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ161">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -37977,7 +37980,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR177">
         <v>1.53</v>
@@ -38386,7 +38389,7 @@
         <v>2.11</v>
       </c>
       <c r="AP179">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
         <v>1.69</v>
@@ -41476,7 +41479,7 @@
         <v>0.8</v>
       </c>
       <c r="AP194">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ194">
         <v>1</v>
@@ -41685,7 +41688,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR195">
         <v>1.57</v>
@@ -46008,7 +46011,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216">
         <v>1.69</v>
@@ -46217,7 +46220,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ217">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -47244,7 +47247,7 @@
         <v>1.17</v>
       </c>
       <c r="AP222">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ222">
         <v>1.06</v>
@@ -47865,7 +47868,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ225">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR225">
         <v>1.64</v>
@@ -50334,7 +50337,7 @@
         <v>0.77</v>
       </c>
       <c r="AP237">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ237">
         <v>0.8100000000000001</v>
@@ -51367,7 +51370,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ242">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR242">
         <v>2.01</v>
@@ -54248,7 +54251,7 @@
         <v>1.29</v>
       </c>
       <c r="AP256">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ256">
         <v>1.31</v>
@@ -56517,7 +56520,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ267">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR267">
         <v>1.7</v>
@@ -60919,6 +60922,212 @@
       </c>
       <c r="BP288">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7450925</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="F289">
+        <v>31</v>
+      </c>
+      <c r="G289" t="s">
+        <v>82</v>
+      </c>
+      <c r="H289" t="s">
+        <v>74</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>2</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>95</v>
+      </c>
+      <c r="P289" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q289">
+        <v>3.88</v>
+      </c>
+      <c r="R289">
+        <v>2.27</v>
+      </c>
+      <c r="S289">
+        <v>2.2</v>
+      </c>
+      <c r="T289">
+        <v>1.3</v>
+      </c>
+      <c r="U289">
+        <v>3.22</v>
+      </c>
+      <c r="V289">
+        <v>2.44</v>
+      </c>
+      <c r="W289">
+        <v>1.49</v>
+      </c>
+      <c r="X289">
+        <v>5.25</v>
+      </c>
+      <c r="Y289">
+        <v>1.08</v>
+      </c>
+      <c r="Z289">
+        <v>3.25</v>
+      </c>
+      <c r="AA289">
+        <v>3.6</v>
+      </c>
+      <c r="AB289">
+        <v>2.02</v>
+      </c>
+      <c r="AC289">
+        <v>1.04</v>
+      </c>
+      <c r="AD289">
+        <v>10</v>
+      </c>
+      <c r="AE289">
+        <v>1.21</v>
+      </c>
+      <c r="AF289">
+        <v>4.39</v>
+      </c>
+      <c r="AG289">
+        <v>1.69</v>
+      </c>
+      <c r="AH289">
+        <v>2.15</v>
+      </c>
+      <c r="AI289">
+        <v>1.58</v>
+      </c>
+      <c r="AJ289">
+        <v>2.36</v>
+      </c>
+      <c r="AK289">
+        <v>1.26</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>1.3</v>
+      </c>
+      <c r="AN289">
+        <v>1.53</v>
+      </c>
+      <c r="AO289">
+        <v>1.33</v>
+      </c>
+      <c r="AP289">
+        <v>1.44</v>
+      </c>
+      <c r="AQ289">
+        <v>1.44</v>
+      </c>
+      <c r="AR289">
+        <v>1.51</v>
+      </c>
+      <c r="AS289">
+        <v>1.55</v>
+      </c>
+      <c r="AT289">
+        <v>3.06</v>
+      </c>
+      <c r="AU289">
+        <v>3</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>8</v>
+      </c>
+      <c r="AX289">
+        <v>1</v>
+      </c>
+      <c r="AY289">
+        <v>18</v>
+      </c>
+      <c r="AZ289">
+        <v>7</v>
+      </c>
+      <c r="BA289">
+        <v>6</v>
+      </c>
+      <c r="BB289">
+        <v>7</v>
+      </c>
+      <c r="BC289">
+        <v>13</v>
+      </c>
+      <c r="BD289">
+        <v>2.75</v>
+      </c>
+      <c r="BE289">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF289">
+        <v>1.66</v>
+      </c>
+      <c r="BG289">
+        <v>1.32</v>
+      </c>
+      <c r="BH289">
+        <v>3.55</v>
+      </c>
+      <c r="BI289">
+        <v>1.41</v>
+      </c>
+      <c r="BJ289">
+        <v>2.2</v>
+      </c>
+      <c r="BK289">
+        <v>1.95</v>
+      </c>
+      <c r="BL289">
+        <v>2.05</v>
+      </c>
+      <c r="BM289">
+        <v>2.15</v>
+      </c>
+      <c r="BN289">
+        <v>1.65</v>
+      </c>
+      <c r="BO289">
+        <v>2.7</v>
+      </c>
+      <c r="BP289">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -874,6 +874,9 @@
     <t>['43', '52', '76']</t>
   </si>
   <si>
+    <t>['45', '73']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1229,6 +1232,9 @@
   </si>
   <si>
     <t>['17', '34']</t>
+  </si>
+  <si>
+    <t>['15', '80']</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2261,7 +2267,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2879,7 +2885,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3291,7 +3297,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3575,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ10">
         <v>0.88</v>
@@ -3703,7 +3709,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3909,7 +3915,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4115,7 +4121,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4193,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>1.06</v>
@@ -4321,7 +4327,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4527,7 +4533,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4733,7 +4739,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5969,7 +5975,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6587,7 +6593,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6793,7 +6799,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6999,7 +7005,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7205,7 +7211,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7617,7 +7623,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -8029,7 +8035,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8235,7 +8241,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8647,7 +8653,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9265,7 +9271,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9471,7 +9477,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10089,7 +10095,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10579,7 +10585,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10707,7 +10713,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10913,7 +10919,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11325,7 +11331,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11737,7 +11743,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12561,7 +12567,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12767,7 +12773,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12845,7 +12851,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -13591,7 +13597,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13797,7 +13803,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14003,7 +14009,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14621,7 +14627,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15033,7 +15039,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16475,7 +16481,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16681,7 +16687,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17377,7 +17383,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ77">
         <v>1.31</v>
@@ -17917,7 +17923,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19359,7 +19365,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19565,7 +19571,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19771,7 +19777,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19977,7 +19983,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20183,7 +20189,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20467,7 +20473,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20595,7 +20601,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20801,7 +20807,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -21007,7 +21013,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21213,7 +21219,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21831,7 +21837,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22037,7 +22043,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22243,7 +22249,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22449,7 +22455,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22655,7 +22661,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23067,7 +23073,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23891,7 +23897,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24303,7 +24309,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24921,7 +24927,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24999,7 +25005,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ114">
         <v>0.9399999999999999</v>
@@ -25333,7 +25339,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25539,7 +25545,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25951,7 +25957,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26569,7 +26575,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26775,7 +26781,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27187,7 +27193,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27599,7 +27605,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28217,7 +28223,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28629,7 +28635,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28913,7 +28919,7 @@
         <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ133">
         <v>0.5600000000000001</v>
@@ -29041,7 +29047,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29247,7 +29253,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29453,7 +29459,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29659,7 +29665,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29865,7 +29871,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30277,7 +30283,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30483,7 +30489,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -32131,7 +32137,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32337,7 +32343,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32749,7 +32755,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32827,7 +32833,7 @@
         <v>1.29</v>
       </c>
       <c r="AP152">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ152">
         <v>1.44</v>
@@ -33985,7 +33991,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34397,7 +34403,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34603,7 +34609,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35015,7 +35021,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35427,7 +35433,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36869,7 +36875,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37153,7 +37159,7 @@
         <v>1.89</v>
       </c>
       <c r="AP173">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ173">
         <v>1.69</v>
@@ -37693,7 +37699,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38311,7 +38317,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38723,7 +38729,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38929,7 +38935,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39547,7 +39553,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39959,7 +39965,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40037,7 +40043,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP187">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -40577,7 +40583,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40783,7 +40789,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41401,7 +41407,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41813,7 +41819,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42019,7 +42025,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42431,7 +42437,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43127,7 +43133,7 @@
         <v>1.09</v>
       </c>
       <c r="AP202">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ202">
         <v>1.06</v>
@@ -43255,7 +43261,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43667,7 +43673,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44491,7 +44497,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44903,7 +44909,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45109,7 +45115,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45727,7 +45733,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46551,7 +46557,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46757,7 +46763,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46835,7 +46841,7 @@
         <v>0.33</v>
       </c>
       <c r="AP220">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ220">
         <v>0.63</v>
@@ -47787,7 +47793,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47993,7 +47999,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48199,7 +48205,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48611,7 +48617,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49229,7 +49235,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49435,7 +49441,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49641,7 +49647,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49847,7 +49853,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50131,7 +50137,7 @@
         <v>1.92</v>
       </c>
       <c r="AP236">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ236">
         <v>1.69</v>
@@ -50465,7 +50471,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50671,7 +50677,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51289,7 +51295,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52525,7 +52531,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52731,7 +52737,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53143,7 +53149,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53555,7 +53561,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53967,7 +53973,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54173,7 +54179,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54585,7 +54591,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54791,7 +54797,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54997,7 +55003,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55487,7 +55493,7 @@
         <v>1.21</v>
       </c>
       <c r="AP262">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ262">
         <v>1.19</v>
@@ -55615,7 +55621,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56439,7 +56445,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57057,7 +57063,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57263,7 +57269,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57469,7 +57475,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57547,7 +57553,7 @@
         <v>2.13</v>
       </c>
       <c r="AP272">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ272">
         <v>2.19</v>
@@ -57675,7 +57681,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58293,7 +58299,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58499,7 +58505,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58911,7 +58917,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59529,7 +59535,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59735,7 +59741,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59941,7 +59947,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60559,7 +60565,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60971,7 +60977,7 @@
         <v>95</v>
       </c>
       <c r="P289" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q289">
         <v>3.88</v>
@@ -61128,6 +61134,212 @@
       </c>
       <c r="BP289">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7450942</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>78</v>
+      </c>
+      <c r="H290" t="s">
+        <v>81</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290" t="s">
+        <v>286</v>
+      </c>
+      <c r="P290" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q290">
+        <v>3.1</v>
+      </c>
+      <c r="R290">
+        <v>2.14</v>
+      </c>
+      <c r="S290">
+        <v>3.42</v>
+      </c>
+      <c r="T290">
+        <v>1.33</v>
+      </c>
+      <c r="U290">
+        <v>3</v>
+      </c>
+      <c r="V290">
+        <v>2.6</v>
+      </c>
+      <c r="W290">
+        <v>1.42</v>
+      </c>
+      <c r="X290">
+        <v>6.4</v>
+      </c>
+      <c r="Y290">
+        <v>1.09</v>
+      </c>
+      <c r="Z290">
+        <v>2.45</v>
+      </c>
+      <c r="AA290">
+        <v>3.15</v>
+      </c>
+      <c r="AB290">
+        <v>2.8</v>
+      </c>
+      <c r="AC290">
+        <v>1.01</v>
+      </c>
+      <c r="AD290">
+        <v>11</v>
+      </c>
+      <c r="AE290">
+        <v>1.28</v>
+      </c>
+      <c r="AF290">
+        <v>3.7</v>
+      </c>
+      <c r="AG290">
+        <v>1.86</v>
+      </c>
+      <c r="AH290">
+        <v>1.95</v>
+      </c>
+      <c r="AI290">
+        <v>1.63</v>
+      </c>
+      <c r="AJ290">
+        <v>2.1</v>
+      </c>
+      <c r="AK290">
+        <v>1.35</v>
+      </c>
+      <c r="AL290">
+        <v>1.28</v>
+      </c>
+      <c r="AM290">
+        <v>1.52</v>
+      </c>
+      <c r="AN290">
+        <v>1.25</v>
+      </c>
+      <c r="AO290">
+        <v>1.06</v>
+      </c>
+      <c r="AP290">
+        <v>1.24</v>
+      </c>
+      <c r="AQ290">
+        <v>1.06</v>
+      </c>
+      <c r="AR290">
+        <v>1.52</v>
+      </c>
+      <c r="AS290">
+        <v>1.36</v>
+      </c>
+      <c r="AT290">
+        <v>2.88</v>
+      </c>
+      <c r="AU290">
+        <v>5</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>5</v>
+      </c>
+      <c r="AX290">
+        <v>2</v>
+      </c>
+      <c r="AY290">
+        <v>11</v>
+      </c>
+      <c r="AZ290">
+        <v>9</v>
+      </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
+      <c r="BB290">
+        <v>8</v>
+      </c>
+      <c r="BC290">
+        <v>11</v>
+      </c>
+      <c r="BD290">
+        <v>1.83</v>
+      </c>
+      <c r="BE290">
+        <v>6.6</v>
+      </c>
+      <c r="BF290">
+        <v>2.15</v>
+      </c>
+      <c r="BG290">
+        <v>1.25</v>
+      </c>
+      <c r="BH290">
+        <v>4.4</v>
+      </c>
+      <c r="BI290">
+        <v>1.31</v>
+      </c>
+      <c r="BJ290">
+        <v>3.04</v>
+      </c>
+      <c r="BK290">
+        <v>1.6</v>
+      </c>
+      <c r="BL290">
+        <v>2.26</v>
+      </c>
+      <c r="BM290">
+        <v>2.05</v>
+      </c>
+      <c r="BN290">
+        <v>1.7</v>
+      </c>
+      <c r="BO290">
+        <v>2.46</v>
+      </c>
+      <c r="BP290">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1596,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ3">
         <v>0.8100000000000001</v>
@@ -4408,7 +4408,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ41">
         <v>1.06</v>
@@ -11824,7 +11824,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -12233,7 +12233,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -15326,7 +15326,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ67">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -18004,7 +18004,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -19652,7 +19652,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -21297,7 +21297,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ96">
         <v>1.69</v>
@@ -22536,7 +22536,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ102">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR102">
         <v>1.67</v>
@@ -23769,7 +23769,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -24593,7 +24593,7 @@
         <v>2.67</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ112">
         <v>2.19</v>
@@ -26656,7 +26656,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ122">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR122">
         <v>2.04</v>
@@ -28713,7 +28713,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ132">
         <v>1.19</v>
@@ -31803,7 +31803,7 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ147">
         <v>0.5600000000000001</v>
@@ -32630,7 +32630,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ151">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR151">
         <v>1.81</v>
@@ -34484,7 +34484,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ160">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR160">
         <v>1.51</v>
@@ -35099,7 +35099,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -36953,7 +36953,7 @@
         <v>1.22</v>
       </c>
       <c r="AP172">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ172">
         <v>1.38</v>
@@ -37162,7 +37162,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ173">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR173">
         <v>1.71</v>
@@ -39425,7 +39425,7 @@
         <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ184">
         <v>0.88</v>
@@ -42106,7 +42106,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ197">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR197">
         <v>1.68</v>
@@ -44781,7 +44781,7 @@
         <v>1</v>
       </c>
       <c r="AP210">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -46020,7 +46020,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ216">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -48904,7 +48904,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ230">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR230">
         <v>1.6</v>
@@ -49107,7 +49107,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ231">
         <v>1.5</v>
@@ -50755,7 +50755,7 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ239">
         <v>1.31</v>
@@ -53436,7 +53436,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ252">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR252">
         <v>1.69</v>
@@ -54051,7 +54051,7 @@
         <v>1</v>
       </c>
       <c r="AP255">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ255">
         <v>1.06</v>
@@ -56732,7 +56732,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ268">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR268">
         <v>1.5</v>
@@ -57759,7 +57759,7 @@
         <v>1</v>
       </c>
       <c r="AP273">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ273">
         <v>0.9399999999999999</v>
@@ -59822,7 +59822,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ283">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR283">
         <v>1.71</v>
@@ -61340,6 +61340,212 @@
       </c>
       <c r="BP290">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7450944</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45793.64583333334</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>71</v>
+      </c>
+      <c r="H291" t="s">
+        <v>70</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>213</v>
+      </c>
+      <c r="P291" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q291">
+        <v>4.2</v>
+      </c>
+      <c r="R291">
+        <v>2.4</v>
+      </c>
+      <c r="S291">
+        <v>2.2</v>
+      </c>
+      <c r="T291">
+        <v>1.25</v>
+      </c>
+      <c r="U291">
+        <v>3.45</v>
+      </c>
+      <c r="V291">
+        <v>2.23</v>
+      </c>
+      <c r="W291">
+        <v>1.61</v>
+      </c>
+      <c r="X291">
+        <v>4.8</v>
+      </c>
+      <c r="Y291">
+        <v>1.13</v>
+      </c>
+      <c r="Z291">
+        <v>3.4</v>
+      </c>
+      <c r="AA291">
+        <v>3.75</v>
+      </c>
+      <c r="AB291">
+        <v>1.8</v>
+      </c>
+      <c r="AC291">
+        <v>1.04</v>
+      </c>
+      <c r="AD291">
+        <v>15</v>
+      </c>
+      <c r="AE291">
+        <v>1.14</v>
+      </c>
+      <c r="AF291">
+        <v>5</v>
+      </c>
+      <c r="AG291">
+        <v>1.47</v>
+      </c>
+      <c r="AH291">
+        <v>2.33</v>
+      </c>
+      <c r="AI291">
+        <v>1.52</v>
+      </c>
+      <c r="AJ291">
+        <v>2.36</v>
+      </c>
+      <c r="AK291">
+        <v>2.14</v>
+      </c>
+      <c r="AL291">
+        <v>1.22</v>
+      </c>
+      <c r="AM291">
+        <v>1.16</v>
+      </c>
+      <c r="AN291">
+        <v>1.13</v>
+      </c>
+      <c r="AO291">
+        <v>1.69</v>
+      </c>
+      <c r="AP291">
+        <v>1.12</v>
+      </c>
+      <c r="AQ291">
+        <v>1.65</v>
+      </c>
+      <c r="AR291">
+        <v>1.57</v>
+      </c>
+      <c r="AS291">
+        <v>1.33</v>
+      </c>
+      <c r="AT291">
+        <v>2.9</v>
+      </c>
+      <c r="AU291">
+        <v>8</v>
+      </c>
+      <c r="AV291">
+        <v>7</v>
+      </c>
+      <c r="AW291">
+        <v>5</v>
+      </c>
+      <c r="AX291">
+        <v>13</v>
+      </c>
+      <c r="AY291">
+        <v>16</v>
+      </c>
+      <c r="AZ291">
+        <v>27</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>7</v>
+      </c>
+      <c r="BC291">
+        <v>11</v>
+      </c>
+      <c r="BD291">
+        <v>2.26</v>
+      </c>
+      <c r="BE291">
+        <v>6.45</v>
+      </c>
+      <c r="BF291">
+        <v>1.75</v>
+      </c>
+      <c r="BG291">
+        <v>1.25</v>
+      </c>
+      <c r="BH291">
+        <v>3.58</v>
+      </c>
+      <c r="BI291">
+        <v>1.5</v>
+      </c>
+      <c r="BJ291">
+        <v>2.4</v>
+      </c>
+      <c r="BK291">
+        <v>1.74</v>
+      </c>
+      <c r="BL291">
+        <v>1.97</v>
+      </c>
+      <c r="BM291">
+        <v>2.15</v>
+      </c>
+      <c r="BN291">
+        <v>1.56</v>
+      </c>
+      <c r="BO291">
+        <v>2.75</v>
+      </c>
+      <c r="BP291">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -877,6 +877,9 @@
     <t>['45', '73']</t>
   </si>
   <si>
+    <t>['32', '45', '72']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1235,6 +1238,9 @@
   </si>
   <si>
     <t>['15', '80']</t>
+  </si>
+  <si>
+    <t>['6', '39', '86']</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2142,7 +2148,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ3">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2267,7 +2273,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2551,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ5">
         <v>1.06</v>
@@ -2885,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3297,7 +3303,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3709,7 +3715,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3915,7 +3921,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4121,7 +4127,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4327,7 +4333,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4533,7 +4539,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4739,7 +4745,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5975,7 +5981,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6468,7 +6474,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ24">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -6593,7 +6599,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6799,7 +6805,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7005,7 +7011,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7211,7 +7217,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7623,7 +7629,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7907,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ31">
         <v>0.5600000000000001</v>
@@ -8035,7 +8041,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8241,7 +8247,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8653,7 +8659,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8940,7 +8946,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ36">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -9271,7 +9277,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9477,7 +9483,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9761,7 +9767,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -10095,7 +10101,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10713,7 +10719,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10919,7 +10925,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11331,7 +11337,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11743,7 +11749,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12567,7 +12573,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12773,7 +12779,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13597,7 +13603,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13678,7 +13684,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ59">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13803,7 +13809,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14009,7 +14015,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14087,7 +14093,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ61">
         <v>0.63</v>
@@ -14627,7 +14633,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15039,7 +15045,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16353,7 +16359,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -16481,7 +16487,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16687,7 +16693,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16768,7 +16774,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -17923,7 +17929,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19365,7 +19371,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19571,7 +19577,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19777,7 +19783,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19983,7 +19989,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20189,7 +20195,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20476,7 +20482,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ92">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20601,7 +20607,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20807,7 +20813,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -21013,7 +21019,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21219,7 +21225,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21503,7 +21509,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ97">
         <v>1.38</v>
@@ -21837,7 +21843,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22043,7 +22049,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22249,7 +22255,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22455,7 +22461,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22661,7 +22667,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23073,7 +23079,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23897,7 +23903,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23978,7 +23984,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ109">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -24181,7 +24187,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ110">
         <v>0.5600000000000001</v>
@@ -24309,7 +24315,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24927,7 +24933,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25339,7 +25345,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25545,7 +25551,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25957,7 +25963,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26575,7 +26581,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26781,7 +26787,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27193,7 +27199,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27605,7 +27611,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27889,7 +27895,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ128">
         <v>1.06</v>
@@ -28098,7 +28104,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ129">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -28223,7 +28229,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28635,7 +28641,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29047,7 +29053,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29253,7 +29259,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29459,7 +29465,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29665,7 +29671,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29871,7 +29877,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30283,7 +30289,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30489,7 +30495,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -32012,7 +32018,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ148">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR148">
         <v>1.73</v>
@@ -32137,7 +32143,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32343,7 +32349,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32627,7 +32633,7 @@
         <v>2.14</v>
       </c>
       <c r="AP151">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ151">
         <v>1.65</v>
@@ -32755,7 +32761,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33991,7 +33997,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34403,7 +34409,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34609,7 +34615,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35021,7 +35027,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35433,7 +35439,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35720,7 +35726,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ166">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR166">
         <v>1.68</v>
@@ -36129,7 +36135,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ168">
         <v>0.9399999999999999</v>
@@ -36875,7 +36881,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37365,7 +37371,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ174">
         <v>1.19</v>
@@ -37699,7 +37705,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38317,7 +38323,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38729,7 +38735,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38935,7 +38941,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39553,7 +39559,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39965,7 +39971,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40583,7 +40589,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40664,7 +40670,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ190">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR190">
         <v>1.75</v>
@@ -40789,7 +40795,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41407,7 +41413,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41819,7 +41825,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42025,7 +42031,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42437,7 +42443,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43261,7 +43267,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43339,7 +43345,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ203">
         <v>1.5</v>
@@ -43673,7 +43679,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44372,7 +44378,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ208">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR208">
         <v>1.66</v>
@@ -44497,7 +44503,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44909,7 +44915,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45115,7 +45121,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45733,7 +45739,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46432,7 +46438,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR218">
         <v>1.64</v>
@@ -46557,7 +46563,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46635,7 +46641,7 @@
         <v>2.09</v>
       </c>
       <c r="AP219">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ219">
         <v>1.69</v>
@@ -46763,7 +46769,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47793,7 +47799,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47999,7 +48005,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48205,7 +48211,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48617,7 +48623,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49235,7 +49241,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49441,7 +49447,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49647,7 +49653,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49853,7 +49859,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50346,7 +50352,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ237">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR237">
         <v>1.47</v>
@@ -50471,7 +50477,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50677,7 +50683,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51295,7 +51301,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51579,7 +51585,7 @@
         <v>1.08</v>
       </c>
       <c r="AP243">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ243">
         <v>1.06</v>
@@ -52531,7 +52537,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52737,7 +52743,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53149,7 +53155,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53561,7 +53567,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53973,7 +53979,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54179,7 +54185,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54463,7 +54469,7 @@
         <v>2.29</v>
       </c>
       <c r="AP257">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ257">
         <v>2.19</v>
@@ -54591,7 +54597,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54797,7 +54803,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55003,7 +55009,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55084,7 +55090,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ260">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR260">
         <v>1.71</v>
@@ -55621,7 +55627,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56445,7 +56451,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57063,7 +57069,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57269,7 +57275,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57475,7 +57481,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57681,7 +57687,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58299,7 +58305,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58380,7 +58386,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ276">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR276">
         <v>1.6</v>
@@ -58505,7 +58511,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58917,7 +58923,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59535,7 +59541,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59741,7 +59747,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59947,7 +59953,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60565,7 +60571,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60849,7 +60855,7 @@
         <v>1.4</v>
       </c>
       <c r="AP288">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ288">
         <v>1.31</v>
@@ -60977,7 +60983,7 @@
         <v>95</v>
       </c>
       <c r="P289" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q289">
         <v>3.88</v>
@@ -61183,7 +61189,7 @@
         <v>286</v>
       </c>
       <c r="P290" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q290">
         <v>3.1</v>
@@ -61546,6 +61552,212 @@
       </c>
       <c r="BP291">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7450941</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45794.40625</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>73</v>
+      </c>
+      <c r="H292" t="s">
+        <v>80</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>2</v>
+      </c>
+      <c r="K292">
+        <v>4</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>3</v>
+      </c>
+      <c r="N292">
+        <v>6</v>
+      </c>
+      <c r="O292" t="s">
+        <v>287</v>
+      </c>
+      <c r="P292" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q292">
+        <v>1.88</v>
+      </c>
+      <c r="R292">
+        <v>2.48</v>
+      </c>
+      <c r="S292">
+        <v>5.3</v>
+      </c>
+      <c r="T292">
+        <v>1.25</v>
+      </c>
+      <c r="U292">
+        <v>3.7</v>
+      </c>
+      <c r="V292">
+        <v>2.15</v>
+      </c>
+      <c r="W292">
+        <v>1.62</v>
+      </c>
+      <c r="X292">
+        <v>4.4</v>
+      </c>
+      <c r="Y292">
+        <v>1.16</v>
+      </c>
+      <c r="Z292">
+        <v>1.44</v>
+      </c>
+      <c r="AA292">
+        <v>4.5</v>
+      </c>
+      <c r="AB292">
+        <v>5.1</v>
+      </c>
+      <c r="AC292">
+        <v>1.02</v>
+      </c>
+      <c r="AD292">
+        <v>19</v>
+      </c>
+      <c r="AE292">
+        <v>1.1</v>
+      </c>
+      <c r="AF292">
+        <v>5.2</v>
+      </c>
+      <c r="AG292">
+        <v>1.45</v>
+      </c>
+      <c r="AH292">
+        <v>2.5</v>
+      </c>
+      <c r="AI292">
+        <v>1.62</v>
+      </c>
+      <c r="AJ292">
+        <v>2.2</v>
+      </c>
+      <c r="AK292">
+        <v>1.2</v>
+      </c>
+      <c r="AL292">
+        <v>1.18</v>
+      </c>
+      <c r="AM292">
+        <v>2.65</v>
+      </c>
+      <c r="AN292">
+        <v>2.5</v>
+      </c>
+      <c r="AO292">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP292">
+        <v>2.41</v>
+      </c>
+      <c r="AQ292">
+        <v>0.82</v>
+      </c>
+      <c r="AR292">
+        <v>1.89</v>
+      </c>
+      <c r="AS292">
+        <v>1.34</v>
+      </c>
+      <c r="AT292">
+        <v>3.23</v>
+      </c>
+      <c r="AU292">
+        <v>6</v>
+      </c>
+      <c r="AV292">
+        <v>6</v>
+      </c>
+      <c r="AW292">
+        <v>11</v>
+      </c>
+      <c r="AX292">
+        <v>5</v>
+      </c>
+      <c r="AY292">
+        <v>21</v>
+      </c>
+      <c r="AZ292">
+        <v>14</v>
+      </c>
+      <c r="BA292">
+        <v>6</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>10</v>
+      </c>
+      <c r="BD292">
+        <v>1.29</v>
+      </c>
+      <c r="BE292">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF292">
+        <v>3.65</v>
+      </c>
+      <c r="BG292">
+        <v>1.19</v>
+      </c>
+      <c r="BH292">
+        <v>3.8</v>
+      </c>
+      <c r="BI292">
+        <v>1.3</v>
+      </c>
+      <c r="BJ292">
+        <v>3.05</v>
+      </c>
+      <c r="BK292">
+        <v>1.58</v>
+      </c>
+      <c r="BL292">
+        <v>2.4</v>
+      </c>
+      <c r="BM292">
+        <v>1.87</v>
+      </c>
+      <c r="BN292">
+        <v>1.79</v>
+      </c>
+      <c r="BO292">
+        <v>2.34</v>
+      </c>
+      <c r="BP292">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="410">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,9 @@
     <t>['32', '45', '72']</t>
   </si>
   <si>
+    <t>['22', '73']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1602,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP292"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2273,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2891,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3178,7 +3181,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ8">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3303,7 +3306,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3715,7 +3718,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3796,7 +3799,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3921,7 +3924,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4127,7 +4130,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4333,7 +4336,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4539,7 +4542,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4745,7 +4748,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5029,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ17">
         <v>0.63</v>
@@ -5981,7 +5984,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6599,7 +6602,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6805,7 +6808,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7011,7 +7014,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7217,7 +7220,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7298,7 +7301,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ28">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -7629,7 +7632,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -8041,7 +8044,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8247,7 +8250,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8659,7 +8662,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8737,7 +8740,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ35">
         <v>1.06</v>
@@ -9277,7 +9280,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9483,7 +9486,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10101,7 +10104,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10719,7 +10722,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10925,7 +10928,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11337,7 +11340,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11418,7 +11421,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11621,7 +11624,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ49">
         <v>0.9399999999999999</v>
@@ -11749,7 +11752,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12573,7 +12576,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12779,7 +12782,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13603,7 +13606,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13809,7 +13812,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14015,7 +14018,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14508,7 +14511,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14633,7 +14636,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15045,7 +15048,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15535,7 +15538,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ68">
         <v>0.5600000000000001</v>
@@ -16487,7 +16490,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16693,7 +16696,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17929,7 +17932,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -19040,7 +19043,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ85">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -19371,7 +19374,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19577,7 +19580,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19655,7 +19658,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ88">
         <v>1.65</v>
@@ -19783,7 +19786,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19989,7 +19992,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20195,7 +20198,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20607,7 +20610,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20813,7 +20816,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -21019,7 +21022,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21225,7 +21228,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21843,7 +21846,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22049,7 +22052,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22255,7 +22258,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22461,7 +22464,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22667,7 +22670,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -23079,7 +23082,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23903,7 +23906,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23981,7 +23984,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ109">
         <v>0.82</v>
@@ -24315,7 +24318,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24933,7 +24936,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25345,7 +25348,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25426,7 +25429,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ116">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25551,7 +25554,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25963,7 +25966,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26581,7 +26584,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26787,7 +26790,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27199,7 +27202,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27611,7 +27614,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27689,7 +27692,7 @@
         <v>1.17</v>
       </c>
       <c r="AP127">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ127">
         <v>1.31</v>
@@ -28229,7 +28232,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28641,7 +28644,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28722,7 +28725,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ132">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR132">
         <v>1.49</v>
@@ -29053,7 +29056,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29259,7 +29262,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29465,7 +29468,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29671,7 +29674,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29877,7 +29880,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30289,7 +30292,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30495,7 +30498,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31603,7 +31606,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -32143,7 +32146,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32349,7 +32352,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32430,7 +32433,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ150">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR150">
         <v>1.43</v>
@@ -32761,7 +32764,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33997,7 +34000,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34281,7 +34284,7 @@
         <v>2.25</v>
       </c>
       <c r="AP159">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ159">
         <v>1.69</v>
@@ -34409,7 +34412,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34615,7 +34618,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35027,7 +35030,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35439,7 +35442,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36881,7 +36884,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37374,7 +37377,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ174">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR174">
         <v>1.83</v>
@@ -37705,7 +37708,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -37989,7 +37992,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ177">
         <v>1.44</v>
@@ -38323,7 +38326,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38735,7 +38738,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38941,7 +38944,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39559,7 +39562,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39971,7 +39974,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40589,7 +40592,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40795,7 +40798,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40873,7 +40876,7 @@
         <v>0.4</v>
       </c>
       <c r="AP191">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ191">
         <v>0.5600000000000001</v>
@@ -41082,7 +41085,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ192">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -41413,7 +41416,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41825,7 +41828,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42031,7 +42034,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42443,7 +42446,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43267,7 +43270,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43679,7 +43682,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44503,7 +44506,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44915,7 +44918,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45121,7 +45124,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45199,7 +45202,7 @@
         <v>2.27</v>
       </c>
       <c r="AP212">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ212">
         <v>2.19</v>
@@ -45739,7 +45742,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45820,7 +45823,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ215">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR215">
         <v>1.54</v>
@@ -46563,7 +46566,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46769,7 +46772,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47799,7 +47802,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -48005,7 +48008,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48211,7 +48214,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48289,7 +48292,7 @@
         <v>0.83</v>
       </c>
       <c r="AP227">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ227">
         <v>0.88</v>
@@ -48623,7 +48626,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -49241,7 +49244,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49447,7 +49450,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49653,7 +49656,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49734,7 +49737,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ234">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR234">
         <v>1.63</v>
@@ -49859,7 +49862,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50477,7 +50480,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50683,7 +50686,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51301,7 +51304,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52000,7 +52003,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ245">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR245">
         <v>1.71</v>
@@ -52537,7 +52540,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52743,7 +52746,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53027,7 +53030,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ250">
         <v>1</v>
@@ -53155,7 +53158,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53567,7 +53570,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53851,7 +53854,7 @@
         <v>1.14</v>
       </c>
       <c r="AP254">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ254">
         <v>1.06</v>
@@ -53979,7 +53982,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54185,7 +54188,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54597,7 +54600,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54803,7 +54806,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55009,7 +55012,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55502,7 +55505,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ262">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR262">
         <v>1.6</v>
@@ -55627,7 +55630,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56451,7 +56454,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -57069,7 +57072,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57275,7 +57278,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57481,7 +57484,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57687,7 +57690,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -58177,7 +58180,7 @@
         <v>1.07</v>
       </c>
       <c r="AP275">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ275">
         <v>1.06</v>
@@ -58305,7 +58308,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58511,7 +58514,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58592,7 +58595,7 @@
         <v>2</v>
       </c>
       <c r="AQ277">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR277">
         <v>1.74</v>
@@ -58923,7 +58926,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59541,7 +59544,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59747,7 +59750,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59953,7 +59956,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60571,7 +60574,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60983,7 +60986,7 @@
         <v>95</v>
       </c>
       <c r="P289" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q289">
         <v>3.88</v>
@@ -61189,7 +61192,7 @@
         <v>286</v>
       </c>
       <c r="P290" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q290">
         <v>3.1</v>
@@ -61601,7 +61604,7 @@
         <v>287</v>
       </c>
       <c r="P292" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q292">
         <v>1.88</v>
@@ -61758,6 +61761,212 @@
       </c>
       <c r="BP292">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7450940</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45794.52083333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>84</v>
+      </c>
+      <c r="H293" t="s">
+        <v>87</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>288</v>
+      </c>
+      <c r="P293" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q293">
+        <v>2.69</v>
+      </c>
+      <c r="R293">
+        <v>2</v>
+      </c>
+      <c r="S293">
+        <v>4.3</v>
+      </c>
+      <c r="T293">
+        <v>1.44</v>
+      </c>
+      <c r="U293">
+        <v>2.58</v>
+      </c>
+      <c r="V293">
+        <v>3.05</v>
+      </c>
+      <c r="W293">
+        <v>1.32</v>
+      </c>
+      <c r="X293">
+        <v>7.6</v>
+      </c>
+      <c r="Y293">
+        <v>1.03</v>
+      </c>
+      <c r="Z293">
+        <v>2.2</v>
+      </c>
+      <c r="AA293">
+        <v>3.1</v>
+      </c>
+      <c r="AB293">
+        <v>3.53</v>
+      </c>
+      <c r="AC293">
+        <v>1.06</v>
+      </c>
+      <c r="AD293">
+        <v>7.4</v>
+      </c>
+      <c r="AE293">
+        <v>1.35</v>
+      </c>
+      <c r="AF293">
+        <v>2.9</v>
+      </c>
+      <c r="AG293">
+        <v>2.17</v>
+      </c>
+      <c r="AH293">
+        <v>1.67</v>
+      </c>
+      <c r="AI293">
+        <v>1.85</v>
+      </c>
+      <c r="AJ293">
+        <v>1.85</v>
+      </c>
+      <c r="AK293">
+        <v>1.33</v>
+      </c>
+      <c r="AL293">
+        <v>1.28</v>
+      </c>
+      <c r="AM293">
+        <v>1.67</v>
+      </c>
+      <c r="AN293">
+        <v>1.25</v>
+      </c>
+      <c r="AO293">
+        <v>1.19</v>
+      </c>
+      <c r="AP293">
+        <v>1.35</v>
+      </c>
+      <c r="AQ293">
+        <v>1.12</v>
+      </c>
+      <c r="AR293">
+        <v>1.56</v>
+      </c>
+      <c r="AS293">
+        <v>1.41</v>
+      </c>
+      <c r="AT293">
+        <v>2.97</v>
+      </c>
+      <c r="AU293">
+        <v>6</v>
+      </c>
+      <c r="AV293">
+        <v>2</v>
+      </c>
+      <c r="AW293">
+        <v>7</v>
+      </c>
+      <c r="AX293">
+        <v>4</v>
+      </c>
+      <c r="AY293">
+        <v>13</v>
+      </c>
+      <c r="AZ293">
+        <v>7</v>
+      </c>
+      <c r="BA293">
+        <v>5</v>
+      </c>
+      <c r="BB293">
+        <v>2</v>
+      </c>
+      <c r="BC293">
+        <v>7</v>
+      </c>
+      <c r="BD293">
+        <v>1.68</v>
+      </c>
+      <c r="BE293">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF293">
+        <v>2.49</v>
+      </c>
+      <c r="BG293">
+        <v>1.27</v>
+      </c>
+      <c r="BH293">
+        <v>3.3</v>
+      </c>
+      <c r="BI293">
+        <v>1.47</v>
+      </c>
+      <c r="BJ293">
+        <v>2.5</v>
+      </c>
+      <c r="BK293">
+        <v>1.8</v>
+      </c>
+      <c r="BL293">
+        <v>1.9</v>
+      </c>
+      <c r="BM293">
+        <v>2.3</v>
+      </c>
+      <c r="BN293">
+        <v>1.55</v>
+      </c>
+      <c r="BO293">
+        <v>2.9</v>
+      </c>
+      <c r="BP293">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="411">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1245,6 +1245,9 @@
   <si>
     <t>['6', '39', '86']</t>
   </si>
+  <si>
+    <t>['57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1605,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3387,7 +3390,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5238,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ18">
         <v>1.44</v>
@@ -6065,7 +6068,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -7710,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ30">
         <v>1.69</v>
@@ -10391,7 +10394,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ43">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -11009,7 +11012,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -12448,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ53">
         <v>0.5600000000000001</v>
@@ -15744,7 +15747,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15953,7 +15956,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ70">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -19452,7 +19455,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -20691,7 +20694,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR93">
         <v>1.66</v>
@@ -21924,7 +21927,7 @@
         <v>1.17</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ99">
         <v>1.38</v>
@@ -24605,7 +24608,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ112">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR112">
         <v>1.59</v>
@@ -28104,7 +28107,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ129">
         <v>0.82</v>
@@ -29137,7 +29140,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR134">
         <v>1.7</v>
@@ -32227,7 +32230,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32430,7 +32433,7 @@
         <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ150">
         <v>1.12</v>
@@ -34902,7 +34905,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ162">
         <v>1</v>
@@ -35935,7 +35938,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ167">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR167">
         <v>1.71</v>
@@ -38198,7 +38201,7 @@
         <v>1.56</v>
       </c>
       <c r="AP178">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ178">
         <v>1.31</v>
@@ -39231,7 +39234,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ183">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR183">
         <v>2.02</v>
@@ -41288,7 +41291,7 @@
         <v>0.4</v>
       </c>
       <c r="AP193">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ193">
         <v>0.63</v>
@@ -44584,7 +44587,7 @@
         <v>0.75</v>
       </c>
       <c r="AP209">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ209">
         <v>0.5600000000000001</v>
@@ -45205,7 +45208,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ212">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR212">
         <v>1.62</v>
@@ -49322,7 +49325,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ232">
         <v>1.06</v>
@@ -49943,7 +49946,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ235">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR235">
         <v>1.76</v>
@@ -51797,7 +51800,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ244">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR244">
         <v>1.41</v>
@@ -52206,7 +52209,7 @@
         <v>1</v>
       </c>
       <c r="AP246">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ246">
         <v>0.88</v>
@@ -54475,7 +54478,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ257">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR257">
         <v>1.85</v>
@@ -56738,7 +56741,7 @@
         <v>1.71</v>
       </c>
       <c r="AP268">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ268">
         <v>1.65</v>
@@ -57565,7 +57568,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ272">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR272">
         <v>1.59</v>
@@ -58798,7 +58801,7 @@
         <v>1.13</v>
       </c>
       <c r="AP278">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ278">
         <v>1.06</v>
@@ -61967,6 +61970,212 @@
       </c>
       <c r="BP293">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7450938</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45794.63541666666</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>85</v>
+      </c>
+      <c r="H294" t="s">
+        <v>86</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>143</v>
+      </c>
+      <c r="P294" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q294">
+        <v>5.6</v>
+      </c>
+      <c r="R294">
+        <v>2.3</v>
+      </c>
+      <c r="S294">
+        <v>2</v>
+      </c>
+      <c r="T294">
+        <v>1.36</v>
+      </c>
+      <c r="U294">
+        <v>2.89</v>
+      </c>
+      <c r="V294">
+        <v>2.7</v>
+      </c>
+      <c r="W294">
+        <v>1.4</v>
+      </c>
+      <c r="X294">
+        <v>6.5</v>
+      </c>
+      <c r="Y294">
+        <v>1.04</v>
+      </c>
+      <c r="Z294">
+        <v>5.1</v>
+      </c>
+      <c r="AA294">
+        <v>3.64</v>
+      </c>
+      <c r="AB294">
+        <v>1.54</v>
+      </c>
+      <c r="AC294">
+        <v>1.05</v>
+      </c>
+      <c r="AD294">
+        <v>11.8</v>
+      </c>
+      <c r="AE294">
+        <v>1.25</v>
+      </c>
+      <c r="AF294">
+        <v>3.4</v>
+      </c>
+      <c r="AG294">
+        <v>1.91</v>
+      </c>
+      <c r="AH294">
+        <v>1.79</v>
+      </c>
+      <c r="AI294">
+        <v>1.99</v>
+      </c>
+      <c r="AJ294">
+        <v>1.73</v>
+      </c>
+      <c r="AK294">
+        <v>1.25</v>
+      </c>
+      <c r="AL294">
+        <v>1.22</v>
+      </c>
+      <c r="AM294">
+        <v>1.13</v>
+      </c>
+      <c r="AN294">
+        <v>1.63</v>
+      </c>
+      <c r="AO294">
+        <v>2.19</v>
+      </c>
+      <c r="AP294">
+        <v>1.59</v>
+      </c>
+      <c r="AQ294">
+        <v>2.12</v>
+      </c>
+      <c r="AR294">
+        <v>1.51</v>
+      </c>
+      <c r="AS294">
+        <v>1.55</v>
+      </c>
+      <c r="AT294">
+        <v>3.06</v>
+      </c>
+      <c r="AU294">
+        <v>4</v>
+      </c>
+      <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
+        <v>2</v>
+      </c>
+      <c r="AX294">
+        <v>11</v>
+      </c>
+      <c r="AY294">
+        <v>6</v>
+      </c>
+      <c r="AZ294">
+        <v>17</v>
+      </c>
+      <c r="BA294">
+        <v>3</v>
+      </c>
+      <c r="BB294">
+        <v>12</v>
+      </c>
+      <c r="BC294">
+        <v>15</v>
+      </c>
+      <c r="BD294">
+        <v>2.3</v>
+      </c>
+      <c r="BE294">
+        <v>6.75</v>
+      </c>
+      <c r="BF294">
+        <v>1.62</v>
+      </c>
+      <c r="BG294">
+        <v>1.28</v>
+      </c>
+      <c r="BH294">
+        <v>3.28</v>
+      </c>
+      <c r="BI294">
+        <v>1.55</v>
+      </c>
+      <c r="BJ294">
+        <v>2.36</v>
+      </c>
+      <c r="BK294">
+        <v>1.84</v>
+      </c>
+      <c r="BL294">
+        <v>1.83</v>
+      </c>
+      <c r="BM294">
+        <v>2.32</v>
+      </c>
+      <c r="BN294">
+        <v>1.48</v>
+      </c>
+      <c r="BO294">
+        <v>3.1</v>
+      </c>
+      <c r="BP294">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -883,6 +883,12 @@
     <t>['22', '73']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['19', '55', '69']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1608,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2279,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2772,7 +2778,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2897,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2975,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -3309,7 +3315,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3387,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
         <v>2.12</v>
@@ -3721,7 +3727,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3927,7 +3933,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4133,7 +4139,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4339,7 +4345,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4545,7 +4551,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4751,7 +4757,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5244,7 +5250,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ18">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5987,7 +5993,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6605,7 +6611,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6683,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
         <v>1.06</v>
@@ -6811,7 +6817,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7017,7 +7023,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7095,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
         <v>0.88</v>
@@ -7223,7 +7229,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7635,7 +7641,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -8047,7 +8053,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8128,7 +8134,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -8253,7 +8259,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8334,7 +8340,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8665,7 +8671,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9283,7 +9289,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9489,7 +9495,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -10107,7 +10113,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10725,7 +10731,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10931,7 +10937,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11215,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>0.5600000000000001</v>
@@ -11343,7 +11349,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11421,7 +11427,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ48">
         <v>1.12</v>
@@ -11630,7 +11636,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ49">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11755,7 +11761,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12248,7 +12254,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12579,7 +12585,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12785,7 +12791,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13609,7 +13615,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13815,7 +13821,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14021,7 +14027,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14511,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
         <v>1.12</v>
@@ -14639,7 +14645,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -15051,7 +15057,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15129,7 +15135,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15750,7 +15756,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ69">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -16368,7 +16374,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16493,7 +16499,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16699,7 +16705,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17604,7 +17610,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17935,7 +17941,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18013,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
         <v>1.65</v>
@@ -18837,7 +18843,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ84">
         <v>0.63</v>
@@ -19377,7 +19383,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19583,7 +19589,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19789,7 +19795,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19867,7 +19873,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ89">
         <v>0.5600000000000001</v>
@@ -19995,7 +20001,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20201,7 +20207,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20613,7 +20619,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20819,7 +20825,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20900,7 +20906,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ94">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.85</v>
@@ -21025,7 +21031,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21231,7 +21237,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21724,7 +21730,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -21849,7 +21855,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22055,7 +22061,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22136,7 +22142,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -22261,7 +22267,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22339,7 +22345,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ101">
         <v>0.88</v>
@@ -22467,7 +22473,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22673,7 +22679,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22751,7 +22757,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ103">
         <v>1.5</v>
@@ -23085,7 +23091,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23909,7 +23915,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24321,7 +24327,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24399,7 +24405,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ111">
         <v>1.31</v>
@@ -24939,7 +24945,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25020,7 +25026,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -25351,7 +25357,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25557,7 +25563,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25969,7 +25975,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26047,7 +26053,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26587,7 +26593,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26793,7 +26799,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27205,7 +27211,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27617,7 +27623,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28235,7 +28241,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28313,7 +28319,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130">
         <v>1.06</v>
@@ -28522,7 +28528,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28647,7 +28653,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29059,7 +29065,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29265,7 +29271,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29346,7 +29352,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR135">
         <v>1.91</v>
@@ -29471,7 +29477,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29677,7 +29683,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29883,7 +29889,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30295,7 +30301,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30501,7 +30507,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31403,10 +31409,10 @@
         <v>0.63</v>
       </c>
       <c r="AP145">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ145">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR145">
         <v>1.63</v>
@@ -32149,7 +32155,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32355,7 +32361,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32767,7 +32773,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32848,7 +32854,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ152">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR152">
         <v>1.7</v>
@@ -33051,7 +33057,7 @@
         <v>0.86</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
         <v>1.06</v>
@@ -34003,7 +34009,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34415,7 +34421,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34621,7 +34627,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34702,7 +34708,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ161">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -35033,7 +35039,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35445,7 +35451,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35729,7 +35735,7 @@
         <v>0.67</v>
       </c>
       <c r="AP166">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
         <v>0.82</v>
@@ -35935,7 +35941,7 @@
         <v>2.33</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ167">
         <v>2.12</v>
@@ -36144,7 +36150,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ168">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.8</v>
@@ -36887,7 +36893,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37711,7 +37717,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -37998,7 +38004,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ177">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR177">
         <v>1.53</v>
@@ -38329,7 +38335,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38741,7 +38747,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38822,7 +38828,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR181">
         <v>1.46</v>
@@ -38947,7 +38953,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39025,7 +39031,7 @@
         <v>1.1</v>
       </c>
       <c r="AP182">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ182">
         <v>1.06</v>
@@ -39565,7 +39571,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39977,7 +39983,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40595,7 +40601,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40801,7 +40807,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41419,7 +41425,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41706,7 +41712,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR195">
         <v>1.57</v>
@@ -41831,7 +41837,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -42037,7 +42043,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42115,7 +42121,7 @@
         <v>1.7</v>
       </c>
       <c r="AP197">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ197">
         <v>1.65</v>
@@ -42324,7 +42330,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ198">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR198">
         <v>1.96</v>
@@ -42449,7 +42455,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42527,7 +42533,7 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -43273,7 +43279,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43685,7 +43691,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44509,7 +44515,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44921,7 +44927,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -44999,7 +45005,7 @@
         <v>0.82</v>
       </c>
       <c r="AP211">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ211">
         <v>1.06</v>
@@ -45127,7 +45133,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45620,7 +45626,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR214">
         <v>1.68</v>
@@ -45745,7 +45751,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46235,10 +46241,10 @@
         <v>1.18</v>
       </c>
       <c r="AP217">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -46569,7 +46575,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46775,7 +46781,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47805,7 +47811,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47886,7 +47892,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ225">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR225">
         <v>1.64</v>
@@ -48011,7 +48017,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48217,7 +48223,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48629,7 +48635,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48707,7 +48713,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP229">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ229">
         <v>0.5600000000000001</v>
@@ -49247,7 +49253,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49453,7 +49459,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49531,7 +49537,7 @@
         <v>0.42</v>
       </c>
       <c r="AP233">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ233">
         <v>0.5600000000000001</v>
@@ -49659,7 +49665,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49865,7 +49871,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50483,7 +50489,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50564,7 +50570,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ238">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR238">
         <v>1.65</v>
@@ -50689,7 +50695,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51307,7 +51313,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51388,7 +51394,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ242">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR242">
         <v>2.01</v>
@@ -52543,7 +52549,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52621,7 +52627,7 @@
         <v>0.54</v>
       </c>
       <c r="AP248">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ248">
         <v>0.63</v>
@@ -52749,7 +52755,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53161,7 +53167,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53239,7 +53245,7 @@
         <v>1.31</v>
       </c>
       <c r="AP251">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ251">
         <v>1.5</v>
@@ -53573,7 +53579,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53985,7 +53991,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54191,7 +54197,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54603,7 +54609,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54809,7 +54815,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54890,7 +54896,7 @@
         <v>2</v>
       </c>
       <c r="AQ259">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR259">
         <v>1.73</v>
@@ -55015,7 +55021,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55633,7 +55639,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56329,7 +56335,7 @@
         <v>1.71</v>
       </c>
       <c r="AP266">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ266">
         <v>1.69</v>
@@ -56457,7 +56463,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56538,7 +56544,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ267">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR267">
         <v>1.7</v>
@@ -57075,7 +57081,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57281,7 +57287,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57487,7 +57493,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57693,7 +57699,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -57774,7 +57780,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ273">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR273">
         <v>1.56</v>
@@ -58311,7 +58317,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58389,7 +58395,7 @@
         <v>0.67</v>
       </c>
       <c r="AP276">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ276">
         <v>0.82</v>
@@ -58517,7 +58523,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58929,7 +58935,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59007,7 +59013,7 @@
         <v>1.27</v>
       </c>
       <c r="AP279">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ279">
         <v>1.38</v>
@@ -59547,7 +59553,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59753,7 +59759,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59959,7 +59965,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60577,7 +60583,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60989,7 +60995,7 @@
         <v>95</v>
       </c>
       <c r="P289" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q289">
         <v>3.88</v>
@@ -61070,7 +61076,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ289">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR289">
         <v>1.51</v>
@@ -61195,7 +61201,7 @@
         <v>286</v>
       </c>
       <c r="P290" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q290">
         <v>3.1</v>
@@ -61607,7 +61613,7 @@
         <v>287</v>
       </c>
       <c r="P292" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q292">
         <v>1.88</v>
@@ -62019,7 +62025,7 @@
         <v>143</v>
       </c>
       <c r="P294" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q294">
         <v>5.6</v>
@@ -62176,6 +62182,418 @@
       </c>
       <c r="BP294">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7450939</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45795.30208333334</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>77</v>
+      </c>
+      <c r="H295" t="s">
+        <v>83</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>1</v>
+      </c>
+      <c r="O295" t="s">
+        <v>289</v>
+      </c>
+      <c r="P295" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q295">
+        <v>3.08</v>
+      </c>
+      <c r="R295">
+        <v>2.25</v>
+      </c>
+      <c r="S295">
+        <v>3.2</v>
+      </c>
+      <c r="T295">
+        <v>1.3</v>
+      </c>
+      <c r="U295">
+        <v>3.2</v>
+      </c>
+      <c r="V295">
+        <v>2.4</v>
+      </c>
+      <c r="W295">
+        <v>1.5</v>
+      </c>
+      <c r="X295">
+        <v>5.6</v>
+      </c>
+      <c r="Y295">
+        <v>1.11</v>
+      </c>
+      <c r="Z295">
+        <v>2.35</v>
+      </c>
+      <c r="AA295">
+        <v>3.3</v>
+      </c>
+      <c r="AB295">
+        <v>2.77</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>13.5</v>
+      </c>
+      <c r="AE295">
+        <v>1.18</v>
+      </c>
+      <c r="AF295">
+        <v>4.2</v>
+      </c>
+      <c r="AG295">
+        <v>1.7</v>
+      </c>
+      <c r="AH295">
+        <v>2.1</v>
+      </c>
+      <c r="AI295">
+        <v>1.56</v>
+      </c>
+      <c r="AJ295">
+        <v>2.23</v>
+      </c>
+      <c r="AK295">
+        <v>1.25</v>
+      </c>
+      <c r="AL295">
+        <v>1.28</v>
+      </c>
+      <c r="AM295">
+        <v>1.53</v>
+      </c>
+      <c r="AN295">
+        <v>1.38</v>
+      </c>
+      <c r="AO295">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP295">
+        <v>1.47</v>
+      </c>
+      <c r="AQ295">
+        <v>0.88</v>
+      </c>
+      <c r="AR295">
+        <v>1.6</v>
+      </c>
+      <c r="AS295">
+        <v>1.51</v>
+      </c>
+      <c r="AT295">
+        <v>3.11</v>
+      </c>
+      <c r="AU295">
+        <v>7</v>
+      </c>
+      <c r="AV295">
+        <v>4</v>
+      </c>
+      <c r="AW295">
+        <v>11</v>
+      </c>
+      <c r="AX295">
+        <v>14</v>
+      </c>
+      <c r="AY295">
+        <v>25</v>
+      </c>
+      <c r="AZ295">
+        <v>20</v>
+      </c>
+      <c r="BA295">
+        <v>4</v>
+      </c>
+      <c r="BB295">
+        <v>7</v>
+      </c>
+      <c r="BC295">
+        <v>11</v>
+      </c>
+      <c r="BD295">
+        <v>1.74</v>
+      </c>
+      <c r="BE295">
+        <v>6.85</v>
+      </c>
+      <c r="BF295">
+        <v>2.86</v>
+      </c>
+      <c r="BG295">
+        <v>1.17</v>
+      </c>
+      <c r="BH295">
+        <v>4.3</v>
+      </c>
+      <c r="BI295">
+        <v>1.32</v>
+      </c>
+      <c r="BJ295">
+        <v>3.05</v>
+      </c>
+      <c r="BK295">
+        <v>1.7</v>
+      </c>
+      <c r="BL295">
+        <v>2.3</v>
+      </c>
+      <c r="BM295">
+        <v>1.87</v>
+      </c>
+      <c r="BN295">
+        <v>1.88</v>
+      </c>
+      <c r="BO295">
+        <v>2.35</v>
+      </c>
+      <c r="BP295">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7450936</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45795.40625</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>75</v>
+      </c>
+      <c r="H296" t="s">
+        <v>74</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>3</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>290</v>
+      </c>
+      <c r="P296" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q296">
+        <v>3.15</v>
+      </c>
+      <c r="R296">
+        <v>2.25</v>
+      </c>
+      <c r="S296">
+        <v>3.1</v>
+      </c>
+      <c r="T296">
+        <v>1.3</v>
+      </c>
+      <c r="U296">
+        <v>3.2</v>
+      </c>
+      <c r="V296">
+        <v>2.35</v>
+      </c>
+      <c r="W296">
+        <v>1.52</v>
+      </c>
+      <c r="X296">
+        <v>5.25</v>
+      </c>
+      <c r="Y296">
+        <v>1.11</v>
+      </c>
+      <c r="Z296">
+        <v>2.45</v>
+      </c>
+      <c r="AA296">
+        <v>3.52</v>
+      </c>
+      <c r="AB296">
+        <v>2.4</v>
+      </c>
+      <c r="AC296">
+        <v>1.01</v>
+      </c>
+      <c r="AD296">
+        <v>13</v>
+      </c>
+      <c r="AE296">
+        <v>1.2</v>
+      </c>
+      <c r="AF296">
+        <v>4.3</v>
+      </c>
+      <c r="AG296">
+        <v>1.67</v>
+      </c>
+      <c r="AH296">
+        <v>2.15</v>
+      </c>
+      <c r="AI296">
+        <v>1.55</v>
+      </c>
+      <c r="AJ296">
+        <v>2.3</v>
+      </c>
+      <c r="AK296">
+        <v>1.5</v>
+      </c>
+      <c r="AL296">
+        <v>1.25</v>
+      </c>
+      <c r="AM296">
+        <v>1.4</v>
+      </c>
+      <c r="AN296">
+        <v>1.13</v>
+      </c>
+      <c r="AO296">
+        <v>1.44</v>
+      </c>
+      <c r="AP296">
+        <v>1.24</v>
+      </c>
+      <c r="AQ296">
+        <v>1.35</v>
+      </c>
+      <c r="AR296">
+        <v>1.58</v>
+      </c>
+      <c r="AS296">
+        <v>1.51</v>
+      </c>
+      <c r="AT296">
+        <v>3.09</v>
+      </c>
+      <c r="AU296">
+        <v>9</v>
+      </c>
+      <c r="AV296">
+        <v>5</v>
+      </c>
+      <c r="AW296">
+        <v>9</v>
+      </c>
+      <c r="AX296">
+        <v>5</v>
+      </c>
+      <c r="AY296">
+        <v>18</v>
+      </c>
+      <c r="AZ296">
+        <v>10</v>
+      </c>
+      <c r="BA296">
+        <v>8</v>
+      </c>
+      <c r="BB296">
+        <v>1</v>
+      </c>
+      <c r="BC296">
+        <v>9</v>
+      </c>
+      <c r="BD296">
+        <v>2.76</v>
+      </c>
+      <c r="BE296">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF296">
+        <v>1.62</v>
+      </c>
+      <c r="BG296">
+        <v>1.22</v>
+      </c>
+      <c r="BH296">
+        <v>3.6</v>
+      </c>
+      <c r="BI296">
+        <v>1.5</v>
+      </c>
+      <c r="BJ296">
+        <v>2.4</v>
+      </c>
+      <c r="BK296">
+        <v>1.75</v>
+      </c>
+      <c r="BL296">
+        <v>1.97</v>
+      </c>
+      <c r="BM296">
+        <v>2.15</v>
+      </c>
+      <c r="BN296">
+        <v>1.62</v>
+      </c>
+      <c r="BO296">
+        <v>2.65</v>
+      </c>
+      <c r="BP296">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="416">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -889,6 +889,12 @@
     <t>['19', '55', '69']</t>
   </si>
   <si>
+    <t>['14', '59']</t>
+  </si>
+  <si>
+    <t>['61', '87']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1254,6 +1260,9 @@
   <si>
     <t>['57']</t>
   </si>
+  <si>
+    <t>['43', '76']</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1954,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2285,7 +2294,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2363,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>1.06</v>
@@ -2903,7 +2912,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3315,7 +3324,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3727,7 +3736,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3933,7 +3942,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4139,7 +4148,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4345,7 +4354,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4551,7 +4560,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4629,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4757,7 +4766,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5662,7 +5671,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ20">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5993,7 +6002,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6071,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>2.12</v>
@@ -6611,7 +6620,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6817,7 +6826,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7023,7 +7032,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7229,7 +7238,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7516,7 +7525,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7641,7 +7650,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -8053,7 +8062,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8259,7 +8268,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8543,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8671,7 +8680,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -9161,7 +9170,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
         <v>1.31</v>
@@ -9289,7 +9298,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9495,7 +9504,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9576,7 +9585,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -10113,7 +10122,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10731,7 +10740,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10809,7 +10818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -10937,7 +10946,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11224,7 +11233,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11349,7 +11358,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11761,7 +11770,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11839,7 +11848,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>1.65</v>
@@ -12585,7 +12594,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12791,7 +12800,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12872,7 +12881,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -13615,7 +13624,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13821,7 +13830,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14027,7 +14036,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14645,7 +14654,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14723,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -15057,7 +15066,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15550,7 +15559,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ68">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -16499,7 +16508,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16705,7 +16714,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16989,7 +16998,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75">
         <v>1.38</v>
@@ -17941,7 +17950,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18225,7 +18234,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18640,7 +18649,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ83">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR83">
         <v>1.5</v>
@@ -19383,7 +19392,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19464,7 +19473,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19589,7 +19598,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19795,7 +19804,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -20001,7 +20010,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20207,7 +20216,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20285,7 +20294,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -20619,7 +20628,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20825,7 +20834,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -21031,7 +21040,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21237,7 +21246,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21855,7 +21864,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -22061,7 +22070,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22267,7 +22276,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22473,7 +22482,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22679,7 +22688,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22760,7 +22769,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.6</v>
@@ -22963,7 +22972,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ104">
         <v>0.63</v>
@@ -23091,7 +23100,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23584,7 +23593,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23915,7 +23924,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24202,7 +24211,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ110">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR110">
         <v>1.69</v>
@@ -24327,7 +24336,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24945,7 +24954,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25357,7 +25366,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25435,7 +25444,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116">
         <v>1.12</v>
@@ -25563,7 +25572,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25975,7 +25984,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26262,7 +26271,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -26593,7 +26602,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26799,7 +26808,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -27211,7 +27220,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27289,7 +27298,7 @@
         <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ125">
         <v>1.06</v>
@@ -27623,7 +27632,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -28241,7 +28250,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28525,7 +28534,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
         <v>0.88</v>
@@ -28653,7 +28662,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28940,7 +28949,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ133">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR133">
         <v>1.65</v>
@@ -29065,7 +29074,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29271,7 +29280,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29477,7 +29486,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29683,7 +29692,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29889,7 +29898,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -30301,7 +30310,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30507,7 +30516,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31618,7 +31627,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR146">
         <v>1.5</v>
@@ -31824,7 +31833,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ147">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -32027,7 +32036,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148">
         <v>0.82</v>
@@ -32155,7 +32164,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32233,7 +32242,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149">
         <v>2.12</v>
@@ -32361,7 +32370,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32773,7 +32782,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33472,7 +33481,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR155">
         <v>1.98</v>
@@ -33881,7 +33890,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
         <v>0.5600000000000001</v>
@@ -34009,7 +34018,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34421,7 +34430,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34627,7 +34636,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35039,7 +35048,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35323,7 +35332,7 @@
         <v>0.44</v>
       </c>
       <c r="AP164">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164">
         <v>0.5600000000000001</v>
@@ -35451,7 +35460,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -36356,7 +36365,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ169">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36893,7 +36902,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37717,7 +37726,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -38335,7 +38344,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38413,7 +38422,7 @@
         <v>2.11</v>
       </c>
       <c r="AP179">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ179">
         <v>1.69</v>
@@ -38622,7 +38631,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ180">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR180">
         <v>1.4</v>
@@ -38747,7 +38756,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38953,7 +38962,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39571,7 +39580,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39858,7 +39867,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ186">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR186">
         <v>1.66</v>
@@ -39983,7 +39992,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40267,7 +40276,7 @@
         <v>1.4</v>
       </c>
       <c r="AP188">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ188">
         <v>1.38</v>
@@ -40601,7 +40610,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40807,7 +40816,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41425,7 +41434,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41503,7 +41512,7 @@
         <v>0.8</v>
       </c>
       <c r="AP194">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ194">
         <v>1</v>
@@ -41837,7 +41846,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41918,7 +41927,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ196">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR196">
         <v>1.46</v>
@@ -42043,7 +42052,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42455,7 +42464,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -43279,7 +43288,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43360,7 +43369,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ203">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR203">
         <v>1.8</v>
@@ -43691,7 +43700,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44515,7 +44524,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44596,7 +44605,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ209">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR209">
         <v>1.41</v>
@@ -44927,7 +44936,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45133,7 +45142,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45623,7 +45632,7 @@
         <v>0.75</v>
       </c>
       <c r="AP214">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ214">
         <v>0.88</v>
@@ -45751,7 +45760,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -46035,7 +46044,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ216">
         <v>1.65</v>
@@ -46575,7 +46584,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46781,7 +46790,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -47271,7 +47280,7 @@
         <v>1.17</v>
       </c>
       <c r="AP222">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
         <v>1.06</v>
@@ -47811,7 +47820,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -48017,7 +48026,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48098,7 +48107,7 @@
         <v>2</v>
       </c>
       <c r="AQ226">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR226">
         <v>1.8</v>
@@ -48223,7 +48232,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48635,7 +48644,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48716,7 +48725,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ229">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR229">
         <v>1.58</v>
@@ -49128,7 +49137,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ231">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR231">
         <v>1.56</v>
@@ -49253,7 +49262,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49459,7 +49468,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49665,7 +49674,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49743,7 +49752,7 @@
         <v>1.42</v>
       </c>
       <c r="AP234">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ234">
         <v>1.12</v>
@@ -49871,7 +49880,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50361,7 +50370,7 @@
         <v>0.77</v>
       </c>
       <c r="AP237">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ237">
         <v>0.82</v>
@@ -50489,7 +50498,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50695,7 +50704,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -51313,7 +51322,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52421,10 +52430,10 @@
         <v>0.64</v>
       </c>
       <c r="AP247">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ247">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR247">
         <v>1.63</v>
@@ -52549,7 +52558,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52755,7 +52764,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -53167,7 +53176,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53248,7 +53257,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ251">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
         <v>1.64</v>
@@ -53579,7 +53588,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53991,7 +54000,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54197,7 +54206,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54275,7 +54284,7 @@
         <v>1.29</v>
       </c>
       <c r="AP256">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ256">
         <v>1.31</v>
@@ -54609,7 +54618,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54815,7 +54824,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -55021,7 +55030,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55639,7 +55648,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -56463,7 +56472,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56541,7 +56550,7 @@
         <v>1.21</v>
       </c>
       <c r="AP267">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ267">
         <v>1.35</v>
@@ -57081,7 +57090,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57162,7 +57171,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ270">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR270">
         <v>1.66</v>
@@ -57287,7 +57296,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57493,7 +57502,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57699,7 +57708,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -57986,7 +57995,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ274">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR274">
         <v>1.97</v>
@@ -58317,7 +58326,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58523,7 +58532,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58935,7 +58944,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59553,7 +59562,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59759,7 +59768,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59965,7 +59974,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60249,7 +60258,7 @@
         <v>1.8</v>
       </c>
       <c r="AP285">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ285">
         <v>1.69</v>
@@ -60458,7 +60467,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ286">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR286">
         <v>1.71</v>
@@ -60583,7 +60592,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60995,7 +61004,7 @@
         <v>95</v>
       </c>
       <c r="P289" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q289">
         <v>3.88</v>
@@ -61073,7 +61082,7 @@
         <v>1.33</v>
       </c>
       <c r="AP289">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ289">
         <v>1.35</v>
@@ -61201,7 +61210,7 @@
         <v>286</v>
       </c>
       <c r="P290" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q290">
         <v>3.1</v>
@@ -61613,7 +61622,7 @@
         <v>287</v>
       </c>
       <c r="P292" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q292">
         <v>1.88</v>
@@ -62025,7 +62034,7 @@
         <v>143</v>
       </c>
       <c r="P294" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q294">
         <v>5.6</v>
@@ -62542,10 +62551,10 @@
         <v>5</v>
       </c>
       <c r="AY296">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ296">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA296">
         <v>8</v>
@@ -62594,6 +62603,418 @@
       </c>
       <c r="BP296">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7450937</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45795.52083333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>72</v>
+      </c>
+      <c r="H297" t="s">
+        <v>76</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297" t="s">
+        <v>291</v>
+      </c>
+      <c r="P297" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q297">
+        <v>4.64</v>
+      </c>
+      <c r="R297">
+        <v>2.5</v>
+      </c>
+      <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
+        <v>1.25</v>
+      </c>
+      <c r="U297">
+        <v>3.3</v>
+      </c>
+      <c r="V297">
+        <v>2.38</v>
+      </c>
+      <c r="W297">
+        <v>1.74</v>
+      </c>
+      <c r="X297">
+        <v>5.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.14</v>
+      </c>
+      <c r="Z297">
+        <v>4.8</v>
+      </c>
+      <c r="AA297">
+        <v>3.9</v>
+      </c>
+      <c r="AB297">
+        <v>1.56</v>
+      </c>
+      <c r="AC297">
+        <v>1.04</v>
+      </c>
+      <c r="AD297">
+        <v>10</v>
+      </c>
+      <c r="AE297">
+        <v>1.13</v>
+      </c>
+      <c r="AF297">
+        <v>4.45</v>
+      </c>
+      <c r="AG297">
+        <v>1.67</v>
+      </c>
+      <c r="AH297">
+        <v>2.14</v>
+      </c>
+      <c r="AI297">
+        <v>1.69</v>
+      </c>
+      <c r="AJ297">
+        <v>2.1</v>
+      </c>
+      <c r="AK297">
+        <v>1.22</v>
+      </c>
+      <c r="AL297">
+        <v>1.2</v>
+      </c>
+      <c r="AM297">
+        <v>1.14</v>
+      </c>
+      <c r="AN297">
+        <v>1.75</v>
+      </c>
+      <c r="AO297">
+        <v>1.5</v>
+      </c>
+      <c r="AP297">
+        <v>1.71</v>
+      </c>
+      <c r="AQ297">
+        <v>1.47</v>
+      </c>
+      <c r="AR297">
+        <v>1.71</v>
+      </c>
+      <c r="AS297">
+        <v>1.39</v>
+      </c>
+      <c r="AT297">
+        <v>3.1</v>
+      </c>
+      <c r="AU297">
+        <v>5</v>
+      </c>
+      <c r="AV297">
+        <v>10</v>
+      </c>
+      <c r="AW297">
+        <v>5</v>
+      </c>
+      <c r="AX297">
+        <v>8</v>
+      </c>
+      <c r="AY297">
+        <v>12</v>
+      </c>
+      <c r="AZ297">
+        <v>21</v>
+      </c>
+      <c r="BA297">
+        <v>5</v>
+      </c>
+      <c r="BB297">
+        <v>9</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>2.38</v>
+      </c>
+      <c r="BE297">
+        <v>7.8</v>
+      </c>
+      <c r="BF297">
+        <v>1.57</v>
+      </c>
+      <c r="BG297">
+        <v>1.27</v>
+      </c>
+      <c r="BH297">
+        <v>3.35</v>
+      </c>
+      <c r="BI297">
+        <v>1.47</v>
+      </c>
+      <c r="BJ297">
+        <v>2.55</v>
+      </c>
+      <c r="BK297">
+        <v>1.82</v>
+      </c>
+      <c r="BL297">
+        <v>1.91</v>
+      </c>
+      <c r="BM297">
+        <v>2.3</v>
+      </c>
+      <c r="BN297">
+        <v>1.55</v>
+      </c>
+      <c r="BO297">
+        <v>2.5</v>
+      </c>
+      <c r="BP297">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7450943</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45796.58333333334</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>82</v>
+      </c>
+      <c r="H298" t="s">
+        <v>79</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" t="s">
+        <v>292</v>
+      </c>
+      <c r="P298" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q298">
+        <v>2.05</v>
+      </c>
+      <c r="R298">
+        <v>2.24</v>
+      </c>
+      <c r="S298">
+        <v>5.5</v>
+      </c>
+      <c r="T298">
+        <v>1.3</v>
+      </c>
+      <c r="U298">
+        <v>3.2</v>
+      </c>
+      <c r="V298">
+        <v>2.4</v>
+      </c>
+      <c r="W298">
+        <v>1.5</v>
+      </c>
+      <c r="X298">
+        <v>5.3</v>
+      </c>
+      <c r="Y298">
+        <v>1.11</v>
+      </c>
+      <c r="Z298">
+        <v>1.5</v>
+      </c>
+      <c r="AA298">
+        <v>4</v>
+      </c>
+      <c r="AB298">
+        <v>5</v>
+      </c>
+      <c r="AC298">
+        <v>1.02</v>
+      </c>
+      <c r="AD298">
+        <v>11</v>
+      </c>
+      <c r="AE298">
+        <v>1.2</v>
+      </c>
+      <c r="AF298">
+        <v>4.3</v>
+      </c>
+      <c r="AG298">
+        <v>1.65</v>
+      </c>
+      <c r="AH298">
+        <v>2.1</v>
+      </c>
+      <c r="AI298">
+        <v>1.75</v>
+      </c>
+      <c r="AJ298">
+        <v>2</v>
+      </c>
+      <c r="AK298">
+        <v>1.25</v>
+      </c>
+      <c r="AL298">
+        <v>1.2</v>
+      </c>
+      <c r="AM298">
+        <v>2.3</v>
+      </c>
+      <c r="AN298">
+        <v>1.44</v>
+      </c>
+      <c r="AO298">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP298">
+        <v>1.53</v>
+      </c>
+      <c r="AQ298">
+        <v>0.53</v>
+      </c>
+      <c r="AR298">
+        <v>1.49</v>
+      </c>
+      <c r="AS298">
+        <v>1.11</v>
+      </c>
+      <c r="AT298">
+        <v>2.6</v>
+      </c>
+      <c r="AU298">
+        <v>4</v>
+      </c>
+      <c r="AV298">
+        <v>4</v>
+      </c>
+      <c r="AW298">
+        <v>14</v>
+      </c>
+      <c r="AX298">
+        <v>8</v>
+      </c>
+      <c r="AY298">
+        <v>26</v>
+      </c>
+      <c r="AZ298">
+        <v>18</v>
+      </c>
+      <c r="BA298">
+        <v>6</v>
+      </c>
+      <c r="BB298">
+        <v>2</v>
+      </c>
+      <c r="BC298">
+        <v>8</v>
+      </c>
+      <c r="BD298">
+        <v>1.45</v>
+      </c>
+      <c r="BE298">
+        <v>6.75</v>
+      </c>
+      <c r="BF298">
+        <v>2.75</v>
+      </c>
+      <c r="BG298">
+        <v>1.29</v>
+      </c>
+      <c r="BH298">
+        <v>3.3</v>
+      </c>
+      <c r="BI298">
+        <v>1.49</v>
+      </c>
+      <c r="BJ298">
+        <v>2.8</v>
+      </c>
+      <c r="BK298">
+        <v>1.62</v>
+      </c>
+      <c r="BL298">
+        <v>2.15</v>
+      </c>
+      <c r="BM298">
+        <v>2</v>
+      </c>
+      <c r="BN298">
+        <v>1.72</v>
+      </c>
+      <c r="BO298">
+        <v>2.55</v>
+      </c>
+      <c r="BP298">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="426">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -895,6 +895,27 @@
     <t>['61', '87']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['24', '65']</t>
+  </si>
+  <si>
+    <t>['64', '79']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['47', '83']</t>
+  </si>
+  <si>
+    <t>['45+9', '46']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -1231,9 +1252,6 @@
     <t>['55', '65']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['49', '87']</t>
   </si>
   <si>
@@ -1262,6 +1280,18 @@
   </si>
   <si>
     <t>['43', '76']</t>
+  </si>
+  <si>
+    <t>['27', '42']</t>
+  </si>
+  <si>
+    <t>['10', '75', '85']</t>
+  </si>
+  <si>
+    <t>['57', '77']</t>
+  </si>
+  <si>
+    <t>['14', '53', '57']</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ2">
         <v>0.53</v>
@@ -2294,7 +2324,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2784,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2912,7 +2942,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2993,7 +3023,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3196,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ8">
         <v>1.12</v>
@@ -3324,7 +3354,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3611,7 +3641,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3736,7 +3766,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3814,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ11">
         <v>1.12</v>
@@ -3942,7 +3972,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4020,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ12">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4148,7 +4178,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4229,7 +4259,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -4354,7 +4384,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4432,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ14">
         <v>1.65</v>
@@ -4560,7 +4590,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4766,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4844,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5053,7 +5083,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ17">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5462,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ19">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5668,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ20">
         <v>0.53</v>
@@ -5874,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -6002,7 +6032,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6286,10 +6316,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6492,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ24">
         <v>0.82</v>
@@ -6620,7 +6650,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6826,7 +6856,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6904,10 +6934,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -7032,7 +7062,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -7113,7 +7143,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -7238,7 +7268,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7316,7 +7346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ28">
         <v>1.12</v>
@@ -7522,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
         <v>1.47</v>
@@ -7650,7 +7680,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7731,7 +7761,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ30">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7937,7 +7967,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ31">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -8062,7 +8092,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8140,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8268,7 +8298,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8346,7 +8376,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ33">
         <v>1.35</v>
@@ -8555,7 +8585,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ34">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8680,7 +8710,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8761,7 +8791,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8964,7 +8994,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ36">
         <v>0.82</v>
@@ -9173,7 +9203,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -9298,7 +9328,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9376,10 +9406,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -9504,7 +9534,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9582,7 +9612,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ39">
         <v>1.47</v>
@@ -9791,7 +9821,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -10122,7 +10152,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10200,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10406,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ43">
         <v>2.12</v>
@@ -10615,7 +10645,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10740,7 +10770,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10946,7 +10976,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -11024,7 +11054,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ46">
         <v>2.12</v>
@@ -11358,7 +11388,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11770,7 +11800,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12054,7 +12084,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12469,7 +12499,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ53">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12594,7 +12624,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12672,10 +12702,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -12800,7 +12830,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13084,7 +13114,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -13290,10 +13320,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ57">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -13496,10 +13526,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ58">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13624,7 +13654,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13702,7 +13732,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ59">
         <v>0.82</v>
@@ -13830,7 +13860,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13908,10 +13938,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ60">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -14036,7 +14066,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14117,7 +14147,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ61">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14320,10 +14350,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ62">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR62">
         <v>1.9</v>
@@ -14654,7 +14684,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14735,7 +14765,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -14938,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ65">
         <v>1.06</v>
@@ -15066,7 +15096,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15350,7 +15380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ67">
         <v>1.65</v>
@@ -15968,7 +15998,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ70">
         <v>2.12</v>
@@ -16174,7 +16204,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ71">
         <v>1.06</v>
@@ -16508,7 +16538,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16586,10 +16616,10 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ73">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16714,7 +16744,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16792,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -17001,7 +17031,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17204,10 +17234,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ76">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17413,7 +17443,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ77">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -17616,7 +17646,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17822,10 +17852,10 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ79">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17950,7 +17980,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18440,10 +18470,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18646,7 +18676,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
         <v>0.53</v>
@@ -18855,7 +18885,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -19058,7 +19088,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ85">
         <v>1.12</v>
@@ -19264,7 +19294,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19392,7 +19422,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19598,7 +19628,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19804,7 +19834,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19885,7 +19915,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -20010,7 +20040,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20088,10 +20118,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -20216,7 +20246,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20628,7 +20658,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20706,7 +20736,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ93">
         <v>2.12</v>
@@ -20834,7 +20864,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20912,7 +20942,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -21040,7 +21070,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21118,10 +21148,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ95">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -21246,7 +21276,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21327,7 +21357,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ96">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21533,7 +21563,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21736,7 +21766,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>1.35</v>
@@ -21864,7 +21894,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21945,7 +21975,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -22070,7 +22100,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22148,7 +22178,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ100">
         <v>1.35</v>
@@ -22276,7 +22306,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22357,7 +22387,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ101">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22482,7 +22512,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22560,7 +22590,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ102">
         <v>1.65</v>
@@ -22688,7 +22718,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22975,7 +23005,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ104">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -23100,7 +23130,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23178,10 +23208,10 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ105">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -23384,7 +23414,7 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23590,7 +23620,7 @@
         <v>0.4</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ107">
         <v>0.53</v>
@@ -23799,7 +23829,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ108">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23924,7 +23954,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -24336,7 +24366,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24417,7 +24447,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ111">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24826,7 +24856,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ113">
         <v>1.06</v>
@@ -24954,7 +24984,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25238,7 +25268,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -25366,7 +25396,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25572,7 +25602,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25650,10 +25680,10 @@
         <v>1.4</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ117">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25856,10 +25886,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR118">
         <v>1.58</v>
@@ -25984,7 +26014,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26268,7 +26298,7 @@
         <v>2.17</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ120">
         <v>1.47</v>
@@ -26474,10 +26504,10 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26602,7 +26632,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26680,7 +26710,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ122">
         <v>1.65</v>
@@ -26808,7 +26838,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26886,10 +26916,10 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ123">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR123">
         <v>1.23</v>
@@ -27092,10 +27122,10 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ124">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR124">
         <v>1.68</v>
@@ -27220,7 +27250,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27504,10 +27534,10 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ126">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR126">
         <v>1.67</v>
@@ -27632,7 +27662,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27713,7 +27743,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ127">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR127">
         <v>1.46</v>
@@ -28250,7 +28280,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28331,7 +28361,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ130">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -28662,7 +28692,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29074,7 +29104,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29152,7 +29182,7 @@
         <v>2.43</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
         <v>2.12</v>
@@ -29280,7 +29310,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29358,7 +29388,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ135">
         <v>1.35</v>
@@ -29486,7 +29516,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29564,10 +29594,10 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ136">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29692,7 +29722,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29770,10 +29800,10 @@
         <v>0.29</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ137">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR137">
         <v>1.82</v>
@@ -29898,7 +29928,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29976,7 +30006,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -30182,10 +30212,10 @@
         <v>1.43</v>
       </c>
       <c r="AP139">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR139">
         <v>1.94</v>
@@ -30310,7 +30340,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30388,10 +30418,10 @@
         <v>2.57</v>
       </c>
       <c r="AP140">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ140">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR140">
         <v>1.69</v>
@@ -30516,7 +30546,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30594,10 +30624,10 @@
         <v>0.14</v>
       </c>
       <c r="AP141">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ141">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30800,7 +30830,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -31006,10 +31036,10 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR143">
         <v>1.98</v>
@@ -31212,10 +31242,10 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ144">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -32164,7 +32194,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32370,7 +32400,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32782,7 +32812,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -33272,10 +33302,10 @@
         <v>1.25</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ154">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR154">
         <v>1.51</v>
@@ -33478,7 +33508,7 @@
         <v>1.75</v>
       </c>
       <c r="AP155">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ155">
         <v>1.47</v>
@@ -33684,10 +33714,10 @@
         <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ156">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR156">
         <v>1.39</v>
@@ -33893,7 +33923,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR157">
         <v>1.39</v>
@@ -34018,7 +34048,7 @@
         <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q158">
         <v>2.1</v>
@@ -34096,10 +34126,10 @@
         <v>1.63</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR158">
         <v>1.55</v>
@@ -34305,7 +34335,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ159">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR159">
         <v>1.47</v>
@@ -34430,7 +34460,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34508,7 +34538,7 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ160">
         <v>1.65</v>
@@ -34636,7 +34666,7 @@
         <v>95</v>
       </c>
       <c r="P161" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34714,7 +34744,7 @@
         <v>1.25</v>
       </c>
       <c r="AP161">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ161">
         <v>1.35</v>
@@ -35048,7 +35078,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35335,7 +35365,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ164">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR164">
         <v>1.72</v>
@@ -35460,7 +35490,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q165">
         <v>2.05</v>
@@ -35538,10 +35568,10 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ165">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR165">
         <v>2.02</v>
@@ -36362,7 +36392,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP169">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ169">
         <v>0.53</v>
@@ -36568,7 +36598,7 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ170">
         <v>1.06</v>
@@ -36774,7 +36804,7 @@
         <v>1.11</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -36902,7 +36932,7 @@
         <v>149</v>
       </c>
       <c r="P172" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -36983,7 +37013,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ172">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR172">
         <v>1.47</v>
@@ -37598,10 +37628,10 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ175">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR175">
         <v>1.56</v>
@@ -37726,7 +37756,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -37804,10 +37834,10 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ176">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR176">
         <v>1.63</v>
@@ -38219,7 +38249,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ178">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR178">
         <v>1.4</v>
@@ -38344,7 +38374,7 @@
         <v>177</v>
       </c>
       <c r="P179" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -38425,7 +38455,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR179">
         <v>1.4</v>
@@ -38628,7 +38658,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ180">
         <v>1.47</v>
@@ -38756,7 +38786,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38834,7 +38864,7 @@
         <v>0.6</v>
       </c>
       <c r="AP181">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ181">
         <v>0.88</v>
@@ -38962,7 +38992,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>2.55</v>
@@ -39246,7 +39276,7 @@
         <v>2.2</v>
       </c>
       <c r="AP183">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ183">
         <v>2.12</v>
@@ -39455,7 +39485,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ184">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR184">
         <v>1.49</v>
@@ -39580,7 +39610,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q185">
         <v>2.44</v>
@@ -39658,7 +39688,7 @@
         <v>0.9</v>
       </c>
       <c r="AP185">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ185">
         <v>1.06</v>
@@ -39864,7 +39894,7 @@
         <v>0.6</v>
       </c>
       <c r="AP186">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ186">
         <v>0.53</v>
@@ -39992,7 +40022,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q187">
         <v>3.66</v>
@@ -40279,7 +40309,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ188">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR188">
         <v>1.73</v>
@@ -40482,10 +40512,10 @@
         <v>1.4</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ189">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR189">
         <v>1.82</v>
@@ -40610,7 +40640,7 @@
         <v>220</v>
       </c>
       <c r="P190" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q190">
         <v>2.5</v>
@@ -40688,7 +40718,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ190">
         <v>0.82</v>
@@ -40816,7 +40846,7 @@
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40897,7 +40927,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ191">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR191">
         <v>1.48</v>
@@ -41100,7 +41130,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ192">
         <v>1.12</v>
@@ -41309,7 +41339,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ193">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR193">
         <v>1.41</v>
@@ -41434,7 +41464,7 @@
         <v>95</v>
       </c>
       <c r="P194" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q194">
         <v>3.56</v>
@@ -41718,7 +41748,7 @@
         <v>1.3</v>
       </c>
       <c r="AP195">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ195">
         <v>1.35</v>
@@ -41846,7 +41876,7 @@
         <v>95</v>
       </c>
       <c r="P196" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q196">
         <v>2.95</v>
@@ -41924,7 +41954,7 @@
         <v>0.55</v>
       </c>
       <c r="AP196">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ196">
         <v>0.53</v>
@@ -42052,7 +42082,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q197">
         <v>2.8</v>
@@ -42336,7 +42366,7 @@
         <v>0.82</v>
       </c>
       <c r="AP198">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ198">
         <v>0.88</v>
@@ -42464,7 +42494,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42545,7 +42575,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ199">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR199">
         <v>1.65</v>
@@ -42748,10 +42778,10 @@
         <v>0.82</v>
       </c>
       <c r="AP200">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ200">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR200">
         <v>1.6</v>
@@ -42954,10 +42984,10 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ201">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR201">
         <v>1.93</v>
@@ -43288,7 +43318,7 @@
         <v>95</v>
       </c>
       <c r="P203" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43572,10 +43602,10 @@
         <v>1.36</v>
       </c>
       <c r="AP204">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR204">
         <v>1.84</v>
@@ -43700,7 +43730,7 @@
         <v>95</v>
       </c>
       <c r="P205" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -43778,10 +43808,10 @@
         <v>1.27</v>
       </c>
       <c r="AP205">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ205">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR205">
         <v>1.46</v>
@@ -43984,10 +44014,10 @@
         <v>0.36</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ206">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -44190,10 +44220,10 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ207">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR207">
         <v>1.81</v>
@@ -44396,7 +44426,7 @@
         <v>0.91</v>
       </c>
       <c r="AP208">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ208">
         <v>0.82</v>
@@ -44524,7 +44554,7 @@
         <v>231</v>
       </c>
       <c r="P209" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q209">
         <v>2.5</v>
@@ -44936,7 +44966,7 @@
         <v>143</v>
       </c>
       <c r="P211" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q211">
         <v>2.45</v>
@@ -45142,7 +45172,7 @@
         <v>95</v>
       </c>
       <c r="P212" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q212">
         <v>3.65</v>
@@ -45426,10 +45456,10 @@
         <v>0.45</v>
       </c>
       <c r="AP213">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ213">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR213">
         <v>1.92</v>
@@ -45760,7 +45790,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q215">
         <v>3.1</v>
@@ -45838,7 +45868,7 @@
         <v>1.27</v>
       </c>
       <c r="AP215">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ215">
         <v>1.12</v>
@@ -46456,7 +46486,7 @@
         <v>0.83</v>
       </c>
       <c r="AP218">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ218">
         <v>0.82</v>
@@ -46584,7 +46614,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46665,7 +46695,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ219">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR219">
         <v>1.79</v>
@@ -46790,7 +46820,7 @@
         <v>236</v>
       </c>
       <c r="P220" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q220">
         <v>2.88</v>
@@ -46871,7 +46901,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ220">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR220">
         <v>1.63</v>
@@ -47074,10 +47104,10 @@
         <v>1.42</v>
       </c>
       <c r="AP221">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ221">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR221">
         <v>1.97</v>
@@ -47283,7 +47313,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ222">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR222">
         <v>1.48</v>
@@ -47486,10 +47516,10 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ223">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR223">
         <v>1.42</v>
@@ -47692,7 +47722,7 @@
         <v>1.25</v>
       </c>
       <c r="AP224">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ224">
         <v>1.06</v>
@@ -47820,7 +47850,7 @@
         <v>240</v>
       </c>
       <c r="P225" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q225">
         <v>2.88</v>
@@ -47898,7 +47928,7 @@
         <v>1.17</v>
       </c>
       <c r="AP225">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ225">
         <v>1.35</v>
@@ -48026,7 +48056,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48104,7 +48134,7 @@
         <v>1.55</v>
       </c>
       <c r="AP226">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ226">
         <v>1.47</v>
@@ -48232,7 +48262,7 @@
         <v>95</v>
       </c>
       <c r="P227" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48313,7 +48343,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ227">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR227">
         <v>1.59</v>
@@ -48516,7 +48546,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -48644,7 +48674,7 @@
         <v>242</v>
       </c>
       <c r="P229" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q229">
         <v>2.3</v>
@@ -48928,7 +48958,7 @@
         <v>1.75</v>
       </c>
       <c r="AP230">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ230">
         <v>1.65</v>
@@ -49262,7 +49292,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49468,7 +49498,7 @@
         <v>246</v>
       </c>
       <c r="P233" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49549,7 +49579,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ233">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR233">
         <v>1.63</v>
@@ -49674,7 +49704,7 @@
         <v>247</v>
       </c>
       <c r="P234" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49880,7 +49910,7 @@
         <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -49958,7 +49988,7 @@
         <v>2.33</v>
       </c>
       <c r="AP235">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ235">
         <v>2.12</v>
@@ -50167,7 +50197,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ236">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR236">
         <v>1.6</v>
@@ -50498,7 +50528,7 @@
         <v>95</v>
       </c>
       <c r="P238" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50576,7 +50606,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP238">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ238">
         <v>0.88</v>
@@ -50704,7 +50734,7 @@
         <v>250</v>
       </c>
       <c r="P239" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q239">
         <v>2.63</v>
@@ -50785,7 +50815,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ239">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR239">
         <v>1.6</v>
@@ -50988,7 +51018,7 @@
         <v>1.23</v>
       </c>
       <c r="AP240">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ240">
         <v>1.06</v>
@@ -51194,10 +51224,10 @@
         <v>1.38</v>
       </c>
       <c r="AP241">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ241">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR241">
         <v>1.75</v>
@@ -51322,7 +51352,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51400,7 +51430,7 @@
         <v>1.08</v>
       </c>
       <c r="AP242">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ242">
         <v>1.35</v>
@@ -51609,7 +51639,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ243">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR243">
         <v>1.82</v>
@@ -51812,7 +51842,7 @@
         <v>2.38</v>
       </c>
       <c r="AP244">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ244">
         <v>2.12</v>
@@ -52018,7 +52048,7 @@
         <v>1.31</v>
       </c>
       <c r="AP245">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ245">
         <v>1.12</v>
@@ -52227,7 +52257,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ246">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR246">
         <v>1.49</v>
@@ -52558,7 +52588,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52639,7 +52669,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ248">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR248">
         <v>1.6</v>
@@ -52764,7 +52794,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q249">
         <v>1.9</v>
@@ -52842,7 +52872,7 @@
         <v>1.15</v>
       </c>
       <c r="AP249">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
@@ -53176,7 +53206,7 @@
         <v>261</v>
       </c>
       <c r="P251" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -53460,7 +53490,7 @@
         <v>1.62</v>
       </c>
       <c r="AP252">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ252">
         <v>1.65</v>
@@ -53588,7 +53618,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q253">
         <v>2.84</v>
@@ -53666,10 +53696,10 @@
         <v>0.38</v>
       </c>
       <c r="AP253">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ253">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR253">
         <v>1.59</v>
@@ -54000,7 +54030,7 @@
         <v>95</v>
       </c>
       <c r="P255" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q255">
         <v>2.51</v>
@@ -54081,7 +54111,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ255">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR255">
         <v>1.59</v>
@@ -54206,7 +54236,7 @@
         <v>263</v>
       </c>
       <c r="P256" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q256">
         <v>2.55</v>
@@ -54287,7 +54317,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ256">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR256">
         <v>1.49</v>
@@ -54618,7 +54648,7 @@
         <v>265</v>
       </c>
       <c r="P258" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54696,7 +54726,7 @@
         <v>1.07</v>
       </c>
       <c r="AP258">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ258">
         <v>1.06</v>
@@ -54824,7 +54854,7 @@
         <v>177</v>
       </c>
       <c r="P259" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q259">
         <v>2.1</v>
@@ -54902,7 +54932,7 @@
         <v>0.86</v>
       </c>
       <c r="AP259">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ259">
         <v>0.88</v>
@@ -55030,7 +55060,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55108,7 +55138,7 @@
         <v>0.71</v>
       </c>
       <c r="AP260">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ260">
         <v>0.82</v>
@@ -55314,10 +55344,10 @@
         <v>1.85</v>
       </c>
       <c r="AP261">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ261">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR261">
         <v>1.98</v>
@@ -55648,7 +55678,7 @@
         <v>268</v>
       </c>
       <c r="P263" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q263">
         <v>4.6</v>
@@ -55726,7 +55756,7 @@
         <v>0.93</v>
       </c>
       <c r="AP263">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -55932,10 +55962,10 @@
         <v>0.71</v>
       </c>
       <c r="AP264">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ264">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR264">
         <v>1.7</v>
@@ -56138,10 +56168,10 @@
         <v>1.36</v>
       </c>
       <c r="AP265">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ265">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR265">
         <v>1.67</v>
@@ -56347,7 +56377,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ266">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR266">
         <v>1.65</v>
@@ -56472,7 +56502,7 @@
         <v>271</v>
       </c>
       <c r="P267" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q267">
         <v>3.4</v>
@@ -56962,10 +56992,10 @@
         <v>0.93</v>
       </c>
       <c r="AP269">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ269">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR269">
         <v>2</v>
@@ -57090,7 +57120,7 @@
         <v>273</v>
       </c>
       <c r="P270" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -57168,7 +57198,7 @@
         <v>1.43</v>
       </c>
       <c r="AP270">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ270">
         <v>1.47</v>
@@ -57296,7 +57326,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q271">
         <v>2.45</v>
@@ -57374,10 +57404,10 @@
         <v>0.36</v>
       </c>
       <c r="AP271">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ271">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR271">
         <v>1.71</v>
@@ -57502,7 +57532,7 @@
         <v>95</v>
       </c>
       <c r="P272" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57708,7 +57738,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="Q273">
         <v>2.4</v>
@@ -57992,7 +58022,7 @@
         <v>0.6</v>
       </c>
       <c r="AP274">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ274">
         <v>0.53</v>
@@ -58326,7 +58356,7 @@
         <v>95</v>
       </c>
       <c r="P276" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q276">
         <v>2.81</v>
@@ -58532,7 +58562,7 @@
         <v>250</v>
       </c>
       <c r="P277" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q277">
         <v>2.11</v>
@@ -58610,7 +58640,7 @@
         <v>1.2</v>
       </c>
       <c r="AP277">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ277">
         <v>1.12</v>
@@ -58819,7 +58849,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ278">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR278">
         <v>1.47</v>
@@ -58944,7 +58974,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q279">
         <v>3.06</v>
@@ -59025,7 +59055,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ279">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR279">
         <v>1.62</v>
@@ -59228,10 +59258,10 @@
         <v>0.67</v>
       </c>
       <c r="AP280">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ280">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR280">
         <v>1.94</v>
@@ -59434,7 +59464,7 @@
         <v>1.07</v>
       </c>
       <c r="AP281">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ281">
         <v>1</v>
@@ -59562,7 +59592,7 @@
         <v>280</v>
       </c>
       <c r="P282" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q282">
         <v>2.75</v>
@@ -59640,10 +59670,10 @@
         <v>0.93</v>
       </c>
       <c r="AP282">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ282">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR282">
         <v>1.72</v>
@@ -59768,7 +59798,7 @@
         <v>281</v>
       </c>
       <c r="P283" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q283">
         <v>2.33</v>
@@ -59846,7 +59876,7 @@
         <v>1.6</v>
       </c>
       <c r="AP283">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ283">
         <v>1.65</v>
@@ -59974,7 +60004,7 @@
         <v>282</v>
       </c>
       <c r="P284" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q284">
         <v>2.67</v>
@@ -60052,7 +60082,7 @@
         <v>1.13</v>
       </c>
       <c r="AP284">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ284">
         <v>1.06</v>
@@ -60261,7 +60291,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ285">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR285">
         <v>1.72</v>
@@ -60464,7 +60494,7 @@
         <v>1.4</v>
       </c>
       <c r="AP286">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ286">
         <v>1.47</v>
@@ -60592,7 +60622,7 @@
         <v>284</v>
       </c>
       <c r="P287" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60670,10 +60700,10 @@
         <v>0.4</v>
       </c>
       <c r="AP287">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ287">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR287">
         <v>1.38</v>
@@ -60879,7 +60909,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ288">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR288">
         <v>1.87</v>
@@ -61004,7 +61034,7 @@
         <v>95</v>
       </c>
       <c r="P289" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q289">
         <v>3.88</v>
@@ -61210,7 +61240,7 @@
         <v>286</v>
       </c>
       <c r="P290" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q290">
         <v>3.1</v>
@@ -61622,7 +61652,7 @@
         <v>287</v>
       </c>
       <c r="P292" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q292">
         <v>1.88</v>
@@ -62034,7 +62064,7 @@
         <v>143</v>
       </c>
       <c r="P294" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q294">
         <v>5.6</v>
@@ -62652,7 +62682,7 @@
         <v>291</v>
       </c>
       <c r="P297" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q297">
         <v>4.64</v>
@@ -63015,6 +63045,1860 @@
       </c>
       <c r="BP298">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7450945</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>87</v>
+      </c>
+      <c r="H299" t="s">
+        <v>85</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" t="s">
+        <v>212</v>
+      </c>
+      <c r="P299" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q299">
+        <v>2.48</v>
+      </c>
+      <c r="R299">
+        <v>2.1</v>
+      </c>
+      <c r="S299">
+        <v>4.2</v>
+      </c>
+      <c r="T299">
+        <v>1.27</v>
+      </c>
+      <c r="U299">
+        <v>3.28</v>
+      </c>
+      <c r="V299">
+        <v>2.38</v>
+      </c>
+      <c r="W299">
+        <v>1.57</v>
+      </c>
+      <c r="X299">
+        <v>5</v>
+      </c>
+      <c r="Y299">
+        <v>1.14</v>
+      </c>
+      <c r="Z299">
+        <v>2.14</v>
+      </c>
+      <c r="AA299">
+        <v>3.75</v>
+      </c>
+      <c r="AB299">
+        <v>3.62</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>12.5</v>
+      </c>
+      <c r="AE299">
+        <v>1.18</v>
+      </c>
+      <c r="AF299">
+        <v>4.6</v>
+      </c>
+      <c r="AG299">
+        <v>1.62</v>
+      </c>
+      <c r="AH299">
+        <v>2.33</v>
+      </c>
+      <c r="AI299">
+        <v>1.53</v>
+      </c>
+      <c r="AJ299">
+        <v>2.38</v>
+      </c>
+      <c r="AK299">
+        <v>1.22</v>
+      </c>
+      <c r="AL299">
+        <v>1.25</v>
+      </c>
+      <c r="AM299">
+        <v>1.88</v>
+      </c>
+      <c r="AN299">
+        <v>1.69</v>
+      </c>
+      <c r="AO299">
+        <v>1.06</v>
+      </c>
+      <c r="AP299">
+        <v>1.65</v>
+      </c>
+      <c r="AQ299">
+        <v>1.06</v>
+      </c>
+      <c r="AR299">
+        <v>1.99</v>
+      </c>
+      <c r="AS299">
+        <v>1.4</v>
+      </c>
+      <c r="AT299">
+        <v>3.39</v>
+      </c>
+      <c r="AU299">
+        <v>7</v>
+      </c>
+      <c r="AV299">
+        <v>5</v>
+      </c>
+      <c r="AW299">
+        <v>9</v>
+      </c>
+      <c r="AX299">
+        <v>12</v>
+      </c>
+      <c r="AY299">
+        <v>21</v>
+      </c>
+      <c r="AZ299">
+        <v>24</v>
+      </c>
+      <c r="BA299">
+        <v>7</v>
+      </c>
+      <c r="BB299">
+        <v>9</v>
+      </c>
+      <c r="BC299">
+        <v>16</v>
+      </c>
+      <c r="BD299">
+        <v>1.62</v>
+      </c>
+      <c r="BE299">
+        <v>8.6</v>
+      </c>
+      <c r="BF299">
+        <v>2.33</v>
+      </c>
+      <c r="BG299">
+        <v>1.22</v>
+      </c>
+      <c r="BH299">
+        <v>3.8</v>
+      </c>
+      <c r="BI299">
+        <v>1.42</v>
+      </c>
+      <c r="BJ299">
+        <v>2.6</v>
+      </c>
+      <c r="BK299">
+        <v>1.72</v>
+      </c>
+      <c r="BL299">
+        <v>2.01</v>
+      </c>
+      <c r="BM299">
+        <v>1.95</v>
+      </c>
+      <c r="BN299">
+        <v>1.75</v>
+      </c>
+      <c r="BO299">
+        <v>2.4</v>
+      </c>
+      <c r="BP299">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7450946</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>73</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>137</v>
+      </c>
+      <c r="P300" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q300">
+        <v>2.4</v>
+      </c>
+      <c r="R300">
+        <v>2.5</v>
+      </c>
+      <c r="S300">
+        <v>3.65</v>
+      </c>
+      <c r="T300">
+        <v>1.26</v>
+      </c>
+      <c r="U300">
+        <v>3.5</v>
+      </c>
+      <c r="V300">
+        <v>2.28</v>
+      </c>
+      <c r="W300">
+        <v>1.62</v>
+      </c>
+      <c r="X300">
+        <v>4.5</v>
+      </c>
+      <c r="Y300">
+        <v>1.16</v>
+      </c>
+      <c r="Z300">
+        <v>2.17</v>
+      </c>
+      <c r="AA300">
+        <v>3.75</v>
+      </c>
+      <c r="AB300">
+        <v>2.94</v>
+      </c>
+      <c r="AC300">
+        <v>1.01</v>
+      </c>
+      <c r="AD300">
+        <v>13</v>
+      </c>
+      <c r="AE300">
+        <v>1.11</v>
+      </c>
+      <c r="AF300">
+        <v>5.25</v>
+      </c>
+      <c r="AG300">
+        <v>1.45</v>
+      </c>
+      <c r="AH300">
+        <v>2.5</v>
+      </c>
+      <c r="AI300">
+        <v>1.44</v>
+      </c>
+      <c r="AJ300">
+        <v>2.6</v>
+      </c>
+      <c r="AK300">
+        <v>1.24</v>
+      </c>
+      <c r="AL300">
+        <v>1.22</v>
+      </c>
+      <c r="AM300">
+        <v>1.77</v>
+      </c>
+      <c r="AN300">
+        <v>2</v>
+      </c>
+      <c r="AO300">
+        <v>1</v>
+      </c>
+      <c r="AP300">
+        <v>1.94</v>
+      </c>
+      <c r="AQ300">
+        <v>1</v>
+      </c>
+      <c r="AR300">
+        <v>1.78</v>
+      </c>
+      <c r="AS300">
+        <v>1.54</v>
+      </c>
+      <c r="AT300">
+        <v>3.32</v>
+      </c>
+      <c r="AU300">
+        <v>6</v>
+      </c>
+      <c r="AV300">
+        <v>3</v>
+      </c>
+      <c r="AW300">
+        <v>5</v>
+      </c>
+      <c r="AX300">
+        <v>4</v>
+      </c>
+      <c r="AY300">
+        <v>14</v>
+      </c>
+      <c r="AZ300">
+        <v>7</v>
+      </c>
+      <c r="BA300">
+        <v>9</v>
+      </c>
+      <c r="BB300">
+        <v>4</v>
+      </c>
+      <c r="BC300">
+        <v>13</v>
+      </c>
+      <c r="BD300">
+        <v>1.74</v>
+      </c>
+      <c r="BE300">
+        <v>8.1</v>
+      </c>
+      <c r="BF300">
+        <v>2.3</v>
+      </c>
+      <c r="BG300">
+        <v>1.2</v>
+      </c>
+      <c r="BH300">
+        <v>3.7</v>
+      </c>
+      <c r="BI300">
+        <v>1.33</v>
+      </c>
+      <c r="BJ300">
+        <v>2.55</v>
+      </c>
+      <c r="BK300">
+        <v>1.73</v>
+      </c>
+      <c r="BL300">
+        <v>2</v>
+      </c>
+      <c r="BM300">
+        <v>1.92</v>
+      </c>
+      <c r="BN300">
+        <v>1.75</v>
+      </c>
+      <c r="BO300">
+        <v>2.5</v>
+      </c>
+      <c r="BP300">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7450947</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>83</v>
+      </c>
+      <c r="H301" t="s">
+        <v>75</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>2</v>
+      </c>
+      <c r="K301">
+        <v>2</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+      <c r="N301">
+        <v>3</v>
+      </c>
+      <c r="O301" t="s">
+        <v>293</v>
+      </c>
+      <c r="P301" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q301">
+        <v>2.9</v>
+      </c>
+      <c r="R301">
+        <v>2.25</v>
+      </c>
+      <c r="S301">
+        <v>3</v>
+      </c>
+      <c r="T301">
+        <v>1.33</v>
+      </c>
+      <c r="U301">
+        <v>3</v>
+      </c>
+      <c r="V301">
+        <v>2.55</v>
+      </c>
+      <c r="W301">
+        <v>1.48</v>
+      </c>
+      <c r="X301">
+        <v>5.85</v>
+      </c>
+      <c r="Y301">
+        <v>1.1</v>
+      </c>
+      <c r="Z301">
+        <v>2.45</v>
+      </c>
+      <c r="AA301">
+        <v>3.36</v>
+      </c>
+      <c r="AB301">
+        <v>2.5</v>
+      </c>
+      <c r="AC301">
+        <v>1.05</v>
+      </c>
+      <c r="AD301">
+        <v>11</v>
+      </c>
+      <c r="AE301">
+        <v>1.22</v>
+      </c>
+      <c r="AF301">
+        <v>3.95</v>
+      </c>
+      <c r="AG301">
+        <v>1.8</v>
+      </c>
+      <c r="AH301">
+        <v>2.04</v>
+      </c>
+      <c r="AI301">
+        <v>1.63</v>
+      </c>
+      <c r="AJ301">
+        <v>2.2</v>
+      </c>
+      <c r="AK301">
+        <v>1.3</v>
+      </c>
+      <c r="AL301">
+        <v>1.25</v>
+      </c>
+      <c r="AM301">
+        <v>1.5</v>
+      </c>
+      <c r="AN301">
+        <v>1.31</v>
+      </c>
+      <c r="AO301">
+        <v>1.69</v>
+      </c>
+      <c r="AP301">
+        <v>1.24</v>
+      </c>
+      <c r="AQ301">
+        <v>1.76</v>
+      </c>
+      <c r="AR301">
+        <v>1.7</v>
+      </c>
+      <c r="AS301">
+        <v>1.59</v>
+      </c>
+      <c r="AT301">
+        <v>3.29</v>
+      </c>
+      <c r="AU301">
+        <v>4</v>
+      </c>
+      <c r="AV301">
+        <v>7</v>
+      </c>
+      <c r="AW301">
+        <v>9</v>
+      </c>
+      <c r="AX301">
+        <v>11</v>
+      </c>
+      <c r="AY301">
+        <v>14</v>
+      </c>
+      <c r="AZ301">
+        <v>24</v>
+      </c>
+      <c r="BA301">
+        <v>8</v>
+      </c>
+      <c r="BB301">
+        <v>4</v>
+      </c>
+      <c r="BC301">
+        <v>12</v>
+      </c>
+      <c r="BD301">
+        <v>1.98</v>
+      </c>
+      <c r="BE301">
+        <v>6.75</v>
+      </c>
+      <c r="BF301">
+        <v>2.48</v>
+      </c>
+      <c r="BG301">
+        <v>1.17</v>
+      </c>
+      <c r="BH301">
+        <v>4.05</v>
+      </c>
+      <c r="BI301">
+        <v>1.44</v>
+      </c>
+      <c r="BJ301">
+        <v>2.79</v>
+      </c>
+      <c r="BK301">
+        <v>1.72</v>
+      </c>
+      <c r="BL301">
+        <v>2.05</v>
+      </c>
+      <c r="BM301">
+        <v>2.04</v>
+      </c>
+      <c r="BN301">
+        <v>1.66</v>
+      </c>
+      <c r="BO301">
+        <v>2.4</v>
+      </c>
+      <c r="BP301">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7450948</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>76</v>
+      </c>
+      <c r="H302" t="s">
+        <v>84</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
+        <v>294</v>
+      </c>
+      <c r="P302" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q302">
+        <v>1.8</v>
+      </c>
+      <c r="R302">
+        <v>2.5</v>
+      </c>
+      <c r="S302">
+        <v>7</v>
+      </c>
+      <c r="T302">
+        <v>1.27</v>
+      </c>
+      <c r="U302">
+        <v>3.3</v>
+      </c>
+      <c r="V302">
+        <v>2.25</v>
+      </c>
+      <c r="W302">
+        <v>1.55</v>
+      </c>
+      <c r="X302">
+        <v>5.45</v>
+      </c>
+      <c r="Y302">
+        <v>1.13</v>
+      </c>
+      <c r="Z302">
+        <v>1.3</v>
+      </c>
+      <c r="AA302">
+        <v>5.12</v>
+      </c>
+      <c r="AB302">
+        <v>8.5</v>
+      </c>
+      <c r="AC302">
+        <v>1.03</v>
+      </c>
+      <c r="AD302">
+        <v>11</v>
+      </c>
+      <c r="AE302">
+        <v>1.2</v>
+      </c>
+      <c r="AF302">
+        <v>4.4</v>
+      </c>
+      <c r="AG302">
+        <v>1.62</v>
+      </c>
+      <c r="AH302">
+        <v>2.25</v>
+      </c>
+      <c r="AI302">
+        <v>1.93</v>
+      </c>
+      <c r="AJ302">
+        <v>1.83</v>
+      </c>
+      <c r="AK302">
+        <v>1.09</v>
+      </c>
+      <c r="AL302">
+        <v>1.13</v>
+      </c>
+      <c r="AM302">
+        <v>3.4</v>
+      </c>
+      <c r="AN302">
+        <v>2.63</v>
+      </c>
+      <c r="AO302">
+        <v>1.38</v>
+      </c>
+      <c r="AP302">
+        <v>2.65</v>
+      </c>
+      <c r="AQ302">
+        <v>1.29</v>
+      </c>
+      <c r="AR302">
+        <v>1.97</v>
+      </c>
+      <c r="AS302">
+        <v>1.45</v>
+      </c>
+      <c r="AT302">
+        <v>3.42</v>
+      </c>
+      <c r="AU302">
+        <v>2</v>
+      </c>
+      <c r="AV302">
+        <v>5</v>
+      </c>
+      <c r="AW302">
+        <v>6</v>
+      </c>
+      <c r="AX302">
+        <v>6</v>
+      </c>
+      <c r="AY302">
+        <v>13</v>
+      </c>
+      <c r="AZ302">
+        <v>18</v>
+      </c>
+      <c r="BA302">
+        <v>4</v>
+      </c>
+      <c r="BB302">
+        <v>5</v>
+      </c>
+      <c r="BC302">
+        <v>9</v>
+      </c>
+      <c r="BD302">
+        <v>1.4</v>
+      </c>
+      <c r="BE302">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF302">
+        <v>3.8</v>
+      </c>
+      <c r="BG302">
+        <v>1.25</v>
+      </c>
+      <c r="BH302">
+        <v>3.58</v>
+      </c>
+      <c r="BI302">
+        <v>1.47</v>
+      </c>
+      <c r="BJ302">
+        <v>2.5</v>
+      </c>
+      <c r="BK302">
+        <v>2</v>
+      </c>
+      <c r="BL302">
+        <v>1.96</v>
+      </c>
+      <c r="BM302">
+        <v>2.2</v>
+      </c>
+      <c r="BN302">
+        <v>1.58</v>
+      </c>
+      <c r="BO302">
+        <v>2.8</v>
+      </c>
+      <c r="BP302">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7450949</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>80</v>
+      </c>
+      <c r="H303" t="s">
+        <v>72</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>3</v>
+      </c>
+      <c r="N303">
+        <v>5</v>
+      </c>
+      <c r="O303" t="s">
+        <v>295</v>
+      </c>
+      <c r="P303" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q303">
+        <v>2.3</v>
+      </c>
+      <c r="R303">
+        <v>2.5</v>
+      </c>
+      <c r="S303">
+        <v>3.2</v>
+      </c>
+      <c r="T303">
+        <v>1.25</v>
+      </c>
+      <c r="U303">
+        <v>3.3</v>
+      </c>
+      <c r="V303">
+        <v>2.12</v>
+      </c>
+      <c r="W303">
+        <v>1.65</v>
+      </c>
+      <c r="X303">
+        <v>4.5</v>
+      </c>
+      <c r="Y303">
+        <v>1.14</v>
+      </c>
+      <c r="Z303">
+        <v>1.94</v>
+      </c>
+      <c r="AA303">
+        <v>3.8</v>
+      </c>
+      <c r="AB303">
+        <v>3.37</v>
+      </c>
+      <c r="AC303">
+        <v>1.03</v>
+      </c>
+      <c r="AD303">
+        <v>19</v>
+      </c>
+      <c r="AE303">
+        <v>1.11</v>
+      </c>
+      <c r="AF303">
+        <v>5.3</v>
+      </c>
+      <c r="AG303">
+        <v>1.41</v>
+      </c>
+      <c r="AH303">
+        <v>2.5</v>
+      </c>
+      <c r="AI303">
+        <v>1.52</v>
+      </c>
+      <c r="AJ303">
+        <v>2.7</v>
+      </c>
+      <c r="AK303">
+        <v>1.29</v>
+      </c>
+      <c r="AL303">
+        <v>1.22</v>
+      </c>
+      <c r="AM303">
+        <v>1.86</v>
+      </c>
+      <c r="AN303">
+        <v>1.44</v>
+      </c>
+      <c r="AO303">
+        <v>1.06</v>
+      </c>
+      <c r="AP303">
+        <v>1.35</v>
+      </c>
+      <c r="AQ303">
+        <v>1.18</v>
+      </c>
+      <c r="AR303">
+        <v>1.65</v>
+      </c>
+      <c r="AS303">
+        <v>1.51</v>
+      </c>
+      <c r="AT303">
+        <v>3.16</v>
+      </c>
+      <c r="AU303">
+        <v>6</v>
+      </c>
+      <c r="AV303">
+        <v>9</v>
+      </c>
+      <c r="AW303">
+        <v>11</v>
+      </c>
+      <c r="AX303">
+        <v>9</v>
+      </c>
+      <c r="AY303">
+        <v>20</v>
+      </c>
+      <c r="AZ303">
+        <v>19</v>
+      </c>
+      <c r="BA303">
+        <v>5</v>
+      </c>
+      <c r="BB303">
+        <v>5</v>
+      </c>
+      <c r="BC303">
+        <v>10</v>
+      </c>
+      <c r="BD303">
+        <v>1.6</v>
+      </c>
+      <c r="BE303">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF303">
+        <v>2.71</v>
+      </c>
+      <c r="BG303">
+        <v>1.29</v>
+      </c>
+      <c r="BH303">
+        <v>3.4</v>
+      </c>
+      <c r="BI303">
+        <v>1.5</v>
+      </c>
+      <c r="BJ303">
+        <v>2.5</v>
+      </c>
+      <c r="BK303">
+        <v>1.94</v>
+      </c>
+      <c r="BL303">
+        <v>1.86</v>
+      </c>
+      <c r="BM303">
+        <v>2.1</v>
+      </c>
+      <c r="BN303">
+        <v>1.54</v>
+      </c>
+      <c r="BO303">
+        <v>2.7</v>
+      </c>
+      <c r="BP303">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7450950</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>74</v>
+      </c>
+      <c r="H304" t="s">
+        <v>78</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>296</v>
+      </c>
+      <c r="P304" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q304">
+        <v>1.81</v>
+      </c>
+      <c r="R304">
+        <v>2.62</v>
+      </c>
+      <c r="S304">
+        <v>6.36</v>
+      </c>
+      <c r="T304">
+        <v>1.18</v>
+      </c>
+      <c r="U304">
+        <v>3.9</v>
+      </c>
+      <c r="V304">
+        <v>2.05</v>
+      </c>
+      <c r="W304">
+        <v>1.71</v>
+      </c>
+      <c r="X304">
+        <v>4.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.19</v>
+      </c>
+      <c r="Z304">
+        <v>1.36</v>
+      </c>
+      <c r="AA304">
+        <v>4.65</v>
+      </c>
+      <c r="AB304">
+        <v>7.27</v>
+      </c>
+      <c r="AC304">
+        <v>1.01</v>
+      </c>
+      <c r="AD304">
+        <v>17</v>
+      </c>
+      <c r="AE304">
+        <v>1.12</v>
+      </c>
+      <c r="AF304">
+        <v>5.5</v>
+      </c>
+      <c r="AG304">
+        <v>1.45</v>
+      </c>
+      <c r="AH304">
+        <v>2.7</v>
+      </c>
+      <c r="AI304">
+        <v>1.55</v>
+      </c>
+      <c r="AJ304">
+        <v>2.12</v>
+      </c>
+      <c r="AK304">
+        <v>1.15</v>
+      </c>
+      <c r="AL304">
+        <v>1.13</v>
+      </c>
+      <c r="AM304">
+        <v>2.95</v>
+      </c>
+      <c r="AN304">
+        <v>1.88</v>
+      </c>
+      <c r="AO304">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP304">
+        <v>1.82</v>
+      </c>
+      <c r="AQ304">
+        <v>0.59</v>
+      </c>
+      <c r="AR304">
+        <v>1.7</v>
+      </c>
+      <c r="AS304">
+        <v>1.4</v>
+      </c>
+      <c r="AT304">
+        <v>3.1</v>
+      </c>
+      <c r="AU304">
+        <v>8</v>
+      </c>
+      <c r="AV304">
+        <v>5</v>
+      </c>
+      <c r="AW304">
+        <v>9</v>
+      </c>
+      <c r="AX304">
+        <v>4</v>
+      </c>
+      <c r="AY304">
+        <v>19</v>
+      </c>
+      <c r="AZ304">
+        <v>11</v>
+      </c>
+      <c r="BA304">
+        <v>12</v>
+      </c>
+      <c r="BB304">
+        <v>2</v>
+      </c>
+      <c r="BC304">
+        <v>14</v>
+      </c>
+      <c r="BD304">
+        <v>1.3</v>
+      </c>
+      <c r="BE304">
+        <v>7</v>
+      </c>
+      <c r="BF304">
+        <v>4.4</v>
+      </c>
+      <c r="BG304">
+        <v>1.2</v>
+      </c>
+      <c r="BH304">
+        <v>3.4</v>
+      </c>
+      <c r="BI304">
+        <v>1.41</v>
+      </c>
+      <c r="BJ304">
+        <v>2.55</v>
+      </c>
+      <c r="BK304">
+        <v>1.68</v>
+      </c>
+      <c r="BL304">
+        <v>2</v>
+      </c>
+      <c r="BM304">
+        <v>2.01</v>
+      </c>
+      <c r="BN304">
+        <v>1.63</v>
+      </c>
+      <c r="BO304">
+        <v>2.63</v>
+      </c>
+      <c r="BP304">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7450951</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>79</v>
+      </c>
+      <c r="H305" t="s">
+        <v>71</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="N305">
+        <v>2</v>
+      </c>
+      <c r="O305" t="s">
+        <v>297</v>
+      </c>
+      <c r="P305" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q305">
+        <v>3.35</v>
+      </c>
+      <c r="R305">
+        <v>2.57</v>
+      </c>
+      <c r="S305">
+        <v>2.71</v>
+      </c>
+      <c r="T305">
+        <v>1.31</v>
+      </c>
+      <c r="U305">
+        <v>3.5</v>
+      </c>
+      <c r="V305">
+        <v>2.27</v>
+      </c>
+      <c r="W305">
+        <v>1.59</v>
+      </c>
+      <c r="X305">
+        <v>5.25</v>
+      </c>
+      <c r="Y305">
+        <v>1.14</v>
+      </c>
+      <c r="Z305">
+        <v>3.33</v>
+      </c>
+      <c r="AA305">
+        <v>3.6</v>
+      </c>
+      <c r="AB305">
+        <v>1.98</v>
+      </c>
+      <c r="AC305">
+        <v>1.03</v>
+      </c>
+      <c r="AD305">
+        <v>11</v>
+      </c>
+      <c r="AE305">
+        <v>1.17</v>
+      </c>
+      <c r="AF305">
+        <v>4.8</v>
+      </c>
+      <c r="AG305">
+        <v>1.5</v>
+      </c>
+      <c r="AH305">
+        <v>2.4</v>
+      </c>
+      <c r="AI305">
+        <v>1.44</v>
+      </c>
+      <c r="AJ305">
+        <v>2.6</v>
+      </c>
+      <c r="AK305">
+        <v>1.83</v>
+      </c>
+      <c r="AL305">
+        <v>1.25</v>
+      </c>
+      <c r="AM305">
+        <v>1.34</v>
+      </c>
+      <c r="AN305">
+        <v>1.13</v>
+      </c>
+      <c r="AO305">
+        <v>0.63</v>
+      </c>
+      <c r="AP305">
+        <v>1.12</v>
+      </c>
+      <c r="AQ305">
+        <v>0.65</v>
+      </c>
+      <c r="AR305">
+        <v>1.43</v>
+      </c>
+      <c r="AS305">
+        <v>1.53</v>
+      </c>
+      <c r="AT305">
+        <v>2.96</v>
+      </c>
+      <c r="AU305">
+        <v>7</v>
+      </c>
+      <c r="AV305">
+        <v>4</v>
+      </c>
+      <c r="AW305">
+        <v>5</v>
+      </c>
+      <c r="AX305">
+        <v>11</v>
+      </c>
+      <c r="AY305">
+        <v>12</v>
+      </c>
+      <c r="AZ305">
+        <v>15</v>
+      </c>
+      <c r="BA305">
+        <v>6</v>
+      </c>
+      <c r="BB305">
+        <v>5</v>
+      </c>
+      <c r="BC305">
+        <v>11</v>
+      </c>
+      <c r="BD305">
+        <v>2.28</v>
+      </c>
+      <c r="BE305">
+        <v>7.8</v>
+      </c>
+      <c r="BF305">
+        <v>1.84</v>
+      </c>
+      <c r="BG305">
+        <v>1.18</v>
+      </c>
+      <c r="BH305">
+        <v>4.3</v>
+      </c>
+      <c r="BI305">
+        <v>1.3</v>
+      </c>
+      <c r="BJ305">
+        <v>3.2</v>
+      </c>
+      <c r="BK305">
+        <v>1.9</v>
+      </c>
+      <c r="BL305">
+        <v>2.38</v>
+      </c>
+      <c r="BM305">
+        <v>1.85</v>
+      </c>
+      <c r="BN305">
+        <v>1.85</v>
+      </c>
+      <c r="BO305">
+        <v>2.2</v>
+      </c>
+      <c r="BP305">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7450952</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>81</v>
+      </c>
+      <c r="H306" t="s">
+        <v>77</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>3</v>
+      </c>
+      <c r="N306">
+        <v>5</v>
+      </c>
+      <c r="O306" t="s">
+        <v>298</v>
+      </c>
+      <c r="P306" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q306">
+        <v>2.55</v>
+      </c>
+      <c r="R306">
+        <v>2.09</v>
+      </c>
+      <c r="S306">
+        <v>3.71</v>
+      </c>
+      <c r="T306">
+        <v>1.36</v>
+      </c>
+      <c r="U306">
+        <v>2.88</v>
+      </c>
+      <c r="V306">
+        <v>2.81</v>
+      </c>
+      <c r="W306">
+        <v>1.38</v>
+      </c>
+      <c r="X306">
+        <v>7.1</v>
+      </c>
+      <c r="Y306">
+        <v>1.08</v>
+      </c>
+      <c r="Z306">
+        <v>1.91</v>
+      </c>
+      <c r="AA306">
+        <v>3.42</v>
+      </c>
+      <c r="AB306">
+        <v>3.4</v>
+      </c>
+      <c r="AC306">
+        <v>1.02</v>
+      </c>
+      <c r="AD306">
+        <v>10.8</v>
+      </c>
+      <c r="AE306">
+        <v>1.23</v>
+      </c>
+      <c r="AF306">
+        <v>3.3</v>
+      </c>
+      <c r="AG306">
+        <v>1.85</v>
+      </c>
+      <c r="AH306">
+        <v>1.86</v>
+      </c>
+      <c r="AI306">
+        <v>1.7</v>
+      </c>
+      <c r="AJ306">
+        <v>2.05</v>
+      </c>
+      <c r="AK306">
+        <v>1.3</v>
+      </c>
+      <c r="AL306">
+        <v>1.22</v>
+      </c>
+      <c r="AM306">
+        <v>1.8</v>
+      </c>
+      <c r="AN306">
+        <v>1.44</v>
+      </c>
+      <c r="AO306">
+        <v>1.31</v>
+      </c>
+      <c r="AP306">
+        <v>1.35</v>
+      </c>
+      <c r="AQ306">
+        <v>1.41</v>
+      </c>
+      <c r="AR306">
+        <v>1.66</v>
+      </c>
+      <c r="AS306">
+        <v>1.4</v>
+      </c>
+      <c r="AT306">
+        <v>3.06</v>
+      </c>
+      <c r="AU306">
+        <v>8</v>
+      </c>
+      <c r="AV306">
+        <v>5</v>
+      </c>
+      <c r="AW306">
+        <v>11</v>
+      </c>
+      <c r="AX306">
+        <v>7</v>
+      </c>
+      <c r="AY306">
+        <v>20</v>
+      </c>
+      <c r="AZ306">
+        <v>15</v>
+      </c>
+      <c r="BA306">
+        <v>3</v>
+      </c>
+      <c r="BB306">
+        <v>6</v>
+      </c>
+      <c r="BC306">
+        <v>9</v>
+      </c>
+      <c r="BD306">
+        <v>1.74</v>
+      </c>
+      <c r="BE306">
+        <v>6.75</v>
+      </c>
+      <c r="BF306">
+        <v>2.4</v>
+      </c>
+      <c r="BG306">
+        <v>1.13</v>
+      </c>
+      <c r="BH306">
+        <v>4.6</v>
+      </c>
+      <c r="BI306">
+        <v>1.45</v>
+      </c>
+      <c r="BJ306">
+        <v>2.55</v>
+      </c>
+      <c r="BK306">
+        <v>1.72</v>
+      </c>
+      <c r="BL306">
+        <v>2</v>
+      </c>
+      <c r="BM306">
+        <v>1.85</v>
+      </c>
+      <c r="BN306">
+        <v>1.85</v>
+      </c>
+      <c r="BO306">
+        <v>2.3</v>
+      </c>
+      <c r="BP306">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7450953</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>86</v>
+      </c>
+      <c r="H307" t="s">
+        <v>82</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>3</v>
+      </c>
+      <c r="O307" t="s">
+        <v>299</v>
+      </c>
+      <c r="P307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q307">
+        <v>1.65</v>
+      </c>
+      <c r="R307">
+        <v>2.58</v>
+      </c>
+      <c r="S307">
+        <v>8.5</v>
+      </c>
+      <c r="T307">
+        <v>1.28</v>
+      </c>
+      <c r="U307">
+        <v>3.2</v>
+      </c>
+      <c r="V307">
+        <v>2.4</v>
+      </c>
+      <c r="W307">
+        <v>1.5</v>
+      </c>
+      <c r="X307">
+        <v>5.5</v>
+      </c>
+      <c r="Y307">
+        <v>1.12</v>
+      </c>
+      <c r="Z307">
+        <v>1.26</v>
+      </c>
+      <c r="AA307">
+        <v>5.42</v>
+      </c>
+      <c r="AB307">
+        <v>10.96</v>
+      </c>
+      <c r="AC307">
+        <v>1</v>
+      </c>
+      <c r="AD307">
+        <v>11</v>
+      </c>
+      <c r="AE307">
+        <v>1.17</v>
+      </c>
+      <c r="AF307">
+        <v>4</v>
+      </c>
+      <c r="AG307">
+        <v>1.76</v>
+      </c>
+      <c r="AH307">
+        <v>2.1</v>
+      </c>
+      <c r="AI307">
+        <v>2.21</v>
+      </c>
+      <c r="AJ307">
+        <v>1.63</v>
+      </c>
+      <c r="AK307">
+        <v>1.14</v>
+      </c>
+      <c r="AL307">
+        <v>1.11</v>
+      </c>
+      <c r="AM307">
+        <v>3.54</v>
+      </c>
+      <c r="AN307">
+        <v>1.88</v>
+      </c>
+      <c r="AO307">
+        <v>0.88</v>
+      </c>
+      <c r="AP307">
+        <v>1.94</v>
+      </c>
+      <c r="AQ307">
+        <v>0.82</v>
+      </c>
+      <c r="AR307">
+        <v>1.69</v>
+      </c>
+      <c r="AS307">
+        <v>1.39</v>
+      </c>
+      <c r="AT307">
+        <v>3.08</v>
+      </c>
+      <c r="AU307">
+        <v>8</v>
+      </c>
+      <c r="AV307">
+        <v>3</v>
+      </c>
+      <c r="AW307">
+        <v>9</v>
+      </c>
+      <c r="AX307">
+        <v>3</v>
+      </c>
+      <c r="AY307">
+        <v>20</v>
+      </c>
+      <c r="AZ307">
+        <v>6</v>
+      </c>
+      <c r="BA307">
+        <v>8</v>
+      </c>
+      <c r="BB307">
+        <v>7</v>
+      </c>
+      <c r="BC307">
+        <v>15</v>
+      </c>
+      <c r="BD307">
+        <v>1.23</v>
+      </c>
+      <c r="BE307">
+        <v>10.5</v>
+      </c>
+      <c r="BF307">
+        <v>5.8</v>
+      </c>
+      <c r="BG307">
+        <v>1.28</v>
+      </c>
+      <c r="BH307">
+        <v>3.15</v>
+      </c>
+      <c r="BI307">
+        <v>1.48</v>
+      </c>
+      <c r="BJ307">
+        <v>2.5</v>
+      </c>
+      <c r="BK307">
+        <v>1.97</v>
+      </c>
+      <c r="BL307">
+        <v>1.95</v>
+      </c>
+      <c r="BM307">
+        <v>2.2</v>
+      </c>
+      <c r="BN307">
+        <v>1.55</v>
+      </c>
+      <c r="BO307">
+        <v>2.75</v>
+      </c>
+      <c r="BP307">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
